--- a/PES/Office file/staff EIDI 2024.xlsx
+++ b/PES/Office file/staff EIDI 2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rehan Aslam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Office file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EFEECB-5440-47D4-949E-4769B19AA93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F13DB5-05F4-48C3-8E62-E635F41E9E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1629,6 +1629,12 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1647,6 +1653,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1662,27 +1689,6 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1694,6 +1700,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1716,14 +1731,14 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1732,15 +1747,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1763,12 +1769,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2079,8 +2079,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2094,12 +2094,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="121"/>
@@ -2243,12 +2243,12 @@
       <c r="D9" s="128"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="134" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="121"/>
@@ -2279,7 +2279,7 @@
         <f>C12/2</f>
         <v>15750</v>
       </c>
-      <c r="E12" s="176">
+      <c r="E12" s="131">
         <f>D12</f>
         <v>15750</v>
       </c>
@@ -2300,11 +2300,11 @@
         <f>C13/2</f>
         <v>13250</v>
       </c>
-      <c r="E13" s="176">
+      <c r="E13" s="131">
         <f>D13</f>
         <v>13250</v>
       </c>
-      <c r="G13" s="175">
+      <c r="G13" s="130">
         <f>D12+D13+D14+D15+D19+D20+D21+D22+D50+D52</f>
         <v>155750</v>
       </c>
@@ -2325,7 +2325,7 @@
         <f>C14/2</f>
         <v>16000</v>
       </c>
-      <c r="E14" s="176">
+      <c r="E14" s="131">
         <f>D14</f>
         <v>16000</v>
       </c>
@@ -2346,7 +2346,7 @@
         <f>C15/2</f>
         <v>13250</v>
       </c>
-      <c r="E15" s="176">
+      <c r="E15" s="131">
         <f>D15</f>
         <v>13250</v>
       </c>
@@ -2361,12 +2361,12 @@
       <c r="C16" s="104"/>
     </row>
     <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
     </row>
     <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="121"/>
@@ -2396,7 +2396,7 @@
         <f t="shared" ref="D19:D22" si="2">C19/2</f>
         <v>14750</v>
       </c>
-      <c r="E19" s="176">
+      <c r="E19" s="131">
         <f>D19</f>
         <v>14750</v>
       </c>
@@ -2418,7 +2418,7 @@
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="E20" s="176">
+      <c r="E20" s="131">
         <f>D20</f>
         <v>15000</v>
       </c>
@@ -2440,7 +2440,7 @@
         <f t="shared" si="2"/>
         <v>18750</v>
       </c>
-      <c r="E21" s="176">
+      <c r="E21" s="131">
         <f>D21</f>
         <v>18750</v>
       </c>
@@ -2462,7 +2462,7 @@
         <f t="shared" si="2"/>
         <v>12500</v>
       </c>
-      <c r="E22" s="176">
+      <c r="E22" s="131">
         <f>D22</f>
         <v>12500</v>
       </c>
@@ -2477,12 +2477,12 @@
       <c r="C23" s="104"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="132" t="s">
+      <c r="A24" s="134" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="132"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="132"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
     </row>
     <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="121"/>
@@ -2628,12 +2628,12 @@
       <c r="C32" s="104"/>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="132" t="s">
+      <c r="A33" s="134" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="132"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="132"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="121"/>
@@ -2737,12 +2737,12 @@
       <c r="C39" s="104"/>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="132" t="s">
+      <c r="A40" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="132"/>
-      <c r="C40" s="132"/>
-      <c r="D40" s="132"/>
+      <c r="B40" s="134"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="134"/>
       <c r="F40" s="126"/>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2847,12 +2847,12 @@
       <c r="C46" s="104"/>
     </row>
     <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="132" t="s">
+      <c r="A47" s="134" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="132"/>
-      <c r="C47" s="132"/>
-      <c r="D47" s="132"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
     </row>
     <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="121"/>
@@ -2944,8 +2944,7 @@
         <f t="shared" si="9"/>
         <v>15000</v>
       </c>
-      <c r="E52" s="175">
-        <f>D52</f>
+      <c r="E52" s="130">
         <v>15000</v>
       </c>
     </row>
@@ -3055,7 +3054,7 @@
         <v>10000</v>
       </c>
       <c r="E59" s="129">
-        <f t="shared" ref="E58:E67" si="13">D59</f>
+        <f t="shared" ref="E59:E67" si="13">D59</f>
         <v>10000</v>
       </c>
     </row>
@@ -3098,7 +3097,7 @@
         <f t="shared" si="13"/>
         <v>10000</v>
       </c>
-      <c r="H61" s="175">
+      <c r="H61" s="130">
         <f>D58+D70+D71+D72</f>
         <v>95000</v>
       </c>
@@ -3309,6 +3308,10 @@
       <c r="D72" s="127">
         <v>15000</v>
       </c>
+      <c r="E72" s="130">
+        <f>D72</f>
+        <v>15000</v>
+      </c>
     </row>
     <row r="73" spans="1:5" s="89" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="105">
@@ -3411,10 +3414,10 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A78" s="130" t="s">
+      <c r="A78" s="132" t="s">
         <v>116</v>
       </c>
-      <c r="B78" s="130"/>
+      <c r="B78" s="132"/>
       <c r="C78" s="120">
         <f>SUM(C3:C77)</f>
         <v>2297500</v>
@@ -3425,7 +3428,7 @@
       </c>
       <c r="E78" s="120">
         <f>SUM(E3:E77)</f>
-        <v>874250</v>
+        <v>889250</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -3498,15 +3501,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C1" s="174" t="s">
+      <c r="C1" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
       <c r="J1" s="44" t="s">
         <v>106</v>
       </c>
@@ -3615,58 +3618,58 @@
       <c r="Z6" s="7"/>
     </row>
     <row r="7" spans="1:27" s="5" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="140"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="149"/>
       <c r="M7" s="4"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="133" t="s">
+      <c r="O7" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="134"/>
-      <c r="R7" s="135"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="136"/>
+      <c r="R7" s="137"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="133" t="s">
+      <c r="T7" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="134"/>
-      <c r="V7" s="134"/>
-      <c r="W7" s="134"/>
-      <c r="X7" s="134"/>
-      <c r="Y7" s="135"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="136"/>
+      <c r="W7" s="136"/>
+      <c r="X7" s="136"/>
+      <c r="Y7" s="137"/>
       <c r="Z7" s="10"/>
       <c r="AA7" s="4"/>
     </row>
     <row r="8" spans="1:27" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="47"/>
       <c r="B8" s="45"/>
-      <c r="C8" s="147" t="s">
+      <c r="C8" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
       <c r="G8" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H8" s="146">
+      <c r="H8" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I8" s="146"/>
+      <c r="I8" s="143"/>
       <c r="J8" s="45"/>
       <c r="K8" s="49"/>
       <c r="L8" s="50"/>
@@ -3815,13 +3818,13 @@
       <c r="F11" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="143"/>
+      <c r="G11" s="142"/>
       <c r="H11" s="45"/>
       <c r="I11" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="142"/>
-      <c r="K11" s="143"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="142"/>
       <c r="L11" s="59"/>
       <c r="N11" s="15"/>
       <c r="O11" s="16" t="s">
@@ -3898,10 +3901,10 @@
     </row>
     <row r="13" spans="1:27" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
-      <c r="B13" s="144" t="s">
+      <c r="B13" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="145"/>
+      <c r="C13" s="139"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
       <c r="F13" s="62" t="s">
@@ -4026,10 +4029,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="60"/>
-      <c r="I15" s="136" t="s">
+      <c r="I15" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="137"/>
+      <c r="J15" s="146"/>
       <c r="K15" s="69">
         <f>K13+K14</f>
         <v>75000</v>
@@ -4084,10 +4087,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="60"/>
-      <c r="I16" s="136" t="s">
+      <c r="I16" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="137"/>
+      <c r="J16" s="146"/>
       <c r="K16" s="63">
         <f>G16</f>
         <v>0</v>
@@ -4145,7 +4148,7 @@
       <c r="I17" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="143"/>
+      <c r="J17" s="142"/>
       <c r="K17" s="41">
         <f>K15-K16</f>
         <v>75000</v>
@@ -4336,58 +4339,58 @@
       <c r="Z21" s="28"/>
     </row>
     <row r="22" spans="1:27" s="5" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="138" t="s">
+      <c r="A22" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="139"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="139"/>
-      <c r="K22" s="139"/>
-      <c r="L22" s="140"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="149"/>
       <c r="M22" s="4"/>
       <c r="N22" s="19"/>
-      <c r="O22" s="149" t="s">
+      <c r="O22" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="P22" s="150"/>
-      <c r="Q22" s="150"/>
-      <c r="R22" s="151"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="153"/>
       <c r="S22" s="7"/>
-      <c r="T22" s="149" t="s">
+      <c r="T22" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="U22" s="150"/>
-      <c r="V22" s="150"/>
-      <c r="W22" s="150"/>
-      <c r="X22" s="150"/>
-      <c r="Y22" s="151"/>
+      <c r="U22" s="152"/>
+      <c r="V22" s="152"/>
+      <c r="W22" s="152"/>
+      <c r="X22" s="152"/>
+      <c r="Y22" s="153"/>
       <c r="Z22" s="25"/>
       <c r="AA22" s="4"/>
     </row>
     <row r="23" spans="1:27" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="47"/>
       <c r="B23" s="45"/>
-      <c r="C23" s="147" t="s">
+      <c r="C23" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
       <c r="G23" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H23" s="146">
+      <c r="H23" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I23" s="146"/>
+      <c r="I23" s="143"/>
       <c r="J23" s="45"/>
       <c r="K23" s="49"/>
       <c r="L23" s="50"/>
@@ -4529,13 +4532,13 @@
       <c r="F26" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="143"/>
+      <c r="G26" s="142"/>
       <c r="H26" s="45"/>
       <c r="I26" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="142"/>
-      <c r="K26" s="143"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="142"/>
       <c r="L26" s="59"/>
       <c r="N26" s="15"/>
       <c r="O26" s="16" t="s">
@@ -4606,10 +4609,10 @@
     </row>
     <row r="28" spans="1:27" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="47"/>
-      <c r="B28" s="144" t="s">
+      <c r="B28" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="145"/>
+      <c r="C28" s="139"/>
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
       <c r="F28" s="62" t="s">
@@ -4732,10 +4735,10 @@
         <v>1000</v>
       </c>
       <c r="H30" s="60"/>
-      <c r="I30" s="136" t="s">
+      <c r="I30" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J30" s="137"/>
+      <c r="J30" s="146"/>
       <c r="K30" s="69">
         <f>K28+K29</f>
         <v>6000</v>
@@ -4787,10 +4790,10 @@
         <v>1000</v>
       </c>
       <c r="H31" s="60"/>
-      <c r="I31" s="136" t="s">
+      <c r="I31" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J31" s="137"/>
+      <c r="J31" s="146"/>
       <c r="K31" s="63">
         <v>1000</v>
       </c>
@@ -4844,7 +4847,7 @@
       <c r="I32" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J32" s="143"/>
+      <c r="J32" s="142"/>
       <c r="K32" s="41">
         <f>K30-K31</f>
         <v>5000</v>
@@ -5029,58 +5032,58 @@
       <c r="Z36" s="28"/>
     </row>
     <row r="37" spans="1:27" s="5" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="138" t="s">
+      <c r="A37" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="139"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="139"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="139"/>
-      <c r="K37" s="139"/>
-      <c r="L37" s="140"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="149"/>
       <c r="M37" s="4"/>
       <c r="N37" s="8"/>
-      <c r="O37" s="133" t="s">
+      <c r="O37" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P37" s="134"/>
-      <c r="Q37" s="134"/>
-      <c r="R37" s="135"/>
+      <c r="P37" s="136"/>
+      <c r="Q37" s="136"/>
+      <c r="R37" s="137"/>
       <c r="S37" s="9"/>
-      <c r="T37" s="133" t="s">
+      <c r="T37" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U37" s="134"/>
-      <c r="V37" s="134"/>
-      <c r="W37" s="134"/>
-      <c r="X37" s="134"/>
-      <c r="Y37" s="135"/>
+      <c r="U37" s="136"/>
+      <c r="V37" s="136"/>
+      <c r="W37" s="136"/>
+      <c r="X37" s="136"/>
+      <c r="Y37" s="137"/>
       <c r="Z37" s="10"/>
       <c r="AA37" s="4"/>
     </row>
     <row r="38" spans="1:27" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="47"/>
       <c r="B38" s="45"/>
-      <c r="C38" s="147" t="s">
+      <c r="C38" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="147"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="140"/>
+      <c r="F38" s="140"/>
       <c r="G38" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H38" s="146">
+      <c r="H38" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I38" s="146"/>
+      <c r="I38" s="143"/>
       <c r="J38" s="45"/>
       <c r="K38" s="49"/>
       <c r="L38" s="50"/>
@@ -5224,13 +5227,13 @@
       <c r="F41" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="143"/>
+      <c r="G41" s="142"/>
       <c r="H41" s="45"/>
       <c r="I41" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J41" s="142"/>
-      <c r="K41" s="143"/>
+      <c r="J41" s="144"/>
+      <c r="K41" s="142"/>
       <c r="L41" s="59"/>
       <c r="N41" s="15"/>
       <c r="O41" s="16" t="s">
@@ -5304,10 +5307,10 @@
     </row>
     <row r="43" spans="1:27" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="47"/>
-      <c r="B43" s="144" t="s">
+      <c r="B43" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="145"/>
+      <c r="C43" s="139"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
       <c r="F43" s="62" t="s">
@@ -5431,10 +5434,10 @@
         <v>8000</v>
       </c>
       <c r="H45" s="60"/>
-      <c r="I45" s="136" t="s">
+      <c r="I45" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="137"/>
+      <c r="J45" s="146"/>
       <c r="K45" s="69">
         <f>K43+K44</f>
         <v>23000</v>
@@ -5489,10 +5492,10 @@
         <v>1000</v>
       </c>
       <c r="H46" s="60"/>
-      <c r="I46" s="136" t="s">
+      <c r="I46" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J46" s="137"/>
+      <c r="J46" s="146"/>
       <c r="K46" s="63">
         <f>G46</f>
         <v>1000</v>
@@ -5547,7 +5550,7 @@
       <c r="I47" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J47" s="143"/>
+      <c r="J47" s="142"/>
       <c r="K47" s="41">
         <f>K45-K46</f>
         <v>22000</v>
@@ -5726,58 +5729,58 @@
       <c r="Z51" s="28"/>
     </row>
     <row r="52" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="138" t="s">
+      <c r="A52" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="139"/>
-      <c r="C52" s="139"/>
-      <c r="D52" s="139"/>
-      <c r="E52" s="139"/>
-      <c r="F52" s="139"/>
-      <c r="G52" s="139"/>
-      <c r="H52" s="139"/>
-      <c r="I52" s="139"/>
-      <c r="J52" s="139"/>
-      <c r="K52" s="139"/>
-      <c r="L52" s="140"/>
+      <c r="B52" s="148"/>
+      <c r="C52" s="148"/>
+      <c r="D52" s="148"/>
+      <c r="E52" s="148"/>
+      <c r="F52" s="148"/>
+      <c r="G52" s="148"/>
+      <c r="H52" s="148"/>
+      <c r="I52" s="148"/>
+      <c r="J52" s="148"/>
+      <c r="K52" s="148"/>
+      <c r="L52" s="149"/>
       <c r="M52" s="4"/>
       <c r="N52" s="8"/>
-      <c r="O52" s="133" t="s">
+      <c r="O52" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P52" s="134"/>
-      <c r="Q52" s="134"/>
-      <c r="R52" s="135"/>
+      <c r="P52" s="136"/>
+      <c r="Q52" s="136"/>
+      <c r="R52" s="137"/>
       <c r="S52" s="9"/>
-      <c r="T52" s="133" t="s">
+      <c r="T52" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U52" s="134"/>
-      <c r="V52" s="134"/>
-      <c r="W52" s="134"/>
-      <c r="X52" s="134"/>
-      <c r="Y52" s="135"/>
+      <c r="U52" s="136"/>
+      <c r="V52" s="136"/>
+      <c r="W52" s="136"/>
+      <c r="X52" s="136"/>
+      <c r="Y52" s="137"/>
       <c r="Z52" s="10"/>
       <c r="AA52" s="4"/>
     </row>
     <row r="53" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="47"/>
       <c r="B53" s="45"/>
-      <c r="C53" s="147" t="s">
+      <c r="C53" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D53" s="147"/>
-      <c r="E53" s="147"/>
-      <c r="F53" s="147"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="140"/>
+      <c r="F53" s="140"/>
       <c r="G53" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H53" s="146">
+      <c r="H53" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I53" s="146"/>
+      <c r="I53" s="143"/>
       <c r="J53" s="45"/>
       <c r="K53" s="49"/>
       <c r="L53" s="50"/>
@@ -5930,13 +5933,13 @@
       <c r="F56" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G56" s="143"/>
+      <c r="G56" s="142"/>
       <c r="H56" s="45"/>
       <c r="I56" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J56" s="142"/>
-      <c r="K56" s="143"/>
+      <c r="J56" s="144"/>
+      <c r="K56" s="142"/>
       <c r="L56" s="59"/>
       <c r="N56" s="15"/>
       <c r="O56" s="16" t="s">
@@ -6013,10 +6016,10 @@
     </row>
     <row r="58" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="47"/>
-      <c r="B58" s="144" t="s">
+      <c r="B58" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="145"/>
+      <c r="C58" s="139"/>
       <c r="D58" s="45"/>
       <c r="E58" s="45"/>
       <c r="F58" s="62" t="s">
@@ -6141,10 +6144,10 @@
         <v>0</v>
       </c>
       <c r="H60" s="60"/>
-      <c r="I60" s="136" t="s">
+      <c r="I60" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J60" s="137"/>
+      <c r="J60" s="146"/>
       <c r="K60" s="69">
         <f>K58+K59</f>
         <v>47000</v>
@@ -6199,10 +6202,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="60"/>
-      <c r="I61" s="136" t="s">
+      <c r="I61" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J61" s="137"/>
+      <c r="J61" s="146"/>
       <c r="K61" s="63">
         <f>G61</f>
         <v>0</v>
@@ -6260,7 +6263,7 @@
       <c r="I62" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J62" s="143"/>
+      <c r="J62" s="142"/>
       <c r="K62" s="41">
         <f>K60-K61</f>
         <v>47000</v>
@@ -6449,57 +6452,57 @@
       <c r="Z66" s="28"/>
     </row>
     <row r="67" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="138" t="s">
+      <c r="A67" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="139"/>
-      <c r="C67" s="139"/>
-      <c r="D67" s="139"/>
-      <c r="E67" s="139"/>
-      <c r="F67" s="139"/>
-      <c r="G67" s="139"/>
-      <c r="H67" s="139"/>
-      <c r="I67" s="139"/>
-      <c r="J67" s="139"/>
-      <c r="K67" s="139"/>
-      <c r="L67" s="140"/>
+      <c r="B67" s="148"/>
+      <c r="C67" s="148"/>
+      <c r="D67" s="148"/>
+      <c r="E67" s="148"/>
+      <c r="F67" s="148"/>
+      <c r="G67" s="148"/>
+      <c r="H67" s="148"/>
+      <c r="I67" s="148"/>
+      <c r="J67" s="148"/>
+      <c r="K67" s="148"/>
+      <c r="L67" s="149"/>
       <c r="M67" s="4"/>
       <c r="N67" s="8"/>
-      <c r="O67" s="133" t="s">
+      <c r="O67" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P67" s="134"/>
-      <c r="Q67" s="134"/>
-      <c r="R67" s="135"/>
+      <c r="P67" s="136"/>
+      <c r="Q67" s="136"/>
+      <c r="R67" s="137"/>
       <c r="S67" s="9"/>
-      <c r="T67" s="133" t="s">
+      <c r="T67" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U67" s="134"/>
-      <c r="V67" s="134"/>
-      <c r="W67" s="134"/>
-      <c r="X67" s="134"/>
-      <c r="Y67" s="135"/>
+      <c r="U67" s="136"/>
+      <c r="V67" s="136"/>
+      <c r="W67" s="136"/>
+      <c r="X67" s="136"/>
+      <c r="Y67" s="137"/>
       <c r="Z67" s="10"/>
     </row>
     <row r="68" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="47"/>
       <c r="B68" s="45"/>
-      <c r="C68" s="147" t="s">
+      <c r="C68" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D68" s="147"/>
-      <c r="E68" s="147"/>
-      <c r="F68" s="147"/>
+      <c r="D68" s="140"/>
+      <c r="E68" s="140"/>
+      <c r="F68" s="140"/>
       <c r="G68" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H68" s="146">
+      <c r="H68" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I68" s="146"/>
+      <c r="I68" s="143"/>
       <c r="J68" s="45"/>
       <c r="K68" s="49"/>
       <c r="L68" s="50"/>
@@ -6654,13 +6657,13 @@
       <c r="F71" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G71" s="143"/>
+      <c r="G71" s="142"/>
       <c r="H71" s="45"/>
       <c r="I71" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J71" s="142"/>
-      <c r="K71" s="143"/>
+      <c r="J71" s="144"/>
+      <c r="K71" s="142"/>
       <c r="L71" s="59"/>
       <c r="N71" s="15"/>
       <c r="O71" s="16" t="s">
@@ -6732,10 +6735,10 @@
     </row>
     <row r="73" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="47"/>
-      <c r="B73" s="144" t="s">
+      <c r="B73" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="145"/>
+      <c r="C73" s="139"/>
       <c r="D73" s="45"/>
       <c r="E73" s="45"/>
       <c r="F73" s="62" t="s">
@@ -6855,10 +6858,10 @@
         <v>40000</v>
       </c>
       <c r="H75" s="60"/>
-      <c r="I75" s="136" t="s">
+      <c r="I75" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J75" s="137"/>
+      <c r="J75" s="146"/>
       <c r="K75" s="69">
         <f>K73+K74</f>
         <v>80000</v>
@@ -6912,10 +6915,10 @@
         <v>3000</v>
       </c>
       <c r="H76" s="60"/>
-      <c r="I76" s="136" t="s">
+      <c r="I76" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J76" s="137"/>
+      <c r="J76" s="146"/>
       <c r="K76" s="63">
         <f>G76</f>
         <v>3000</v>
@@ -6972,7 +6975,7 @@
       <c r="I77" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J77" s="143"/>
+      <c r="J77" s="142"/>
       <c r="K77" s="41">
         <f>K75-K76</f>
         <v>77000</v>
@@ -7161,58 +7164,58 @@
       <c r="Z81" s="28"/>
     </row>
     <row r="82" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="138" t="s">
+      <c r="A82" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B82" s="139"/>
-      <c r="C82" s="139"/>
-      <c r="D82" s="139"/>
-      <c r="E82" s="139"/>
-      <c r="F82" s="139"/>
-      <c r="G82" s="139"/>
-      <c r="H82" s="139"/>
-      <c r="I82" s="139"/>
-      <c r="J82" s="139"/>
-      <c r="K82" s="139"/>
-      <c r="L82" s="140"/>
+      <c r="B82" s="148"/>
+      <c r="C82" s="148"/>
+      <c r="D82" s="148"/>
+      <c r="E82" s="148"/>
+      <c r="F82" s="148"/>
+      <c r="G82" s="148"/>
+      <c r="H82" s="148"/>
+      <c r="I82" s="148"/>
+      <c r="J82" s="148"/>
+      <c r="K82" s="148"/>
+      <c r="L82" s="149"/>
       <c r="M82" s="4"/>
       <c r="N82" s="8"/>
-      <c r="O82" s="133" t="s">
+      <c r="O82" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P82" s="134"/>
-      <c r="Q82" s="134"/>
-      <c r="R82" s="135"/>
+      <c r="P82" s="136"/>
+      <c r="Q82" s="136"/>
+      <c r="R82" s="137"/>
       <c r="S82" s="9"/>
-      <c r="T82" s="133" t="s">
+      <c r="T82" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U82" s="134"/>
-      <c r="V82" s="134"/>
-      <c r="W82" s="134"/>
-      <c r="X82" s="134"/>
-      <c r="Y82" s="135"/>
+      <c r="U82" s="136"/>
+      <c r="V82" s="136"/>
+      <c r="W82" s="136"/>
+      <c r="X82" s="136"/>
+      <c r="Y82" s="137"/>
       <c r="Z82" s="10"/>
       <c r="AA82" s="4"/>
     </row>
     <row r="83" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="47"/>
       <c r="B83" s="45"/>
-      <c r="C83" s="147" t="s">
+      <c r="C83" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D83" s="147"/>
-      <c r="E83" s="147"/>
-      <c r="F83" s="147"/>
+      <c r="D83" s="140"/>
+      <c r="E83" s="140"/>
+      <c r="F83" s="140"/>
       <c r="G83" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H83" s="146">
+      <c r="H83" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I83" s="146"/>
+      <c r="I83" s="143"/>
       <c r="J83" s="45"/>
       <c r="K83" s="49"/>
       <c r="L83" s="50"/>
@@ -7361,13 +7364,13 @@
       <c r="F86" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G86" s="143"/>
+      <c r="G86" s="142"/>
       <c r="H86" s="45"/>
       <c r="I86" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J86" s="142"/>
-      <c r="K86" s="143"/>
+      <c r="J86" s="144"/>
+      <c r="K86" s="142"/>
       <c r="L86" s="59"/>
       <c r="N86" s="15"/>
       <c r="O86" s="16" t="s">
@@ -7444,10 +7447,10 @@
     </row>
     <row r="88" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="47"/>
-      <c r="B88" s="144" t="s">
+      <c r="B88" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C88" s="145"/>
+      <c r="C88" s="139"/>
       <c r="D88" s="45"/>
       <c r="E88" s="45"/>
       <c r="F88" s="62" t="s">
@@ -7574,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="H90" s="60"/>
-      <c r="I90" s="136" t="s">
+      <c r="I90" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J90" s="137"/>
+      <c r="J90" s="146"/>
       <c r="K90" s="69">
         <f>K88+K89</f>
         <v>82974.137931034478</v>
@@ -7632,10 +7635,10 @@
         <v>0</v>
       </c>
       <c r="H91" s="60"/>
-      <c r="I91" s="136" t="s">
+      <c r="I91" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J91" s="137"/>
+      <c r="J91" s="146"/>
       <c r="K91" s="63">
         <f>G91</f>
         <v>0</v>
@@ -7693,7 +7696,7 @@
       <c r="I92" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J92" s="143"/>
+      <c r="J92" s="142"/>
       <c r="K92" s="41">
         <f>K90-K91</f>
         <v>82974.137931034478</v>
@@ -7886,57 +7889,57 @@
       <c r="Z96" s="28"/>
     </row>
     <row r="97" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="138" t="s">
+      <c r="A97" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B97" s="139"/>
-      <c r="C97" s="139"/>
-      <c r="D97" s="139"/>
-      <c r="E97" s="139"/>
-      <c r="F97" s="139"/>
-      <c r="G97" s="139"/>
-      <c r="H97" s="139"/>
-      <c r="I97" s="139"/>
-      <c r="J97" s="139"/>
-      <c r="K97" s="139"/>
-      <c r="L97" s="140"/>
+      <c r="B97" s="148"/>
+      <c r="C97" s="148"/>
+      <c r="D97" s="148"/>
+      <c r="E97" s="148"/>
+      <c r="F97" s="148"/>
+      <c r="G97" s="148"/>
+      <c r="H97" s="148"/>
+      <c r="I97" s="148"/>
+      <c r="J97" s="148"/>
+      <c r="K97" s="148"/>
+      <c r="L97" s="149"/>
       <c r="M97" s="4"/>
       <c r="N97" s="8"/>
-      <c r="O97" s="133" t="s">
+      <c r="O97" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P97" s="134"/>
-      <c r="Q97" s="134"/>
-      <c r="R97" s="135"/>
+      <c r="P97" s="136"/>
+      <c r="Q97" s="136"/>
+      <c r="R97" s="137"/>
       <c r="S97" s="9"/>
-      <c r="T97" s="133" t="s">
+      <c r="T97" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U97" s="134"/>
-      <c r="V97" s="134"/>
-      <c r="W97" s="134"/>
-      <c r="X97" s="134"/>
-      <c r="Y97" s="135"/>
+      <c r="U97" s="136"/>
+      <c r="V97" s="136"/>
+      <c r="W97" s="136"/>
+      <c r="X97" s="136"/>
+      <c r="Y97" s="137"/>
       <c r="Z97" s="10"/>
     </row>
     <row r="98" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="47"/>
       <c r="B98" s="45"/>
-      <c r="C98" s="147" t="s">
+      <c r="C98" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D98" s="147"/>
-      <c r="E98" s="147"/>
-      <c r="F98" s="147"/>
+      <c r="D98" s="140"/>
+      <c r="E98" s="140"/>
+      <c r="F98" s="140"/>
       <c r="G98" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H98" s="146">
+      <c r="H98" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I98" s="146"/>
+      <c r="I98" s="143"/>
       <c r="J98" s="45"/>
       <c r="K98" s="49"/>
       <c r="L98" s="50"/>
@@ -8089,13 +8092,13 @@
       <c r="F101" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G101" s="143"/>
+      <c r="G101" s="142"/>
       <c r="H101" s="45"/>
       <c r="I101" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J101" s="142"/>
-      <c r="K101" s="143"/>
+      <c r="J101" s="144"/>
+      <c r="K101" s="142"/>
       <c r="L101" s="59"/>
       <c r="N101" s="15"/>
       <c r="O101" s="16" t="s">
@@ -8164,10 +8167,10 @@
     </row>
     <row r="103" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="47"/>
-      <c r="B103" s="144" t="s">
+      <c r="B103" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C103" s="145"/>
+      <c r="C103" s="139"/>
       <c r="D103" s="45"/>
       <c r="E103" s="45"/>
       <c r="F103" s="62" t="s">
@@ -8284,10 +8287,10 @@
         <v>35000</v>
       </c>
       <c r="H105" s="60"/>
-      <c r="I105" s="136" t="s">
+      <c r="I105" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J105" s="137"/>
+      <c r="J105" s="146"/>
       <c r="K105" s="69">
         <f>K103+K104</f>
         <v>41000</v>
@@ -8339,10 +8342,10 @@
         <v>0</v>
       </c>
       <c r="H106" s="60"/>
-      <c r="I106" s="136" t="s">
+      <c r="I106" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J106" s="137"/>
+      <c r="J106" s="146"/>
       <c r="K106" s="63">
         <f>G106</f>
         <v>0</v>
@@ -8397,7 +8400,7 @@
       <c r="I107" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J107" s="143"/>
+      <c r="J107" s="142"/>
       <c r="K107" s="41">
         <f>K105-K106</f>
         <v>41000</v>
@@ -8580,58 +8583,58 @@
       <c r="Z111" s="28"/>
     </row>
     <row r="112" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="138" t="s">
+      <c r="A112" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B112" s="139"/>
-      <c r="C112" s="139"/>
-      <c r="D112" s="139"/>
-      <c r="E112" s="139"/>
-      <c r="F112" s="139"/>
-      <c r="G112" s="139"/>
-      <c r="H112" s="139"/>
-      <c r="I112" s="139"/>
-      <c r="J112" s="139"/>
-      <c r="K112" s="139"/>
-      <c r="L112" s="140"/>
+      <c r="B112" s="148"/>
+      <c r="C112" s="148"/>
+      <c r="D112" s="148"/>
+      <c r="E112" s="148"/>
+      <c r="F112" s="148"/>
+      <c r="G112" s="148"/>
+      <c r="H112" s="148"/>
+      <c r="I112" s="148"/>
+      <c r="J112" s="148"/>
+      <c r="K112" s="148"/>
+      <c r="L112" s="149"/>
       <c r="M112" s="4"/>
       <c r="N112" s="8"/>
-      <c r="O112" s="133" t="s">
+      <c r="O112" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P112" s="134"/>
-      <c r="Q112" s="134"/>
-      <c r="R112" s="135"/>
+      <c r="P112" s="136"/>
+      <c r="Q112" s="136"/>
+      <c r="R112" s="137"/>
       <c r="S112" s="9"/>
-      <c r="T112" s="133" t="s">
+      <c r="T112" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U112" s="134"/>
-      <c r="V112" s="134"/>
-      <c r="W112" s="134"/>
-      <c r="X112" s="134"/>
-      <c r="Y112" s="135"/>
+      <c r="U112" s="136"/>
+      <c r="V112" s="136"/>
+      <c r="W112" s="136"/>
+      <c r="X112" s="136"/>
+      <c r="Y112" s="137"/>
       <c r="Z112" s="10"/>
       <c r="AA112" s="4"/>
     </row>
     <row r="113" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="47"/>
       <c r="B113" s="45"/>
-      <c r="C113" s="147" t="s">
+      <c r="C113" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D113" s="147"/>
-      <c r="E113" s="147"/>
-      <c r="F113" s="147"/>
+      <c r="D113" s="140"/>
+      <c r="E113" s="140"/>
+      <c r="F113" s="140"/>
       <c r="G113" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H113" s="146">
+      <c r="H113" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I113" s="146"/>
+      <c r="I113" s="143"/>
       <c r="J113" s="45"/>
       <c r="K113" s="49"/>
       <c r="L113" s="50"/>
@@ -8792,13 +8795,13 @@
       <c r="F116" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G116" s="143"/>
+      <c r="G116" s="142"/>
       <c r="H116" s="45"/>
       <c r="I116" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J116" s="142"/>
-      <c r="K116" s="143"/>
+      <c r="J116" s="144"/>
+      <c r="K116" s="142"/>
       <c r="L116" s="59"/>
       <c r="N116" s="15"/>
       <c r="O116" s="16" t="s">
@@ -8869,10 +8872,10 @@
     </row>
     <row r="118" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="47"/>
-      <c r="B118" s="144" t="s">
+      <c r="B118" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C118" s="145"/>
+      <c r="C118" s="139"/>
       <c r="D118" s="45"/>
       <c r="E118" s="45"/>
       <c r="F118" s="62" t="s">
@@ -8993,10 +8996,10 @@
         <v>58500</v>
       </c>
       <c r="H120" s="60"/>
-      <c r="I120" s="136" t="s">
+      <c r="I120" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J120" s="137"/>
+      <c r="J120" s="146"/>
       <c r="K120" s="69">
         <f>K118+K119</f>
         <v>48745.689655172413</v>
@@ -9048,10 +9051,10 @@
         <v>2500</v>
       </c>
       <c r="H121" s="60"/>
-      <c r="I121" s="136" t="s">
+      <c r="I121" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J121" s="137"/>
+      <c r="J121" s="146"/>
       <c r="K121" s="63">
         <f>G121</f>
         <v>2500</v>
@@ -9106,7 +9109,7 @@
       <c r="I122" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J122" s="143"/>
+      <c r="J122" s="142"/>
       <c r="K122" s="41">
         <f>K120-K121</f>
         <v>46245.689655172413</v>
@@ -9287,58 +9290,58 @@
       <c r="Z126" s="28"/>
     </row>
     <row r="127" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="138" t="s">
+      <c r="A127" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B127" s="139"/>
-      <c r="C127" s="139"/>
-      <c r="D127" s="139"/>
-      <c r="E127" s="139"/>
-      <c r="F127" s="139"/>
-      <c r="G127" s="139"/>
-      <c r="H127" s="139"/>
-      <c r="I127" s="139"/>
-      <c r="J127" s="139"/>
-      <c r="K127" s="139"/>
-      <c r="L127" s="140"/>
+      <c r="B127" s="148"/>
+      <c r="C127" s="148"/>
+      <c r="D127" s="148"/>
+      <c r="E127" s="148"/>
+      <c r="F127" s="148"/>
+      <c r="G127" s="148"/>
+      <c r="H127" s="148"/>
+      <c r="I127" s="148"/>
+      <c r="J127" s="148"/>
+      <c r="K127" s="148"/>
+      <c r="L127" s="149"/>
       <c r="M127" s="4"/>
       <c r="N127" s="8"/>
-      <c r="O127" s="133" t="s">
+      <c r="O127" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P127" s="134"/>
-      <c r="Q127" s="134"/>
-      <c r="R127" s="135"/>
+      <c r="P127" s="136"/>
+      <c r="Q127" s="136"/>
+      <c r="R127" s="137"/>
       <c r="S127" s="9"/>
-      <c r="T127" s="133" t="s">
+      <c r="T127" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U127" s="134"/>
-      <c r="V127" s="134"/>
-      <c r="W127" s="134"/>
-      <c r="X127" s="134"/>
-      <c r="Y127" s="135"/>
+      <c r="U127" s="136"/>
+      <c r="V127" s="136"/>
+      <c r="W127" s="136"/>
+      <c r="X127" s="136"/>
+      <c r="Y127" s="137"/>
       <c r="Z127" s="10"/>
       <c r="AA127" s="4"/>
     </row>
     <row r="128" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="47"/>
       <c r="B128" s="45"/>
-      <c r="C128" s="147" t="s">
+      <c r="C128" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D128" s="147"/>
-      <c r="E128" s="147"/>
-      <c r="F128" s="147"/>
+      <c r="D128" s="140"/>
+      <c r="E128" s="140"/>
+      <c r="F128" s="140"/>
       <c r="G128" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H128" s="146">
+      <c r="H128" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I128" s="146"/>
+      <c r="I128" s="143"/>
       <c r="J128" s="45"/>
       <c r="K128" s="49"/>
       <c r="L128" s="50"/>
@@ -9490,13 +9493,13 @@
       <c r="F131" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G131" s="143"/>
+      <c r="G131" s="142"/>
       <c r="H131" s="45"/>
       <c r="I131" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J131" s="142"/>
-      <c r="K131" s="143"/>
+      <c r="J131" s="144"/>
+      <c r="K131" s="142"/>
       <c r="L131" s="59"/>
       <c r="N131" s="15"/>
       <c r="O131" s="16" t="s">
@@ -9577,10 +9580,10 @@
     </row>
     <row r="133" spans="1:28" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="47"/>
-      <c r="B133" s="144" t="s">
+      <c r="B133" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C133" s="145"/>
+      <c r="C133" s="139"/>
       <c r="D133" s="45"/>
       <c r="E133" s="45"/>
       <c r="F133" s="62" t="s">
@@ -9707,10 +9710,10 @@
         <v>0</v>
       </c>
       <c r="H135" s="60"/>
-      <c r="I135" s="136" t="s">
+      <c r="I135" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J135" s="137"/>
+      <c r="J135" s="146"/>
       <c r="K135" s="69">
         <f>K133+K134</f>
         <v>36056.034482758623</v>
@@ -9765,10 +9768,10 @@
         <v>0</v>
       </c>
       <c r="H136" s="60"/>
-      <c r="I136" s="136" t="s">
+      <c r="I136" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J136" s="137"/>
+      <c r="J136" s="146"/>
       <c r="K136" s="63">
         <f>G136</f>
         <v>0</v>
@@ -9826,7 +9829,7 @@
       <c r="I137" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J137" s="143"/>
+      <c r="J137" s="142"/>
       <c r="K137" s="41">
         <f>K135-K136</f>
         <v>36056.034482758623</v>
@@ -10018,58 +10021,58 @@
       <c r="Z141" s="28"/>
     </row>
     <row r="142" spans="1:28" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="138" t="s">
+      <c r="A142" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B142" s="139"/>
-      <c r="C142" s="139"/>
-      <c r="D142" s="139"/>
-      <c r="E142" s="139"/>
-      <c r="F142" s="139"/>
-      <c r="G142" s="139"/>
-      <c r="H142" s="139"/>
-      <c r="I142" s="139"/>
-      <c r="J142" s="139"/>
-      <c r="K142" s="139"/>
-      <c r="L142" s="140"/>
+      <c r="B142" s="148"/>
+      <c r="C142" s="148"/>
+      <c r="D142" s="148"/>
+      <c r="E142" s="148"/>
+      <c r="F142" s="148"/>
+      <c r="G142" s="148"/>
+      <c r="H142" s="148"/>
+      <c r="I142" s="148"/>
+      <c r="J142" s="148"/>
+      <c r="K142" s="148"/>
+      <c r="L142" s="149"/>
       <c r="M142" s="4"/>
       <c r="N142" s="8"/>
-      <c r="O142" s="133" t="s">
+      <c r="O142" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P142" s="134"/>
-      <c r="Q142" s="134"/>
-      <c r="R142" s="135"/>
+      <c r="P142" s="136"/>
+      <c r="Q142" s="136"/>
+      <c r="R142" s="137"/>
       <c r="S142" s="9"/>
-      <c r="T142" s="133" t="s">
+      <c r="T142" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U142" s="134"/>
-      <c r="V142" s="134"/>
-      <c r="W142" s="134"/>
-      <c r="X142" s="134"/>
-      <c r="Y142" s="135"/>
+      <c r="U142" s="136"/>
+      <c r="V142" s="136"/>
+      <c r="W142" s="136"/>
+      <c r="X142" s="136"/>
+      <c r="Y142" s="137"/>
       <c r="Z142" s="10"/>
       <c r="AA142" s="4"/>
     </row>
     <row r="143" spans="1:28" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="47"/>
       <c r="B143" s="45"/>
-      <c r="C143" s="147" t="s">
+      <c r="C143" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D143" s="147"/>
-      <c r="E143" s="147"/>
-      <c r="F143" s="147"/>
+      <c r="D143" s="140"/>
+      <c r="E143" s="140"/>
+      <c r="F143" s="140"/>
       <c r="G143" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H143" s="146">
+      <c r="H143" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I143" s="146"/>
+      <c r="I143" s="143"/>
       <c r="J143" s="45"/>
       <c r="K143" s="49"/>
       <c r="L143" s="50"/>
@@ -10229,13 +10232,13 @@
       <c r="F146" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G146" s="143"/>
+      <c r="G146" s="142"/>
       <c r="H146" s="45"/>
       <c r="I146" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J146" s="142"/>
-      <c r="K146" s="143"/>
+      <c r="J146" s="144"/>
+      <c r="K146" s="142"/>
       <c r="L146" s="59"/>
       <c r="N146" s="15"/>
       <c r="O146" s="16" t="s">
@@ -10306,10 +10309,10 @@
     </row>
     <row r="148" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="47"/>
-      <c r="B148" s="144" t="s">
+      <c r="B148" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C148" s="145"/>
+      <c r="C148" s="139"/>
       <c r="D148" s="45"/>
       <c r="E148" s="45"/>
       <c r="F148" s="62" t="s">
@@ -10430,10 +10433,10 @@
         <v>38867</v>
       </c>
       <c r="H150" s="60"/>
-      <c r="I150" s="136" t="s">
+      <c r="I150" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J150" s="137"/>
+      <c r="J150" s="146"/>
       <c r="K150" s="69">
         <f>K148+K149</f>
         <v>42090.517241379312</v>
@@ -10485,10 +10488,10 @@
         <v>3000</v>
       </c>
       <c r="H151" s="60"/>
-      <c r="I151" s="136" t="s">
+      <c r="I151" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J151" s="137"/>
+      <c r="J151" s="146"/>
       <c r="K151" s="63">
         <f>G151</f>
         <v>3000</v>
@@ -10543,7 +10546,7 @@
       <c r="I152" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J152" s="143"/>
+      <c r="J152" s="142"/>
       <c r="K152" s="41">
         <f>K150-K151</f>
         <v>39090.517241379312</v>
@@ -10724,58 +10727,58 @@
       <c r="Z156" s="28"/>
     </row>
     <row r="157" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="138" t="s">
+      <c r="A157" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B157" s="139"/>
-      <c r="C157" s="139"/>
-      <c r="D157" s="139"/>
-      <c r="E157" s="139"/>
-      <c r="F157" s="139"/>
-      <c r="G157" s="139"/>
-      <c r="H157" s="139"/>
-      <c r="I157" s="139"/>
-      <c r="J157" s="139"/>
-      <c r="K157" s="139"/>
-      <c r="L157" s="140"/>
+      <c r="B157" s="148"/>
+      <c r="C157" s="148"/>
+      <c r="D157" s="148"/>
+      <c r="E157" s="148"/>
+      <c r="F157" s="148"/>
+      <c r="G157" s="148"/>
+      <c r="H157" s="148"/>
+      <c r="I157" s="148"/>
+      <c r="J157" s="148"/>
+      <c r="K157" s="148"/>
+      <c r="L157" s="149"/>
       <c r="M157" s="4"/>
       <c r="N157" s="8"/>
-      <c r="O157" s="133" t="s">
+      <c r="O157" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P157" s="134"/>
-      <c r="Q157" s="134"/>
-      <c r="R157" s="135"/>
+      <c r="P157" s="136"/>
+      <c r="Q157" s="136"/>
+      <c r="R157" s="137"/>
       <c r="S157" s="9"/>
-      <c r="T157" s="133" t="s">
+      <c r="T157" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U157" s="134"/>
-      <c r="V157" s="134"/>
-      <c r="W157" s="134"/>
-      <c r="X157" s="134"/>
-      <c r="Y157" s="135"/>
+      <c r="U157" s="136"/>
+      <c r="V157" s="136"/>
+      <c r="W157" s="136"/>
+      <c r="X157" s="136"/>
+      <c r="Y157" s="137"/>
       <c r="Z157" s="10"/>
       <c r="AA157" s="4"/>
     </row>
     <row r="158" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="47"/>
       <c r="B158" s="45"/>
-      <c r="C158" s="147" t="s">
+      <c r="C158" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D158" s="147"/>
-      <c r="E158" s="147"/>
-      <c r="F158" s="147"/>
+      <c r="D158" s="140"/>
+      <c r="E158" s="140"/>
+      <c r="F158" s="140"/>
       <c r="G158" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H158" s="146">
+      <c r="H158" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I158" s="146"/>
+      <c r="I158" s="143"/>
       <c r="J158" s="45"/>
       <c r="K158" s="49"/>
       <c r="L158" s="50"/>
@@ -10933,13 +10936,13 @@
       <c r="F161" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G161" s="143"/>
+      <c r="G161" s="142"/>
       <c r="H161" s="45"/>
       <c r="I161" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J161" s="142"/>
-      <c r="K161" s="143"/>
+      <c r="J161" s="144"/>
+      <c r="K161" s="142"/>
       <c r="L161" s="59"/>
       <c r="N161" s="15"/>
       <c r="O161" s="16" t="s">
@@ -11010,10 +11013,10 @@
     </row>
     <row r="163" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="47"/>
-      <c r="B163" s="144" t="s">
+      <c r="B163" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C163" s="145"/>
+      <c r="C163" s="139"/>
       <c r="D163" s="45"/>
       <c r="E163" s="45"/>
       <c r="F163" s="62" t="s">
@@ -11134,10 +11137,10 @@
         <v>43200</v>
       </c>
       <c r="H165" s="60"/>
-      <c r="I165" s="136" t="s">
+      <c r="I165" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J165" s="137"/>
+      <c r="J165" s="146"/>
       <c r="K165" s="69">
         <f>K163+K164</f>
         <v>81206.896551724145</v>
@@ -11189,10 +11192,10 @@
         <v>5000</v>
       </c>
       <c r="H166" s="60"/>
-      <c r="I166" s="136" t="s">
+      <c r="I166" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J166" s="137"/>
+      <c r="J166" s="146"/>
       <c r="K166" s="63">
         <f>G166</f>
         <v>5000</v>
@@ -11247,7 +11250,7 @@
       <c r="I167" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J167" s="143"/>
+      <c r="J167" s="142"/>
       <c r="K167" s="41">
         <f>K165-K166</f>
         <v>76206.896551724145</v>
@@ -11428,58 +11431,58 @@
       <c r="Z171" s="28"/>
     </row>
     <row r="172" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="138" t="s">
+      <c r="A172" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B172" s="139"/>
-      <c r="C172" s="139"/>
-      <c r="D172" s="139"/>
-      <c r="E172" s="139"/>
-      <c r="F172" s="139"/>
-      <c r="G172" s="139"/>
-      <c r="H172" s="139"/>
-      <c r="I172" s="139"/>
-      <c r="J172" s="139"/>
-      <c r="K172" s="139"/>
-      <c r="L172" s="140"/>
+      <c r="B172" s="148"/>
+      <c r="C172" s="148"/>
+      <c r="D172" s="148"/>
+      <c r="E172" s="148"/>
+      <c r="F172" s="148"/>
+      <c r="G172" s="148"/>
+      <c r="H172" s="148"/>
+      <c r="I172" s="148"/>
+      <c r="J172" s="148"/>
+      <c r="K172" s="148"/>
+      <c r="L172" s="149"/>
       <c r="M172" s="4"/>
       <c r="N172" s="8"/>
-      <c r="O172" s="133" t="s">
+      <c r="O172" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P172" s="134"/>
-      <c r="Q172" s="134"/>
-      <c r="R172" s="135"/>
+      <c r="P172" s="136"/>
+      <c r="Q172" s="136"/>
+      <c r="R172" s="137"/>
       <c r="S172" s="9"/>
-      <c r="T172" s="133" t="s">
+      <c r="T172" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U172" s="134"/>
-      <c r="V172" s="134"/>
-      <c r="W172" s="134"/>
-      <c r="X172" s="134"/>
-      <c r="Y172" s="135"/>
+      <c r="U172" s="136"/>
+      <c r="V172" s="136"/>
+      <c r="W172" s="136"/>
+      <c r="X172" s="136"/>
+      <c r="Y172" s="137"/>
       <c r="Z172" s="10"/>
       <c r="AA172" s="4"/>
     </row>
     <row r="173" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="47"/>
       <c r="B173" s="45"/>
-      <c r="C173" s="147" t="s">
+      <c r="C173" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D173" s="147"/>
-      <c r="E173" s="147"/>
-      <c r="F173" s="147"/>
+      <c r="D173" s="140"/>
+      <c r="E173" s="140"/>
+      <c r="F173" s="140"/>
       <c r="G173" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H173" s="146">
+      <c r="H173" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I173" s="146"/>
+      <c r="I173" s="143"/>
       <c r="J173" s="45"/>
       <c r="K173" s="49"/>
       <c r="L173" s="50"/>
@@ -11639,13 +11642,13 @@
       <c r="F176" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G176" s="143"/>
+      <c r="G176" s="142"/>
       <c r="H176" s="45"/>
       <c r="I176" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J176" s="142"/>
-      <c r="K176" s="143"/>
+      <c r="J176" s="144"/>
+      <c r="K176" s="142"/>
       <c r="L176" s="59"/>
       <c r="N176" s="15"/>
       <c r="O176" s="16" t="s">
@@ -11716,10 +11719,10 @@
     </row>
     <row r="178" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="47"/>
-      <c r="B178" s="144" t="s">
+      <c r="B178" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C178" s="145"/>
+      <c r="C178" s="139"/>
       <c r="D178" s="45"/>
       <c r="E178" s="45"/>
       <c r="F178" s="62" t="s">
@@ -11840,10 +11843,10 @@
         <v>88000</v>
       </c>
       <c r="H180" s="60"/>
-      <c r="I180" s="136" t="s">
+      <c r="I180" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J180" s="137"/>
+      <c r="J180" s="146"/>
       <c r="K180" s="69">
         <f>K178+K179</f>
         <v>50431.034482758623</v>
@@ -11895,10 +11898,10 @@
         <v>0</v>
       </c>
       <c r="H181" s="60"/>
-      <c r="I181" s="136" t="s">
+      <c r="I181" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J181" s="137"/>
+      <c r="J181" s="146"/>
       <c r="K181" s="63">
         <f>G181</f>
         <v>0</v>
@@ -11953,7 +11956,7 @@
       <c r="I182" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J182" s="143"/>
+      <c r="J182" s="142"/>
       <c r="K182" s="41">
         <f>K180-K181</f>
         <v>50431.034482758623</v>
@@ -12134,58 +12137,58 @@
       <c r="Z186" s="28"/>
     </row>
     <row r="187" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="138" t="s">
+      <c r="A187" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B187" s="139"/>
-      <c r="C187" s="139"/>
-      <c r="D187" s="139"/>
-      <c r="E187" s="139"/>
-      <c r="F187" s="139"/>
-      <c r="G187" s="139"/>
-      <c r="H187" s="139"/>
-      <c r="I187" s="139"/>
-      <c r="J187" s="139"/>
-      <c r="K187" s="139"/>
-      <c r="L187" s="140"/>
+      <c r="B187" s="148"/>
+      <c r="C187" s="148"/>
+      <c r="D187" s="148"/>
+      <c r="E187" s="148"/>
+      <c r="F187" s="148"/>
+      <c r="G187" s="148"/>
+      <c r="H187" s="148"/>
+      <c r="I187" s="148"/>
+      <c r="J187" s="148"/>
+      <c r="K187" s="148"/>
+      <c r="L187" s="149"/>
       <c r="M187" s="4"/>
       <c r="N187" s="8"/>
-      <c r="O187" s="133" t="s">
+      <c r="O187" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P187" s="134"/>
-      <c r="Q187" s="134"/>
-      <c r="R187" s="135"/>
+      <c r="P187" s="136"/>
+      <c r="Q187" s="136"/>
+      <c r="R187" s="137"/>
       <c r="S187" s="9"/>
-      <c r="T187" s="133" t="s">
+      <c r="T187" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U187" s="134"/>
-      <c r="V187" s="134"/>
-      <c r="W187" s="134"/>
-      <c r="X187" s="134"/>
-      <c r="Y187" s="135"/>
+      <c r="U187" s="136"/>
+      <c r="V187" s="136"/>
+      <c r="W187" s="136"/>
+      <c r="X187" s="136"/>
+      <c r="Y187" s="137"/>
       <c r="Z187" s="10"/>
       <c r="AA187" s="4"/>
     </row>
     <row r="188" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="47"/>
       <c r="B188" s="45"/>
-      <c r="C188" s="147" t="s">
+      <c r="C188" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D188" s="147"/>
-      <c r="E188" s="147"/>
-      <c r="F188" s="147"/>
+      <c r="D188" s="140"/>
+      <c r="E188" s="140"/>
+      <c r="F188" s="140"/>
       <c r="G188" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H188" s="146">
+      <c r="H188" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I188" s="146"/>
+      <c r="I188" s="143"/>
       <c r="J188" s="45"/>
       <c r="K188" s="49"/>
       <c r="L188" s="50"/>
@@ -12344,13 +12347,13 @@
       <c r="F191" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G191" s="143"/>
+      <c r="G191" s="142"/>
       <c r="H191" s="45"/>
       <c r="I191" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J191" s="142"/>
-      <c r="K191" s="143"/>
+      <c r="J191" s="144"/>
+      <c r="K191" s="142"/>
       <c r="L191" s="59"/>
       <c r="N191" s="15"/>
       <c r="O191" s="16" t="s">
@@ -12424,10 +12427,10 @@
     </row>
     <row r="193" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="47"/>
-      <c r="B193" s="144" t="s">
+      <c r="B193" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C193" s="145"/>
+      <c r="C193" s="139"/>
       <c r="D193" s="45"/>
       <c r="E193" s="45"/>
       <c r="F193" s="62" t="s">
@@ -12554,10 +12557,10 @@
         <v>79000</v>
       </c>
       <c r="H195" s="60"/>
-      <c r="I195" s="136" t="s">
+      <c r="I195" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J195" s="137"/>
+      <c r="J195" s="146"/>
       <c r="K195" s="69">
         <f>K193+K194</f>
         <v>48728.448275862072</v>
@@ -12612,10 +12615,10 @@
         <v>5000</v>
       </c>
       <c r="H196" s="60"/>
-      <c r="I196" s="136" t="s">
+      <c r="I196" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J196" s="137"/>
+      <c r="J196" s="146"/>
       <c r="K196" s="63">
         <f>G196</f>
         <v>5000</v>
@@ -12673,7 +12676,7 @@
       <c r="I197" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J197" s="143"/>
+      <c r="J197" s="142"/>
       <c r="K197" s="41">
         <f>K195-K196</f>
         <v>43728.448275862072</v>
@@ -12862,57 +12865,57 @@
       <c r="Z201" s="28"/>
     </row>
     <row r="202" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="138" t="s">
+      <c r="A202" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B202" s="139"/>
-      <c r="C202" s="139"/>
-      <c r="D202" s="139"/>
-      <c r="E202" s="139"/>
-      <c r="F202" s="139"/>
-      <c r="G202" s="139"/>
-      <c r="H202" s="139"/>
-      <c r="I202" s="139"/>
-      <c r="J202" s="139"/>
-      <c r="K202" s="139"/>
-      <c r="L202" s="140"/>
+      <c r="B202" s="148"/>
+      <c r="C202" s="148"/>
+      <c r="D202" s="148"/>
+      <c r="E202" s="148"/>
+      <c r="F202" s="148"/>
+      <c r="G202" s="148"/>
+      <c r="H202" s="148"/>
+      <c r="I202" s="148"/>
+      <c r="J202" s="148"/>
+      <c r="K202" s="148"/>
+      <c r="L202" s="149"/>
       <c r="M202" s="4"/>
       <c r="N202" s="8"/>
-      <c r="O202" s="133" t="s">
+      <c r="O202" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P202" s="134"/>
-      <c r="Q202" s="134"/>
-      <c r="R202" s="135"/>
+      <c r="P202" s="136"/>
+      <c r="Q202" s="136"/>
+      <c r="R202" s="137"/>
       <c r="S202" s="9"/>
-      <c r="T202" s="133" t="s">
+      <c r="T202" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U202" s="134"/>
-      <c r="V202" s="134"/>
-      <c r="W202" s="134"/>
-      <c r="X202" s="134"/>
-      <c r="Y202" s="135"/>
+      <c r="U202" s="136"/>
+      <c r="V202" s="136"/>
+      <c r="W202" s="136"/>
+      <c r="X202" s="136"/>
+      <c r="Y202" s="137"/>
       <c r="Z202" s="10"/>
     </row>
     <row r="203" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="47"/>
       <c r="B203" s="45"/>
-      <c r="C203" s="147" t="s">
+      <c r="C203" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D203" s="147"/>
-      <c r="E203" s="147"/>
-      <c r="F203" s="147"/>
+      <c r="D203" s="140"/>
+      <c r="E203" s="140"/>
+      <c r="F203" s="140"/>
       <c r="G203" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H203" s="146">
+      <c r="H203" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I203" s="146"/>
+      <c r="I203" s="143"/>
       <c r="J203" s="45"/>
       <c r="K203" s="49"/>
       <c r="L203" s="50"/>
@@ -13075,13 +13078,13 @@
       <c r="F206" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G206" s="143"/>
+      <c r="G206" s="142"/>
       <c r="H206" s="45"/>
       <c r="I206" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J206" s="142"/>
-      <c r="K206" s="143"/>
+      <c r="J206" s="144"/>
+      <c r="K206" s="142"/>
       <c r="L206" s="59"/>
       <c r="N206" s="15"/>
       <c r="O206" s="16" t="s">
@@ -13151,10 +13154,10 @@
     </row>
     <row r="208" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="47"/>
-      <c r="B208" s="144" t="s">
+      <c r="B208" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C208" s="145"/>
+      <c r="C208" s="139"/>
       <c r="D208" s="45"/>
       <c r="E208" s="45"/>
       <c r="F208" s="62" t="s">
@@ -13273,10 +13276,10 @@
         <v>19225</v>
       </c>
       <c r="H210" s="60"/>
-      <c r="I210" s="136" t="s">
+      <c r="I210" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J210" s="137"/>
+      <c r="J210" s="146"/>
       <c r="K210" s="69">
         <f>K208+K209</f>
         <v>28689.655172413793</v>
@@ -13327,10 +13330,10 @@
         <v>8000</v>
       </c>
       <c r="H211" s="60"/>
-      <c r="I211" s="136" t="s">
+      <c r="I211" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J211" s="137"/>
+      <c r="J211" s="146"/>
       <c r="K211" s="63">
         <f>G211</f>
         <v>8000</v>
@@ -13384,7 +13387,7 @@
       <c r="I212" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J212" s="143"/>
+      <c r="J212" s="142"/>
       <c r="K212" s="41">
         <f>K210-K211</f>
         <v>20689.655172413793</v>
@@ -13561,57 +13564,57 @@
       <c r="Z216" s="28"/>
     </row>
     <row r="217" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="138" t="s">
+      <c r="A217" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B217" s="139"/>
-      <c r="C217" s="139"/>
-      <c r="D217" s="139"/>
-      <c r="E217" s="139"/>
-      <c r="F217" s="139"/>
-      <c r="G217" s="139"/>
-      <c r="H217" s="139"/>
-      <c r="I217" s="139"/>
-      <c r="J217" s="139"/>
-      <c r="K217" s="139"/>
-      <c r="L217" s="140"/>
+      <c r="B217" s="148"/>
+      <c r="C217" s="148"/>
+      <c r="D217" s="148"/>
+      <c r="E217" s="148"/>
+      <c r="F217" s="148"/>
+      <c r="G217" s="148"/>
+      <c r="H217" s="148"/>
+      <c r="I217" s="148"/>
+      <c r="J217" s="148"/>
+      <c r="K217" s="148"/>
+      <c r="L217" s="149"/>
       <c r="M217" s="4"/>
       <c r="N217" s="8"/>
-      <c r="O217" s="133" t="s">
+      <c r="O217" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P217" s="134"/>
-      <c r="Q217" s="134"/>
-      <c r="R217" s="135"/>
+      <c r="P217" s="136"/>
+      <c r="Q217" s="136"/>
+      <c r="R217" s="137"/>
       <c r="S217" s="9"/>
-      <c r="T217" s="133" t="s">
+      <c r="T217" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U217" s="134"/>
-      <c r="V217" s="134"/>
-      <c r="W217" s="134"/>
-      <c r="X217" s="134"/>
-      <c r="Y217" s="135"/>
+      <c r="U217" s="136"/>
+      <c r="V217" s="136"/>
+      <c r="W217" s="136"/>
+      <c r="X217" s="136"/>
+      <c r="Y217" s="137"/>
       <c r="Z217" s="10"/>
     </row>
     <row r="218" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="47"/>
       <c r="B218" s="45"/>
-      <c r="C218" s="147" t="s">
+      <c r="C218" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D218" s="147"/>
-      <c r="E218" s="147"/>
-      <c r="F218" s="147"/>
+      <c r="D218" s="140"/>
+      <c r="E218" s="140"/>
+      <c r="F218" s="140"/>
       <c r="G218" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H218" s="146">
+      <c r="H218" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I218" s="146"/>
+      <c r="I218" s="143"/>
       <c r="J218" s="45"/>
       <c r="K218" s="49"/>
       <c r="L218" s="50"/>
@@ -13770,13 +13773,13 @@
       <c r="F221" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G221" s="143"/>
+      <c r="G221" s="142"/>
       <c r="H221" s="45"/>
       <c r="I221" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J221" s="142"/>
-      <c r="K221" s="143"/>
+      <c r="J221" s="144"/>
+      <c r="K221" s="142"/>
       <c r="L221" s="59"/>
       <c r="N221" s="15"/>
       <c r="O221" s="16" t="s">
@@ -13850,10 +13853,10 @@
     </row>
     <row r="223" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="47"/>
-      <c r="B223" s="144" t="s">
+      <c r="B223" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C223" s="145"/>
+      <c r="C223" s="139"/>
       <c r="D223" s="45"/>
       <c r="E223" s="45"/>
       <c r="F223" s="62" t="s">
@@ -13980,10 +13983,10 @@
         <v>7000</v>
       </c>
       <c r="H225" s="60"/>
-      <c r="I225" s="136" t="s">
+      <c r="I225" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J225" s="137"/>
+      <c r="J225" s="146"/>
       <c r="K225" s="69">
         <f>K223+K224</f>
         <v>32586.206896551721</v>
@@ -14038,10 +14041,10 @@
         <v>3000</v>
       </c>
       <c r="H226" s="60"/>
-      <c r="I226" s="136" t="s">
+      <c r="I226" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J226" s="137"/>
+      <c r="J226" s="146"/>
       <c r="K226" s="63">
         <f>G226</f>
         <v>3000</v>
@@ -14099,7 +14102,7 @@
       <c r="I227" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J227" s="143"/>
+      <c r="J227" s="142"/>
       <c r="K227" s="41">
         <f>K225-K226</f>
         <v>29586.206896551721</v>
@@ -14285,57 +14288,57 @@
       <c r="Z231" s="28"/>
     </row>
     <row r="232" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="138" t="s">
+      <c r="A232" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B232" s="139"/>
-      <c r="C232" s="139"/>
-      <c r="D232" s="139"/>
-      <c r="E232" s="139"/>
-      <c r="F232" s="139"/>
-      <c r="G232" s="139"/>
-      <c r="H232" s="139"/>
-      <c r="I232" s="139"/>
-      <c r="J232" s="139"/>
-      <c r="K232" s="139"/>
-      <c r="L232" s="140"/>
+      <c r="B232" s="148"/>
+      <c r="C232" s="148"/>
+      <c r="D232" s="148"/>
+      <c r="E232" s="148"/>
+      <c r="F232" s="148"/>
+      <c r="G232" s="148"/>
+      <c r="H232" s="148"/>
+      <c r="I232" s="148"/>
+      <c r="J232" s="148"/>
+      <c r="K232" s="148"/>
+      <c r="L232" s="149"/>
       <c r="M232" s="4"/>
       <c r="N232" s="8"/>
-      <c r="O232" s="133" t="s">
+      <c r="O232" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P232" s="134"/>
-      <c r="Q232" s="134"/>
-      <c r="R232" s="135"/>
+      <c r="P232" s="136"/>
+      <c r="Q232" s="136"/>
+      <c r="R232" s="137"/>
       <c r="S232" s="9"/>
-      <c r="T232" s="133" t="s">
+      <c r="T232" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U232" s="134"/>
-      <c r="V232" s="134"/>
-      <c r="W232" s="134"/>
-      <c r="X232" s="134"/>
-      <c r="Y232" s="135"/>
+      <c r="U232" s="136"/>
+      <c r="V232" s="136"/>
+      <c r="W232" s="136"/>
+      <c r="X232" s="136"/>
+      <c r="Y232" s="137"/>
       <c r="Z232" s="7"/>
     </row>
     <row r="233" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="47"/>
       <c r="B233" s="45"/>
-      <c r="C233" s="147" t="s">
+      <c r="C233" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D233" s="147"/>
-      <c r="E233" s="147"/>
-      <c r="F233" s="147"/>
+      <c r="D233" s="140"/>
+      <c r="E233" s="140"/>
+      <c r="F233" s="140"/>
       <c r="G233" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H233" s="146">
+      <c r="H233" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I233" s="146"/>
+      <c r="I233" s="143"/>
       <c r="J233" s="45"/>
       <c r="K233" s="49"/>
       <c r="L233" s="50"/>
@@ -14473,13 +14476,13 @@
       <c r="F236" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G236" s="143"/>
+      <c r="G236" s="142"/>
       <c r="H236" s="45"/>
       <c r="I236" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J236" s="142"/>
-      <c r="K236" s="143"/>
+      <c r="J236" s="144"/>
+      <c r="K236" s="142"/>
       <c r="L236" s="59"/>
       <c r="N236" s="15"/>
       <c r="O236" s="16" t="s">
@@ -14544,10 +14547,10 @@
     </row>
     <row r="238" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="47"/>
-      <c r="B238" s="144" t="s">
+      <c r="B238" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C238" s="145"/>
+      <c r="C238" s="139"/>
       <c r="D238" s="45"/>
       <c r="E238" s="45"/>
       <c r="F238" s="62" t="s">
@@ -14662,10 +14665,10 @@
         <v/>
       </c>
       <c r="H240" s="60"/>
-      <c r="I240" s="136" t="s">
+      <c r="I240" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J240" s="137"/>
+      <c r="J240" s="146"/>
       <c r="K240" s="69">
         <f>K238+K239</f>
         <v>40827.586206896558</v>
@@ -14714,10 +14717,10 @@
         <v>0</v>
       </c>
       <c r="H241" s="60"/>
-      <c r="I241" s="136" t="s">
+      <c r="I241" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J241" s="137"/>
+      <c r="J241" s="146"/>
       <c r="K241" s="63">
         <f>G241</f>
         <v>0</v>
@@ -14769,7 +14772,7 @@
       <c r="I242" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J242" s="143"/>
+      <c r="J242" s="142"/>
       <c r="K242" s="41">
         <f>K240-K241</f>
         <v>40827.586206896558</v>
@@ -14944,57 +14947,57 @@
       <c r="Z246" s="28"/>
     </row>
     <row r="247" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="138" t="s">
+      <c r="A247" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B247" s="139"/>
-      <c r="C247" s="139"/>
-      <c r="D247" s="139"/>
-      <c r="E247" s="139"/>
-      <c r="F247" s="139"/>
-      <c r="G247" s="139"/>
-      <c r="H247" s="139"/>
-      <c r="I247" s="139"/>
-      <c r="J247" s="139"/>
-      <c r="K247" s="139"/>
-      <c r="L247" s="140"/>
+      <c r="B247" s="148"/>
+      <c r="C247" s="148"/>
+      <c r="D247" s="148"/>
+      <c r="E247" s="148"/>
+      <c r="F247" s="148"/>
+      <c r="G247" s="148"/>
+      <c r="H247" s="148"/>
+      <c r="I247" s="148"/>
+      <c r="J247" s="148"/>
+      <c r="K247" s="148"/>
+      <c r="L247" s="149"/>
       <c r="M247" s="4"/>
       <c r="N247" s="8"/>
-      <c r="O247" s="133" t="s">
+      <c r="O247" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P247" s="134"/>
-      <c r="Q247" s="134"/>
-      <c r="R247" s="135"/>
+      <c r="P247" s="136"/>
+      <c r="Q247" s="136"/>
+      <c r="R247" s="137"/>
       <c r="S247" s="9"/>
-      <c r="T247" s="133" t="s">
+      <c r="T247" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U247" s="134"/>
-      <c r="V247" s="134"/>
-      <c r="W247" s="134"/>
-      <c r="X247" s="134"/>
-      <c r="Y247" s="135"/>
+      <c r="U247" s="136"/>
+      <c r="V247" s="136"/>
+      <c r="W247" s="136"/>
+      <c r="X247" s="136"/>
+      <c r="Y247" s="137"/>
       <c r="Z247" s="7"/>
     </row>
     <row r="248" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="47"/>
       <c r="B248" s="45"/>
-      <c r="C248" s="147" t="s">
+      <c r="C248" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D248" s="147"/>
-      <c r="E248" s="147"/>
-      <c r="F248" s="147"/>
+      <c r="D248" s="140"/>
+      <c r="E248" s="140"/>
+      <c r="F248" s="140"/>
       <c r="G248" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H248" s="146">
+      <c r="H248" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I248" s="146"/>
+      <c r="I248" s="143"/>
       <c r="J248" s="45"/>
       <c r="K248" s="49"/>
       <c r="L248" s="50"/>
@@ -15128,13 +15131,13 @@
       <c r="F251" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G251" s="143"/>
+      <c r="G251" s="142"/>
       <c r="H251" s="45"/>
       <c r="I251" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J251" s="142"/>
-      <c r="K251" s="143"/>
+      <c r="J251" s="144"/>
+      <c r="K251" s="142"/>
       <c r="L251" s="59"/>
       <c r="N251" s="15"/>
       <c r="O251" s="16" t="s">
@@ -15191,10 +15194,10 @@
     </row>
     <row r="253" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="47"/>
-      <c r="B253" s="144" t="s">
+      <c r="B253" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C253" s="145"/>
+      <c r="C253" s="139"/>
       <c r="D253" s="45"/>
       <c r="E253" s="45"/>
       <c r="F253" s="62" t="s">
@@ -15310,10 +15313,10 @@
         <v>0</v>
       </c>
       <c r="H255" s="60"/>
-      <c r="I255" s="136" t="s">
+      <c r="I255" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J255" s="137"/>
+      <c r="J255" s="146"/>
       <c r="K255" s="69">
         <f>K253+K254</f>
         <v>59547.413793103449</v>
@@ -15358,10 +15361,10 @@
         <v>0</v>
       </c>
       <c r="H256" s="60"/>
-      <c r="I256" s="136" t="s">
+      <c r="I256" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J256" s="137"/>
+      <c r="J256" s="146"/>
       <c r="K256" s="63">
         <f>G256</f>
         <v>0</v>
@@ -15409,7 +15412,7 @@
       <c r="I257" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J257" s="143"/>
+      <c r="J257" s="142"/>
       <c r="K257" s="41">
         <f>K255-K256</f>
         <v>59547.413793103449</v>
@@ -15581,57 +15584,57 @@
       <c r="Z261" s="28"/>
     </row>
     <row r="262" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="138" t="s">
+      <c r="A262" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B262" s="139"/>
-      <c r="C262" s="139"/>
-      <c r="D262" s="139"/>
-      <c r="E262" s="139"/>
-      <c r="F262" s="139"/>
-      <c r="G262" s="139"/>
-      <c r="H262" s="139"/>
-      <c r="I262" s="139"/>
-      <c r="J262" s="139"/>
-      <c r="K262" s="139"/>
-      <c r="L262" s="140"/>
+      <c r="B262" s="148"/>
+      <c r="C262" s="148"/>
+      <c r="D262" s="148"/>
+      <c r="E262" s="148"/>
+      <c r="F262" s="148"/>
+      <c r="G262" s="148"/>
+      <c r="H262" s="148"/>
+      <c r="I262" s="148"/>
+      <c r="J262" s="148"/>
+      <c r="K262" s="148"/>
+      <c r="L262" s="149"/>
       <c r="M262" s="4"/>
       <c r="N262" s="8"/>
-      <c r="O262" s="133" t="s">
+      <c r="O262" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P262" s="134"/>
-      <c r="Q262" s="134"/>
-      <c r="R262" s="135"/>
+      <c r="P262" s="136"/>
+      <c r="Q262" s="136"/>
+      <c r="R262" s="137"/>
       <c r="S262" s="9"/>
-      <c r="T262" s="133" t="s">
+      <c r="T262" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U262" s="134"/>
-      <c r="V262" s="134"/>
-      <c r="W262" s="134"/>
-      <c r="X262" s="134"/>
-      <c r="Y262" s="135"/>
+      <c r="U262" s="136"/>
+      <c r="V262" s="136"/>
+      <c r="W262" s="136"/>
+      <c r="X262" s="136"/>
+      <c r="Y262" s="137"/>
       <c r="Z262" s="10"/>
     </row>
     <row r="263" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="47"/>
       <c r="B263" s="45"/>
-      <c r="C263" s="147" t="s">
+      <c r="C263" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D263" s="147"/>
-      <c r="E263" s="147"/>
-      <c r="F263" s="147"/>
+      <c r="D263" s="140"/>
+      <c r="E263" s="140"/>
+      <c r="F263" s="140"/>
       <c r="G263" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H263" s="146">
+      <c r="H263" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I263" s="146"/>
+      <c r="I263" s="143"/>
       <c r="J263" s="45"/>
       <c r="K263" s="49"/>
       <c r="L263" s="50"/>
@@ -15779,13 +15782,13 @@
       <c r="F266" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G266" s="143"/>
+      <c r="G266" s="142"/>
       <c r="H266" s="45"/>
       <c r="I266" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J266" s="142"/>
-      <c r="K266" s="143"/>
+      <c r="J266" s="144"/>
+      <c r="K266" s="142"/>
       <c r="L266" s="59"/>
       <c r="N266" s="15"/>
       <c r="O266" s="16" t="s">
@@ -15860,10 +15863,10 @@
     </row>
     <row r="268" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="47"/>
-      <c r="B268" s="144" t="s">
+      <c r="B268" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C268" s="145"/>
+      <c r="C268" s="139"/>
       <c r="D268" s="45"/>
       <c r="E268" s="45"/>
       <c r="F268" s="62" t="s">
@@ -15987,10 +15990,10 @@
         <v>0</v>
       </c>
       <c r="H270" s="60"/>
-      <c r="I270" s="136" t="s">
+      <c r="I270" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J270" s="137"/>
+      <c r="J270" s="146"/>
       <c r="K270" s="69">
         <f>K268+K269</f>
         <v>39525.862068965514</v>
@@ -16044,10 +16047,10 @@
         <v>0</v>
       </c>
       <c r="H271" s="60"/>
-      <c r="I271" s="136" t="s">
+      <c r="I271" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J271" s="137"/>
+      <c r="J271" s="146"/>
       <c r="K271" s="63">
         <f>G271</f>
         <v>0</v>
@@ -16104,7 +16107,7 @@
       <c r="I272" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J272" s="143"/>
+      <c r="J272" s="142"/>
       <c r="K272" s="41">
         <f>K270-K271</f>
         <v>39525.862068965514</v>
@@ -16293,58 +16296,58 @@
       <c r="Z276" s="28"/>
     </row>
     <row r="277" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="138" t="s">
+      <c r="A277" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B277" s="139"/>
-      <c r="C277" s="139"/>
-      <c r="D277" s="139"/>
-      <c r="E277" s="139"/>
-      <c r="F277" s="139"/>
-      <c r="G277" s="139"/>
-      <c r="H277" s="139"/>
-      <c r="I277" s="139"/>
-      <c r="J277" s="139"/>
-      <c r="K277" s="139"/>
-      <c r="L277" s="140"/>
+      <c r="B277" s="148"/>
+      <c r="C277" s="148"/>
+      <c r="D277" s="148"/>
+      <c r="E277" s="148"/>
+      <c r="F277" s="148"/>
+      <c r="G277" s="148"/>
+      <c r="H277" s="148"/>
+      <c r="I277" s="148"/>
+      <c r="J277" s="148"/>
+      <c r="K277" s="148"/>
+      <c r="L277" s="149"/>
       <c r="M277" s="4"/>
       <c r="N277" s="8"/>
-      <c r="O277" s="133" t="s">
+      <c r="O277" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P277" s="134"/>
-      <c r="Q277" s="134"/>
-      <c r="R277" s="135"/>
+      <c r="P277" s="136"/>
+      <c r="Q277" s="136"/>
+      <c r="R277" s="137"/>
       <c r="S277" s="9"/>
-      <c r="T277" s="133" t="s">
+      <c r="T277" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U277" s="134"/>
-      <c r="V277" s="134"/>
-      <c r="W277" s="134"/>
-      <c r="X277" s="134"/>
-      <c r="Y277" s="135"/>
+      <c r="U277" s="136"/>
+      <c r="V277" s="136"/>
+      <c r="W277" s="136"/>
+      <c r="X277" s="136"/>
+      <c r="Y277" s="137"/>
       <c r="Z277" s="10"/>
       <c r="AA277" s="4"/>
     </row>
     <row r="278" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="47"/>
       <c r="B278" s="45"/>
-      <c r="C278" s="147" t="s">
+      <c r="C278" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D278" s="147"/>
-      <c r="E278" s="147"/>
-      <c r="F278" s="147"/>
+      <c r="D278" s="140"/>
+      <c r="E278" s="140"/>
+      <c r="F278" s="140"/>
       <c r="G278" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H278" s="146">
+      <c r="H278" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I278" s="146"/>
+      <c r="I278" s="143"/>
       <c r="J278" s="45"/>
       <c r="K278" s="49"/>
       <c r="L278" s="50"/>
@@ -16505,13 +16508,13 @@
       <c r="F281" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G281" s="143"/>
+      <c r="G281" s="142"/>
       <c r="H281" s="45"/>
       <c r="I281" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J281" s="142"/>
-      <c r="K281" s="143"/>
+      <c r="J281" s="144"/>
+      <c r="K281" s="142"/>
       <c r="L281" s="59"/>
       <c r="N281" s="15"/>
       <c r="O281" s="16" t="s">
@@ -16582,10 +16585,10 @@
     </row>
     <row r="283" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="47"/>
-      <c r="B283" s="144" t="s">
+      <c r="B283" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C283" s="145"/>
+      <c r="C283" s="139"/>
       <c r="D283" s="45"/>
       <c r="E283" s="45"/>
       <c r="F283" s="62" t="s">
@@ -16706,10 +16709,10 @@
         <v>60870</v>
       </c>
       <c r="H285" s="60"/>
-      <c r="I285" s="136" t="s">
+      <c r="I285" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J285" s="137"/>
+      <c r="J285" s="146"/>
       <c r="K285" s="69">
         <f>K283+K284</f>
         <v>58405.172413793101</v>
@@ -16761,10 +16764,10 @@
         <v>5000</v>
       </c>
       <c r="H286" s="60"/>
-      <c r="I286" s="136" t="s">
+      <c r="I286" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J286" s="137"/>
+      <c r="J286" s="146"/>
       <c r="K286" s="63">
         <f>G286</f>
         <v>5000</v>
@@ -16819,7 +16822,7 @@
       <c r="I287" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J287" s="143"/>
+      <c r="J287" s="142"/>
       <c r="K287" s="41">
         <f>K285-K286</f>
         <v>53405.172413793101</v>
@@ -17000,58 +17003,58 @@
       <c r="Z291" s="28"/>
     </row>
     <row r="292" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="138" t="s">
+      <c r="A292" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B292" s="139"/>
-      <c r="C292" s="139"/>
-      <c r="D292" s="139"/>
-      <c r="E292" s="139"/>
-      <c r="F292" s="139"/>
-      <c r="G292" s="139"/>
-      <c r="H292" s="139"/>
-      <c r="I292" s="139"/>
-      <c r="J292" s="139"/>
-      <c r="K292" s="139"/>
-      <c r="L292" s="140"/>
+      <c r="B292" s="148"/>
+      <c r="C292" s="148"/>
+      <c r="D292" s="148"/>
+      <c r="E292" s="148"/>
+      <c r="F292" s="148"/>
+      <c r="G292" s="148"/>
+      <c r="H292" s="148"/>
+      <c r="I292" s="148"/>
+      <c r="J292" s="148"/>
+      <c r="K292" s="148"/>
+      <c r="L292" s="149"/>
       <c r="M292" s="4"/>
       <c r="N292" s="8"/>
-      <c r="O292" s="133" t="s">
+      <c r="O292" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P292" s="134"/>
-      <c r="Q292" s="134"/>
-      <c r="R292" s="135"/>
+      <c r="P292" s="136"/>
+      <c r="Q292" s="136"/>
+      <c r="R292" s="137"/>
       <c r="S292" s="9"/>
-      <c r="T292" s="133" t="s">
+      <c r="T292" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U292" s="134"/>
-      <c r="V292" s="134"/>
-      <c r="W292" s="134"/>
-      <c r="X292" s="134"/>
-      <c r="Y292" s="135"/>
+      <c r="U292" s="136"/>
+      <c r="V292" s="136"/>
+      <c r="W292" s="136"/>
+      <c r="X292" s="136"/>
+      <c r="Y292" s="137"/>
       <c r="Z292" s="10"/>
       <c r="AA292" s="4"/>
     </row>
     <row r="293" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="47"/>
       <c r="B293" s="45"/>
-      <c r="C293" s="147" t="s">
+      <c r="C293" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D293" s="147"/>
-      <c r="E293" s="147"/>
-      <c r="F293" s="147"/>
+      <c r="D293" s="140"/>
+      <c r="E293" s="140"/>
+      <c r="F293" s="140"/>
       <c r="G293" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H293" s="146">
+      <c r="H293" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I293" s="146"/>
+      <c r="I293" s="143"/>
       <c r="J293" s="45"/>
       <c r="K293" s="49"/>
       <c r="L293" s="50"/>
@@ -17208,13 +17211,13 @@
       <c r="F296" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G296" s="143"/>
+      <c r="G296" s="142"/>
       <c r="H296" s="45"/>
       <c r="I296" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J296" s="142"/>
-      <c r="K296" s="143"/>
+      <c r="J296" s="144"/>
+      <c r="K296" s="142"/>
       <c r="L296" s="59"/>
       <c r="N296" s="15"/>
       <c r="O296" s="16" t="s">
@@ -17285,10 +17288,10 @@
     </row>
     <row r="298" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="47"/>
-      <c r="B298" s="144" t="s">
+      <c r="B298" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C298" s="145"/>
+      <c r="C298" s="139"/>
       <c r="D298" s="45"/>
       <c r="E298" s="45"/>
       <c r="F298" s="62" t="s">
@@ -17406,10 +17409,10 @@
         <v>22000</v>
       </c>
       <c r="H300" s="60"/>
-      <c r="I300" s="136" t="s">
+      <c r="I300" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J300" s="137"/>
+      <c r="J300" s="146"/>
       <c r="K300" s="69">
         <f>K298+K299</f>
         <v>2241.3793103448274</v>
@@ -17461,10 +17464,10 @@
         <v>0</v>
       </c>
       <c r="H301" s="60"/>
-      <c r="I301" s="136" t="s">
+      <c r="I301" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J301" s="137"/>
+      <c r="J301" s="146"/>
       <c r="K301" s="63">
         <f>G301</f>
         <v>0</v>
@@ -17522,7 +17525,7 @@
       <c r="I302" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J302" s="143"/>
+      <c r="J302" s="142"/>
       <c r="K302" s="41"/>
       <c r="L302" s="72"/>
       <c r="N302" s="15"/>
@@ -17711,58 +17714,58 @@
       <c r="Z306" s="28"/>
     </row>
     <row r="307" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="138" t="s">
+      <c r="A307" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B307" s="139"/>
-      <c r="C307" s="139"/>
-      <c r="D307" s="139"/>
-      <c r="E307" s="139"/>
-      <c r="F307" s="139"/>
-      <c r="G307" s="139"/>
-      <c r="H307" s="139"/>
-      <c r="I307" s="139"/>
-      <c r="J307" s="139"/>
-      <c r="K307" s="139"/>
-      <c r="L307" s="140"/>
+      <c r="B307" s="148"/>
+      <c r="C307" s="148"/>
+      <c r="D307" s="148"/>
+      <c r="E307" s="148"/>
+      <c r="F307" s="148"/>
+      <c r="G307" s="148"/>
+      <c r="H307" s="148"/>
+      <c r="I307" s="148"/>
+      <c r="J307" s="148"/>
+      <c r="K307" s="148"/>
+      <c r="L307" s="149"/>
       <c r="M307" s="4"/>
       <c r="N307" s="8"/>
-      <c r="O307" s="133" t="s">
+      <c r="O307" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P307" s="134"/>
-      <c r="Q307" s="134"/>
-      <c r="R307" s="135"/>
+      <c r="P307" s="136"/>
+      <c r="Q307" s="136"/>
+      <c r="R307" s="137"/>
       <c r="S307" s="9"/>
-      <c r="T307" s="133" t="s">
+      <c r="T307" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U307" s="134"/>
-      <c r="V307" s="134"/>
-      <c r="W307" s="134"/>
-      <c r="X307" s="134"/>
-      <c r="Y307" s="135"/>
+      <c r="U307" s="136"/>
+      <c r="V307" s="136"/>
+      <c r="W307" s="136"/>
+      <c r="X307" s="136"/>
+      <c r="Y307" s="137"/>
       <c r="Z307" s="10"/>
       <c r="AA307" s="4"/>
     </row>
     <row r="308" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="47"/>
       <c r="B308" s="45"/>
-      <c r="C308" s="147" t="s">
+      <c r="C308" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D308" s="147"/>
-      <c r="E308" s="147"/>
-      <c r="F308" s="147"/>
+      <c r="D308" s="140"/>
+      <c r="E308" s="140"/>
+      <c r="F308" s="140"/>
       <c r="G308" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H308" s="146">
+      <c r="H308" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I308" s="146"/>
+      <c r="I308" s="143"/>
       <c r="J308" s="45"/>
       <c r="K308" s="49"/>
       <c r="L308" s="50"/>
@@ -17923,13 +17926,13 @@
       <c r="F311" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G311" s="143"/>
+      <c r="G311" s="142"/>
       <c r="H311" s="45"/>
       <c r="I311" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J311" s="142"/>
-      <c r="K311" s="143"/>
+      <c r="J311" s="144"/>
+      <c r="K311" s="142"/>
       <c r="L311" s="59"/>
       <c r="N311" s="15"/>
       <c r="O311" s="16" t="s">
@@ -18000,10 +18003,10 @@
     </row>
     <row r="313" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="47"/>
-      <c r="B313" s="144" t="s">
+      <c r="B313" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C313" s="145"/>
+      <c r="C313" s="139"/>
       <c r="D313" s="45"/>
       <c r="E313" s="45"/>
       <c r="F313" s="62" t="s">
@@ -18124,10 +18127,10 @@
         <v>16760</v>
       </c>
       <c r="H315" s="60"/>
-      <c r="I315" s="136" t="s">
+      <c r="I315" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J315" s="137"/>
+      <c r="J315" s="146"/>
       <c r="K315" s="69">
         <f>K313+K314</f>
         <v>45258.620689655174</v>
@@ -18179,10 +18182,10 @@
         <v>2000</v>
       </c>
       <c r="H316" s="60"/>
-      <c r="I316" s="136" t="s">
+      <c r="I316" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J316" s="137"/>
+      <c r="J316" s="146"/>
       <c r="K316" s="63">
         <f>G316</f>
         <v>2000</v>
@@ -18237,7 +18240,7 @@
       <c r="I317" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J317" s="143"/>
+      <c r="J317" s="142"/>
       <c r="K317" s="41">
         <f>K315-K316</f>
         <v>43258.620689655174</v>
@@ -18418,58 +18421,58 @@
       <c r="Z321" s="28"/>
     </row>
     <row r="322" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="138" t="s">
+      <c r="A322" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B322" s="139"/>
-      <c r="C322" s="139"/>
-      <c r="D322" s="139"/>
-      <c r="E322" s="139"/>
-      <c r="F322" s="139"/>
-      <c r="G322" s="139"/>
-      <c r="H322" s="139"/>
-      <c r="I322" s="139"/>
-      <c r="J322" s="139"/>
-      <c r="K322" s="139"/>
-      <c r="L322" s="140"/>
+      <c r="B322" s="148"/>
+      <c r="C322" s="148"/>
+      <c r="D322" s="148"/>
+      <c r="E322" s="148"/>
+      <c r="F322" s="148"/>
+      <c r="G322" s="148"/>
+      <c r="H322" s="148"/>
+      <c r="I322" s="148"/>
+      <c r="J322" s="148"/>
+      <c r="K322" s="148"/>
+      <c r="L322" s="149"/>
       <c r="M322" s="4"/>
       <c r="N322" s="8"/>
-      <c r="O322" s="133" t="s">
+      <c r="O322" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P322" s="134"/>
-      <c r="Q322" s="134"/>
-      <c r="R322" s="135"/>
+      <c r="P322" s="136"/>
+      <c r="Q322" s="136"/>
+      <c r="R322" s="137"/>
       <c r="S322" s="9"/>
-      <c r="T322" s="133" t="s">
+      <c r="T322" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U322" s="134"/>
-      <c r="V322" s="134"/>
-      <c r="W322" s="134"/>
-      <c r="X322" s="134"/>
-      <c r="Y322" s="135"/>
+      <c r="U322" s="136"/>
+      <c r="V322" s="136"/>
+      <c r="W322" s="136"/>
+      <c r="X322" s="136"/>
+      <c r="Y322" s="137"/>
       <c r="Z322" s="10"/>
       <c r="AA322" s="4"/>
     </row>
     <row r="323" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="47"/>
       <c r="B323" s="45"/>
-      <c r="C323" s="147" t="s">
+      <c r="C323" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D323" s="147"/>
-      <c r="E323" s="147"/>
-      <c r="F323" s="147"/>
+      <c r="D323" s="140"/>
+      <c r="E323" s="140"/>
+      <c r="F323" s="140"/>
       <c r="G323" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H323" s="146">
+      <c r="H323" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I323" s="146"/>
+      <c r="I323" s="143"/>
       <c r="J323" s="45"/>
       <c r="K323" s="49"/>
       <c r="L323" s="50"/>
@@ -18628,13 +18631,13 @@
       <c r="F326" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G326" s="143"/>
+      <c r="G326" s="142"/>
       <c r="H326" s="45"/>
       <c r="I326" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J326" s="142"/>
-      <c r="K326" s="143"/>
+      <c r="J326" s="144"/>
+      <c r="K326" s="142"/>
       <c r="L326" s="59"/>
       <c r="N326" s="15"/>
       <c r="O326" s="16" t="s">
@@ -18708,10 +18711,10 @@
     </row>
     <row r="328" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="47"/>
-      <c r="B328" s="144" t="s">
+      <c r="B328" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C328" s="145"/>
+      <c r="C328" s="139"/>
       <c r="D328" s="45"/>
       <c r="E328" s="45"/>
       <c r="F328" s="62" t="s">
@@ -18838,10 +18841,10 @@
         <v>15000</v>
       </c>
       <c r="H330" s="60"/>
-      <c r="I330" s="136" t="s">
+      <c r="I330" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J330" s="137"/>
+      <c r="J330" s="146"/>
       <c r="K330" s="69">
         <f>K328+K329</f>
         <v>28280.172413793105</v>
@@ -18893,10 +18896,10 @@
         <v>3000</v>
       </c>
       <c r="H331" s="60"/>
-      <c r="I331" s="136" t="s">
+      <c r="I331" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J331" s="137"/>
+      <c r="J331" s="146"/>
       <c r="K331" s="63">
         <f>G331</f>
         <v>3000</v>
@@ -18951,7 +18954,7 @@
       <c r="I332" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J332" s="143"/>
+      <c r="J332" s="142"/>
       <c r="K332" s="41">
         <f>K330-K331</f>
         <v>25280.172413793105</v>
@@ -19132,57 +19135,57 @@
       <c r="Z336" s="28"/>
     </row>
     <row r="337" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="138" t="s">
+      <c r="A337" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B337" s="139"/>
-      <c r="C337" s="139"/>
-      <c r="D337" s="139"/>
-      <c r="E337" s="139"/>
-      <c r="F337" s="139"/>
-      <c r="G337" s="139"/>
-      <c r="H337" s="139"/>
-      <c r="I337" s="139"/>
-      <c r="J337" s="139"/>
-      <c r="K337" s="139"/>
-      <c r="L337" s="140"/>
+      <c r="B337" s="148"/>
+      <c r="C337" s="148"/>
+      <c r="D337" s="148"/>
+      <c r="E337" s="148"/>
+      <c r="F337" s="148"/>
+      <c r="G337" s="148"/>
+      <c r="H337" s="148"/>
+      <c r="I337" s="148"/>
+      <c r="J337" s="148"/>
+      <c r="K337" s="148"/>
+      <c r="L337" s="149"/>
       <c r="M337" s="4"/>
       <c r="N337" s="8"/>
-      <c r="O337" s="133" t="s">
+      <c r="O337" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P337" s="134"/>
-      <c r="Q337" s="134"/>
-      <c r="R337" s="135"/>
+      <c r="P337" s="136"/>
+      <c r="Q337" s="136"/>
+      <c r="R337" s="137"/>
       <c r="S337" s="9"/>
-      <c r="T337" s="133" t="s">
+      <c r="T337" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U337" s="134"/>
-      <c r="V337" s="134"/>
-      <c r="W337" s="134"/>
-      <c r="X337" s="134"/>
-      <c r="Y337" s="135"/>
+      <c r="U337" s="136"/>
+      <c r="V337" s="136"/>
+      <c r="W337" s="136"/>
+      <c r="X337" s="136"/>
+      <c r="Y337" s="137"/>
       <c r="Z337" s="10"/>
     </row>
     <row r="338" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="47"/>
       <c r="B338" s="45"/>
-      <c r="C338" s="147" t="s">
+      <c r="C338" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D338" s="147"/>
-      <c r="E338" s="147"/>
-      <c r="F338" s="147"/>
+      <c r="D338" s="140"/>
+      <c r="E338" s="140"/>
+      <c r="F338" s="140"/>
       <c r="G338" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H338" s="146">
+      <c r="H338" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I338" s="146"/>
+      <c r="I338" s="143"/>
       <c r="J338" s="45"/>
       <c r="K338" s="49"/>
       <c r="L338" s="50"/>
@@ -19342,13 +19345,13 @@
       <c r="F341" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G341" s="143"/>
+      <c r="G341" s="142"/>
       <c r="H341" s="45"/>
       <c r="I341" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J341" s="142"/>
-      <c r="K341" s="143"/>
+      <c r="J341" s="144"/>
+      <c r="K341" s="142"/>
       <c r="L341" s="59"/>
       <c r="N341" s="15"/>
       <c r="O341" s="16" t="s">
@@ -19422,10 +19425,10 @@
     </row>
     <row r="343" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="47"/>
-      <c r="B343" s="144" t="s">
+      <c r="B343" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C343" s="145"/>
+      <c r="C343" s="139"/>
       <c r="D343" s="45"/>
       <c r="E343" s="45"/>
       <c r="F343" s="62" t="s">
@@ -19552,10 +19555,10 @@
         <v>3000</v>
       </c>
       <c r="H345" s="60"/>
-      <c r="I345" s="136" t="s">
+      <c r="I345" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J345" s="137"/>
+      <c r="J345" s="146"/>
       <c r="K345" s="69">
         <f>K343+K344</f>
         <v>40280.172413793101</v>
@@ -19610,10 +19613,10 @@
         <v>1500</v>
       </c>
       <c r="H346" s="60"/>
-      <c r="I346" s="136" t="s">
+      <c r="I346" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J346" s="137"/>
+      <c r="J346" s="146"/>
       <c r="K346" s="63">
         <f>G346</f>
         <v>1500</v>
@@ -19671,7 +19674,7 @@
       <c r="I347" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J347" s="143"/>
+      <c r="J347" s="142"/>
       <c r="K347" s="41">
         <f>K345-K346</f>
         <v>38780.172413793101</v>
@@ -19863,57 +19866,57 @@
       <c r="Z351" s="28"/>
     </row>
     <row r="352" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="138" t="s">
+      <c r="A352" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B352" s="139"/>
-      <c r="C352" s="139"/>
-      <c r="D352" s="139"/>
-      <c r="E352" s="139"/>
-      <c r="F352" s="139"/>
-      <c r="G352" s="139"/>
-      <c r="H352" s="139"/>
-      <c r="I352" s="139"/>
-      <c r="J352" s="139"/>
-      <c r="K352" s="139"/>
-      <c r="L352" s="140"/>
+      <c r="B352" s="148"/>
+      <c r="C352" s="148"/>
+      <c r="D352" s="148"/>
+      <c r="E352" s="148"/>
+      <c r="F352" s="148"/>
+      <c r="G352" s="148"/>
+      <c r="H352" s="148"/>
+      <c r="I352" s="148"/>
+      <c r="J352" s="148"/>
+      <c r="K352" s="148"/>
+      <c r="L352" s="149"/>
       <c r="M352" s="4"/>
       <c r="N352" s="8"/>
-      <c r="O352" s="133" t="s">
+      <c r="O352" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P352" s="134"/>
-      <c r="Q352" s="134"/>
-      <c r="R352" s="135"/>
+      <c r="P352" s="136"/>
+      <c r="Q352" s="136"/>
+      <c r="R352" s="137"/>
       <c r="S352" s="9"/>
-      <c r="T352" s="133" t="s">
+      <c r="T352" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U352" s="134"/>
-      <c r="V352" s="134"/>
-      <c r="W352" s="134"/>
-      <c r="X352" s="134"/>
-      <c r="Y352" s="135"/>
+      <c r="U352" s="136"/>
+      <c r="V352" s="136"/>
+      <c r="W352" s="136"/>
+      <c r="X352" s="136"/>
+      <c r="Y352" s="137"/>
       <c r="Z352" s="10"/>
     </row>
     <row r="353" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="47"/>
       <c r="B353" s="45"/>
-      <c r="C353" s="147" t="s">
+      <c r="C353" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D353" s="147"/>
-      <c r="E353" s="147"/>
-      <c r="F353" s="147"/>
+      <c r="D353" s="140"/>
+      <c r="E353" s="140"/>
+      <c r="F353" s="140"/>
       <c r="G353" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H353" s="146">
+      <c r="H353" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I353" s="146"/>
+      <c r="I353" s="143"/>
       <c r="J353" s="45"/>
       <c r="K353" s="49"/>
       <c r="L353" s="50"/>
@@ -20064,13 +20067,13 @@
       <c r="F356" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G356" s="143"/>
+      <c r="G356" s="142"/>
       <c r="H356" s="45"/>
       <c r="I356" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J356" s="142"/>
-      <c r="K356" s="143"/>
+      <c r="J356" s="144"/>
+      <c r="K356" s="142"/>
       <c r="L356" s="59"/>
       <c r="N356" s="15"/>
       <c r="O356" s="16" t="s">
@@ -20147,10 +20150,10 @@
     </row>
     <row r="358" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="47"/>
-      <c r="B358" s="144" t="s">
+      <c r="B358" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C358" s="145"/>
+      <c r="C358" s="139"/>
       <c r="D358" s="45"/>
       <c r="E358" s="45"/>
       <c r="F358" s="62" t="s">
@@ -20277,10 +20280,10 @@
         <v>0</v>
       </c>
       <c r="H360" s="60"/>
-      <c r="I360" s="136" t="s">
+      <c r="I360" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J360" s="137"/>
+      <c r="J360" s="146"/>
       <c r="K360" s="69">
         <f>K358+K359</f>
         <v>27698.275862068964</v>
@@ -20335,10 +20338,10 @@
         <v>0</v>
       </c>
       <c r="H361" s="60"/>
-      <c r="I361" s="136" t="s">
+      <c r="I361" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J361" s="137"/>
+      <c r="J361" s="146"/>
       <c r="K361" s="63">
         <f>G361</f>
         <v>0</v>
@@ -20393,7 +20396,7 @@
       <c r="I362" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J362" s="143"/>
+      <c r="J362" s="142"/>
       <c r="K362" s="41">
         <f>K360-K361</f>
         <v>27698.275862068964</v>
@@ -20584,57 +20587,57 @@
       <c r="Z366" s="28"/>
     </row>
     <row r="367" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="138" t="s">
+      <c r="A367" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B367" s="139"/>
-      <c r="C367" s="139"/>
-      <c r="D367" s="139"/>
-      <c r="E367" s="139"/>
-      <c r="F367" s="139"/>
-      <c r="G367" s="139"/>
-      <c r="H367" s="139"/>
-      <c r="I367" s="139"/>
-      <c r="J367" s="139"/>
-      <c r="K367" s="139"/>
-      <c r="L367" s="140"/>
+      <c r="B367" s="148"/>
+      <c r="C367" s="148"/>
+      <c r="D367" s="148"/>
+      <c r="E367" s="148"/>
+      <c r="F367" s="148"/>
+      <c r="G367" s="148"/>
+      <c r="H367" s="148"/>
+      <c r="I367" s="148"/>
+      <c r="J367" s="148"/>
+      <c r="K367" s="148"/>
+      <c r="L367" s="149"/>
       <c r="M367" s="4"/>
       <c r="N367" s="8"/>
-      <c r="O367" s="133" t="s">
+      <c r="O367" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P367" s="134"/>
-      <c r="Q367" s="134"/>
-      <c r="R367" s="135"/>
+      <c r="P367" s="136"/>
+      <c r="Q367" s="136"/>
+      <c r="R367" s="137"/>
       <c r="S367" s="9"/>
-      <c r="T367" s="133" t="s">
+      <c r="T367" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U367" s="134"/>
-      <c r="V367" s="134"/>
-      <c r="W367" s="134"/>
-      <c r="X367" s="134"/>
-      <c r="Y367" s="135"/>
+      <c r="U367" s="136"/>
+      <c r="V367" s="136"/>
+      <c r="W367" s="136"/>
+      <c r="X367" s="136"/>
+      <c r="Y367" s="137"/>
       <c r="Z367" s="10"/>
     </row>
     <row r="368" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="47"/>
       <c r="B368" s="45"/>
-      <c r="C368" s="147" t="s">
+      <c r="C368" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D368" s="147"/>
-      <c r="E368" s="147"/>
-      <c r="F368" s="147"/>
+      <c r="D368" s="140"/>
+      <c r="E368" s="140"/>
+      <c r="F368" s="140"/>
       <c r="G368" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H368" s="146">
+      <c r="H368" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I368" s="146"/>
+      <c r="I368" s="143"/>
       <c r="J368" s="45"/>
       <c r="K368" s="49"/>
       <c r="L368" s="50"/>
@@ -20786,13 +20789,13 @@
       <c r="F371" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G371" s="143"/>
+      <c r="G371" s="142"/>
       <c r="H371" s="45"/>
       <c r="I371" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J371" s="142"/>
-      <c r="K371" s="143"/>
+      <c r="J371" s="144"/>
+      <c r="K371" s="142"/>
       <c r="L371" s="59"/>
       <c r="N371" s="15"/>
       <c r="O371" s="16" t="s">
@@ -20867,10 +20870,10 @@
     </row>
     <row r="373" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="47"/>
-      <c r="B373" s="144" t="s">
+      <c r="B373" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C373" s="145"/>
+      <c r="C373" s="139"/>
       <c r="D373" s="45"/>
       <c r="E373" s="45"/>
       <c r="F373" s="62" t="s">
@@ -20995,10 +20998,10 @@
         <v>2000</v>
       </c>
       <c r="H375" s="60"/>
-      <c r="I375" s="136" t="s">
+      <c r="I375" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J375" s="137"/>
+      <c r="J375" s="146"/>
       <c r="K375" s="69">
         <f>K373+K374</f>
         <v>25862.068965517243</v>
@@ -21052,10 +21055,10 @@
         <v>2000</v>
       </c>
       <c r="H376" s="60"/>
-      <c r="I376" s="136" t="s">
+      <c r="I376" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J376" s="137"/>
+      <c r="J376" s="146"/>
       <c r="K376" s="63">
         <f>G376</f>
         <v>2000</v>
@@ -21109,7 +21112,7 @@
       <c r="I377" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J377" s="143"/>
+      <c r="J377" s="142"/>
       <c r="K377" s="41">
         <f>K375-K376</f>
         <v>23862.068965517243</v>
@@ -21298,58 +21301,58 @@
       <c r="Z381" s="28"/>
     </row>
     <row r="382" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="138" t="s">
+      <c r="A382" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B382" s="139"/>
-      <c r="C382" s="139"/>
-      <c r="D382" s="139"/>
-      <c r="E382" s="139"/>
-      <c r="F382" s="139"/>
-      <c r="G382" s="139"/>
-      <c r="H382" s="139"/>
-      <c r="I382" s="139"/>
-      <c r="J382" s="139"/>
-      <c r="K382" s="139"/>
-      <c r="L382" s="140"/>
+      <c r="B382" s="148"/>
+      <c r="C382" s="148"/>
+      <c r="D382" s="148"/>
+      <c r="E382" s="148"/>
+      <c r="F382" s="148"/>
+      <c r="G382" s="148"/>
+      <c r="H382" s="148"/>
+      <c r="I382" s="148"/>
+      <c r="J382" s="148"/>
+      <c r="K382" s="148"/>
+      <c r="L382" s="149"/>
       <c r="M382" s="4"/>
       <c r="N382" s="8"/>
-      <c r="O382" s="133" t="s">
+      <c r="O382" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P382" s="134"/>
-      <c r="Q382" s="134"/>
-      <c r="R382" s="135"/>
+      <c r="P382" s="136"/>
+      <c r="Q382" s="136"/>
+      <c r="R382" s="137"/>
       <c r="S382" s="9"/>
-      <c r="T382" s="133" t="s">
+      <c r="T382" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U382" s="134"/>
-      <c r="V382" s="134"/>
-      <c r="W382" s="134"/>
-      <c r="X382" s="134"/>
-      <c r="Y382" s="135"/>
+      <c r="U382" s="136"/>
+      <c r="V382" s="136"/>
+      <c r="W382" s="136"/>
+      <c r="X382" s="136"/>
+      <c r="Y382" s="137"/>
       <c r="Z382" s="10"/>
       <c r="AA382" s="4"/>
     </row>
     <row r="383" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="47"/>
       <c r="B383" s="45"/>
-      <c r="C383" s="147" t="s">
+      <c r="C383" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D383" s="147"/>
-      <c r="E383" s="147"/>
-      <c r="F383" s="147"/>
+      <c r="D383" s="140"/>
+      <c r="E383" s="140"/>
+      <c r="F383" s="140"/>
       <c r="G383" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H383" s="146">
+      <c r="H383" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I383" s="146"/>
+      <c r="I383" s="143"/>
       <c r="J383" s="45"/>
       <c r="K383" s="49"/>
       <c r="L383" s="50"/>
@@ -21508,13 +21511,13 @@
       <c r="F386" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G386" s="143"/>
+      <c r="G386" s="142"/>
       <c r="H386" s="45"/>
       <c r="I386" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J386" s="142"/>
-      <c r="K386" s="143"/>
+      <c r="J386" s="144"/>
+      <c r="K386" s="142"/>
       <c r="L386" s="59"/>
       <c r="N386" s="15"/>
       <c r="O386" s="16" t="s">
@@ -21585,10 +21588,10 @@
     </row>
     <row r="388" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="47"/>
-      <c r="B388" s="144" t="s">
+      <c r="B388" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C388" s="145"/>
+      <c r="C388" s="139"/>
       <c r="D388" s="45"/>
       <c r="E388" s="45"/>
       <c r="F388" s="62" t="s">
@@ -21709,10 +21712,10 @@
         <v>18000</v>
       </c>
       <c r="H390" s="60"/>
-      <c r="I390" s="136" t="s">
+      <c r="I390" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J390" s="137"/>
+      <c r="J390" s="146"/>
       <c r="K390" s="69">
         <f>K388+K389</f>
         <v>25431.03448275862</v>
@@ -21764,10 +21767,10 @@
         <v>2000</v>
       </c>
       <c r="H391" s="60"/>
-      <c r="I391" s="136" t="s">
+      <c r="I391" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J391" s="137"/>
+      <c r="J391" s="146"/>
       <c r="K391" s="63">
         <f>G391</f>
         <v>2000</v>
@@ -21822,7 +21825,7 @@
       <c r="I392" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J392" s="143"/>
+      <c r="J392" s="142"/>
       <c r="K392" s="41">
         <f>K390-K391</f>
         <v>23431.03448275862</v>
@@ -22003,57 +22006,57 @@
       <c r="Z396" s="28"/>
     </row>
     <row r="397" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A397" s="171" t="s">
+      <c r="A397" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="B397" s="172"/>
-      <c r="C397" s="172"/>
-      <c r="D397" s="172"/>
-      <c r="E397" s="172"/>
-      <c r="F397" s="172"/>
-      <c r="G397" s="172"/>
-      <c r="H397" s="172"/>
-      <c r="I397" s="172"/>
-      <c r="J397" s="172"/>
-      <c r="K397" s="172"/>
-      <c r="L397" s="173"/>
+      <c r="B397" s="174"/>
+      <c r="C397" s="174"/>
+      <c r="D397" s="174"/>
+      <c r="E397" s="174"/>
+      <c r="F397" s="174"/>
+      <c r="G397" s="174"/>
+      <c r="H397" s="174"/>
+      <c r="I397" s="174"/>
+      <c r="J397" s="174"/>
+      <c r="K397" s="174"/>
+      <c r="L397" s="175"/>
       <c r="M397" s="4"/>
       <c r="N397" s="8"/>
-      <c r="O397" s="133" t="s">
+      <c r="O397" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P397" s="134"/>
-      <c r="Q397" s="134"/>
-      <c r="R397" s="135"/>
+      <c r="P397" s="136"/>
+      <c r="Q397" s="136"/>
+      <c r="R397" s="137"/>
       <c r="S397" s="9"/>
-      <c r="T397" s="133" t="s">
+      <c r="T397" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U397" s="134"/>
-      <c r="V397" s="134"/>
-      <c r="W397" s="134"/>
-      <c r="X397" s="134"/>
-      <c r="Y397" s="135"/>
+      <c r="U397" s="136"/>
+      <c r="V397" s="136"/>
+      <c r="W397" s="136"/>
+      <c r="X397" s="136"/>
+      <c r="Y397" s="137"/>
       <c r="Z397" s="7"/>
     </row>
     <row r="398" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="47"/>
       <c r="B398" s="45"/>
-      <c r="C398" s="147" t="s">
+      <c r="C398" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D398" s="147"/>
-      <c r="E398" s="147"/>
-      <c r="F398" s="147"/>
+      <c r="D398" s="140"/>
+      <c r="E398" s="140"/>
+      <c r="F398" s="140"/>
       <c r="G398" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H398" s="146">
+      <c r="H398" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I398" s="146"/>
+      <c r="I398" s="143"/>
       <c r="J398" s="45"/>
       <c r="K398" s="49"/>
       <c r="L398" s="50"/>
@@ -22198,16 +22201,16 @@
       <c r="C401" s="58"/>
       <c r="D401" s="45"/>
       <c r="E401" s="45"/>
-      <c r="F401" s="148" t="s">
+      <c r="F401" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="G401" s="148"/>
+      <c r="G401" s="150"/>
       <c r="H401" s="45"/>
-      <c r="I401" s="148" t="s">
+      <c r="I401" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="J401" s="148"/>
-      <c r="K401" s="148"/>
+      <c r="J401" s="150"/>
+      <c r="K401" s="150"/>
       <c r="L401" s="59"/>
       <c r="N401" s="15"/>
       <c r="O401" s="16" t="s">
@@ -22283,10 +22286,10 @@
     </row>
     <row r="403" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="47"/>
-      <c r="B403" s="144" t="s">
+      <c r="B403" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C403" s="145"/>
+      <c r="C403" s="139"/>
       <c r="D403" s="45"/>
       <c r="E403" s="45"/>
       <c r="F403" s="62" t="s">
@@ -22413,10 +22416,10 @@
         <v>0</v>
       </c>
       <c r="H405" s="60"/>
-      <c r="I405" s="136" t="s">
+      <c r="I405" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J405" s="137"/>
+      <c r="J405" s="146"/>
       <c r="K405" s="69">
         <f>K403+K404</f>
         <v>25646.551724137931</v>
@@ -22471,10 +22474,10 @@
         <v>0</v>
       </c>
       <c r="H406" s="60"/>
-      <c r="I406" s="136" t="s">
+      <c r="I406" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J406" s="137"/>
+      <c r="J406" s="146"/>
       <c r="K406" s="63">
         <f>G406</f>
         <v>0</v>
@@ -22532,7 +22535,7 @@
       <c r="I407" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J407" s="143"/>
+      <c r="J407" s="142"/>
       <c r="K407" s="41">
         <f>K405-K406</f>
         <v>25646.551724137931</v>
@@ -22613,18 +22616,18 @@
     </row>
     <row r="409" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="47"/>
-      <c r="B409" s="152" t="s">
+      <c r="B409" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="C409" s="152"/>
-      <c r="D409" s="152"/>
-      <c r="E409" s="152"/>
-      <c r="F409" s="152"/>
-      <c r="G409" s="152"/>
-      <c r="H409" s="152"/>
-      <c r="I409" s="152"/>
-      <c r="J409" s="152"/>
-      <c r="K409" s="152"/>
+      <c r="C409" s="157"/>
+      <c r="D409" s="157"/>
+      <c r="E409" s="157"/>
+      <c r="F409" s="157"/>
+      <c r="G409" s="157"/>
+      <c r="H409" s="157"/>
+      <c r="I409" s="157"/>
+      <c r="J409" s="157"/>
+      <c r="K409" s="157"/>
       <c r="L409" s="59"/>
       <c r="N409" s="15"/>
       <c r="O409" s="16" t="s">
@@ -22658,16 +22661,16 @@
     </row>
     <row r="410" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="47"/>
-      <c r="B410" s="152"/>
-      <c r="C410" s="152"/>
-      <c r="D410" s="152"/>
-      <c r="E410" s="152"/>
-      <c r="F410" s="152"/>
-      <c r="G410" s="152"/>
-      <c r="H410" s="152"/>
-      <c r="I410" s="152"/>
-      <c r="J410" s="152"/>
-      <c r="K410" s="152"/>
+      <c r="B410" s="157"/>
+      <c r="C410" s="157"/>
+      <c r="D410" s="157"/>
+      <c r="E410" s="157"/>
+      <c r="F410" s="157"/>
+      <c r="G410" s="157"/>
+      <c r="H410" s="157"/>
+      <c r="I410" s="157"/>
+      <c r="J410" s="157"/>
+      <c r="K410" s="157"/>
       <c r="L410" s="59"/>
       <c r="N410" s="15"/>
       <c r="O410" s="16" t="s">
@@ -22728,58 +22731,58 @@
     </row>
     <row r="412" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="413" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="138" t="s">
+      <c r="A413" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B413" s="139"/>
-      <c r="C413" s="139"/>
-      <c r="D413" s="139"/>
-      <c r="E413" s="139"/>
-      <c r="F413" s="139"/>
-      <c r="G413" s="139"/>
-      <c r="H413" s="139"/>
-      <c r="I413" s="139"/>
-      <c r="J413" s="139"/>
-      <c r="K413" s="139"/>
-      <c r="L413" s="140"/>
+      <c r="B413" s="148"/>
+      <c r="C413" s="148"/>
+      <c r="D413" s="148"/>
+      <c r="E413" s="148"/>
+      <c r="F413" s="148"/>
+      <c r="G413" s="148"/>
+      <c r="H413" s="148"/>
+      <c r="I413" s="148"/>
+      <c r="J413" s="148"/>
+      <c r="K413" s="148"/>
+      <c r="L413" s="149"/>
       <c r="M413" s="4"/>
       <c r="N413" s="8"/>
-      <c r="O413" s="133" t="s">
+      <c r="O413" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P413" s="134"/>
-      <c r="Q413" s="134"/>
-      <c r="R413" s="135"/>
+      <c r="P413" s="136"/>
+      <c r="Q413" s="136"/>
+      <c r="R413" s="137"/>
       <c r="S413" s="9"/>
-      <c r="T413" s="133" t="s">
+      <c r="T413" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U413" s="134"/>
-      <c r="V413" s="134"/>
-      <c r="W413" s="134"/>
-      <c r="X413" s="134"/>
-      <c r="Y413" s="135"/>
+      <c r="U413" s="136"/>
+      <c r="V413" s="136"/>
+      <c r="W413" s="136"/>
+      <c r="X413" s="136"/>
+      <c r="Y413" s="137"/>
       <c r="Z413" s="10"/>
       <c r="AA413" s="4"/>
     </row>
     <row r="414" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="47"/>
       <c r="B414" s="45"/>
-      <c r="C414" s="147" t="s">
+      <c r="C414" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D414" s="147"/>
-      <c r="E414" s="147"/>
-      <c r="F414" s="147"/>
+      <c r="D414" s="140"/>
+      <c r="E414" s="140"/>
+      <c r="F414" s="140"/>
       <c r="G414" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H414" s="146">
+      <c r="H414" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I414" s="146"/>
+      <c r="I414" s="143"/>
       <c r="J414" s="45"/>
       <c r="K414" s="49"/>
       <c r="L414" s="50"/>
@@ -22942,13 +22945,13 @@
       <c r="F417" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G417" s="143"/>
+      <c r="G417" s="142"/>
       <c r="H417" s="45"/>
       <c r="I417" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J417" s="142"/>
-      <c r="K417" s="143"/>
+      <c r="J417" s="144"/>
+      <c r="K417" s="142"/>
       <c r="L417" s="59"/>
       <c r="N417" s="15"/>
       <c r="O417" s="16" t="s">
@@ -23022,10 +23025,10 @@
     </row>
     <row r="419" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="47"/>
-      <c r="B419" s="144" t="s">
+      <c r="B419" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C419" s="145"/>
+      <c r="C419" s="139"/>
       <c r="D419" s="45"/>
       <c r="E419" s="45"/>
       <c r="F419" s="62" t="s">
@@ -23152,10 +23155,10 @@
         <v>22000</v>
       </c>
       <c r="H421" s="60"/>
-      <c r="I421" s="136" t="s">
+      <c r="I421" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J421" s="137"/>
+      <c r="J421" s="146"/>
       <c r="K421" s="69">
         <f>K419+K420</f>
         <v>30491.379310344826</v>
@@ -23210,10 +23213,10 @@
         <v>2000</v>
       </c>
       <c r="H422" s="60"/>
-      <c r="I422" s="136" t="s">
+      <c r="I422" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J422" s="137"/>
+      <c r="J422" s="146"/>
       <c r="K422" s="63">
         <f>G422</f>
         <v>2000</v>
@@ -23271,7 +23274,7 @@
       <c r="I423" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J423" s="143"/>
+      <c r="J423" s="142"/>
       <c r="K423" s="41">
         <f>K421-K422</f>
         <v>28491.379310344826</v>
@@ -23464,57 +23467,57 @@
       <c r="Z427" s="28"/>
     </row>
     <row r="428" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="138" t="s">
+      <c r="A428" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B428" s="139"/>
-      <c r="C428" s="139"/>
-      <c r="D428" s="139"/>
-      <c r="E428" s="139"/>
-      <c r="F428" s="139"/>
-      <c r="G428" s="139"/>
-      <c r="H428" s="139"/>
-      <c r="I428" s="139"/>
-      <c r="J428" s="139"/>
-      <c r="K428" s="139"/>
-      <c r="L428" s="140"/>
+      <c r="B428" s="148"/>
+      <c r="C428" s="148"/>
+      <c r="D428" s="148"/>
+      <c r="E428" s="148"/>
+      <c r="F428" s="148"/>
+      <c r="G428" s="148"/>
+      <c r="H428" s="148"/>
+      <c r="I428" s="148"/>
+      <c r="J428" s="148"/>
+      <c r="K428" s="148"/>
+      <c r="L428" s="149"/>
       <c r="M428" s="4"/>
       <c r="N428" s="8"/>
-      <c r="O428" s="133" t="s">
+      <c r="O428" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P428" s="134"/>
-      <c r="Q428" s="134"/>
-      <c r="R428" s="135"/>
+      <c r="P428" s="136"/>
+      <c r="Q428" s="136"/>
+      <c r="R428" s="137"/>
       <c r="S428" s="9"/>
-      <c r="T428" s="133" t="s">
+      <c r="T428" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U428" s="134"/>
-      <c r="V428" s="134"/>
-      <c r="W428" s="134"/>
-      <c r="X428" s="134"/>
-      <c r="Y428" s="135"/>
+      <c r="U428" s="136"/>
+      <c r="V428" s="136"/>
+      <c r="W428" s="136"/>
+      <c r="X428" s="136"/>
+      <c r="Y428" s="137"/>
       <c r="Z428" s="10"/>
     </row>
     <row r="429" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="47"/>
       <c r="B429" s="45"/>
-      <c r="C429" s="147" t="s">
+      <c r="C429" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D429" s="147"/>
-      <c r="E429" s="147"/>
-      <c r="F429" s="147"/>
+      <c r="D429" s="140"/>
+      <c r="E429" s="140"/>
+      <c r="F429" s="140"/>
       <c r="G429" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H429" s="146">
+      <c r="H429" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I429" s="146"/>
+      <c r="I429" s="143"/>
       <c r="J429" s="45"/>
       <c r="K429" s="49"/>
       <c r="L429" s="50"/>
@@ -23673,13 +23676,13 @@
       <c r="F432" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G432" s="143"/>
+      <c r="G432" s="142"/>
       <c r="H432" s="45"/>
       <c r="I432" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J432" s="142"/>
-      <c r="K432" s="143"/>
+      <c r="J432" s="144"/>
+      <c r="K432" s="142"/>
       <c r="L432" s="59"/>
       <c r="N432" s="15"/>
       <c r="O432" s="16" t="s">
@@ -23753,10 +23756,10 @@
     </row>
     <row r="434" spans="1:29" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="47"/>
-      <c r="B434" s="144" t="s">
+      <c r="B434" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C434" s="145"/>
+      <c r="C434" s="139"/>
       <c r="D434" s="45"/>
       <c r="E434" s="45"/>
       <c r="F434" s="62" t="s">
@@ -23877,10 +23880,10 @@
         <v>44500</v>
       </c>
       <c r="H436" s="60"/>
-      <c r="I436" s="136" t="s">
+      <c r="I436" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J436" s="137"/>
+      <c r="J436" s="146"/>
       <c r="K436" s="69">
         <f>K434+K435</f>
         <v>23793.103448275866</v>
@@ -23932,10 +23935,10 @@
         <v>10000</v>
       </c>
       <c r="H437" s="60"/>
-      <c r="I437" s="136" t="s">
+      <c r="I437" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J437" s="137"/>
+      <c r="J437" s="146"/>
       <c r="K437" s="63">
         <f>G437</f>
         <v>10000</v>
@@ -23991,7 +23994,7 @@
       <c r="I438" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J438" s="143"/>
+      <c r="J438" s="142"/>
       <c r="K438" s="41">
         <f>K436-K437</f>
         <v>13793.103448275866</v>
@@ -24172,58 +24175,58 @@
       <c r="Z442" s="28"/>
     </row>
     <row r="443" spans="1:29" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="138" t="s">
+      <c r="A443" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B443" s="139"/>
-      <c r="C443" s="139"/>
-      <c r="D443" s="139"/>
-      <c r="E443" s="139"/>
-      <c r="F443" s="139"/>
-      <c r="G443" s="139"/>
-      <c r="H443" s="139"/>
-      <c r="I443" s="139"/>
-      <c r="J443" s="139"/>
-      <c r="K443" s="139"/>
-      <c r="L443" s="140"/>
+      <c r="B443" s="148"/>
+      <c r="C443" s="148"/>
+      <c r="D443" s="148"/>
+      <c r="E443" s="148"/>
+      <c r="F443" s="148"/>
+      <c r="G443" s="148"/>
+      <c r="H443" s="148"/>
+      <c r="I443" s="148"/>
+      <c r="J443" s="148"/>
+      <c r="K443" s="148"/>
+      <c r="L443" s="149"/>
       <c r="M443" s="4"/>
       <c r="N443" s="8"/>
-      <c r="O443" s="133" t="s">
+      <c r="O443" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P443" s="134"/>
-      <c r="Q443" s="134"/>
-      <c r="R443" s="135"/>
+      <c r="P443" s="136"/>
+      <c r="Q443" s="136"/>
+      <c r="R443" s="137"/>
       <c r="S443" s="9"/>
-      <c r="T443" s="133" t="s">
+      <c r="T443" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U443" s="134"/>
-      <c r="V443" s="134"/>
-      <c r="W443" s="134"/>
-      <c r="X443" s="134"/>
-      <c r="Y443" s="135"/>
+      <c r="U443" s="136"/>
+      <c r="V443" s="136"/>
+      <c r="W443" s="136"/>
+      <c r="X443" s="136"/>
+      <c r="Y443" s="137"/>
       <c r="Z443" s="10"/>
       <c r="AA443" s="4"/>
     </row>
     <row r="444" spans="1:29" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="47"/>
       <c r="B444" s="45"/>
-      <c r="C444" s="147" t="s">
+      <c r="C444" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D444" s="147"/>
-      <c r="E444" s="147"/>
-      <c r="F444" s="147"/>
+      <c r="D444" s="140"/>
+      <c r="E444" s="140"/>
+      <c r="F444" s="140"/>
       <c r="G444" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H444" s="146">
+      <c r="H444" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I444" s="146"/>
+      <c r="I444" s="143"/>
       <c r="J444" s="45"/>
       <c r="K444" s="49"/>
       <c r="L444" s="50"/>
@@ -24375,13 +24378,13 @@
       <c r="F447" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G447" s="143"/>
+      <c r="G447" s="142"/>
       <c r="H447" s="45"/>
       <c r="I447" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J447" s="142"/>
-      <c r="K447" s="143"/>
+      <c r="J447" s="144"/>
+      <c r="K447" s="142"/>
       <c r="L447" s="59"/>
       <c r="N447" s="15"/>
       <c r="O447" s="16" t="s">
@@ -24456,10 +24459,10 @@
     </row>
     <row r="449" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="47"/>
-      <c r="B449" s="144" t="s">
+      <c r="B449" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C449" s="145"/>
+      <c r="C449" s="139"/>
       <c r="D449" s="45"/>
       <c r="E449" s="45"/>
       <c r="F449" s="62" t="s">
@@ -24584,10 +24587,10 @@
         <v>0</v>
       </c>
       <c r="H451" s="60"/>
-      <c r="I451" s="136" t="s">
+      <c r="I451" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J451" s="137"/>
+      <c r="J451" s="146"/>
       <c r="K451" s="69">
         <f>K449+K450</f>
         <v>36894.396551724138</v>
@@ -24641,10 +24644,10 @@
         <v>0</v>
       </c>
       <c r="H452" s="60"/>
-      <c r="I452" s="136" t="s">
+      <c r="I452" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J452" s="137"/>
+      <c r="J452" s="146"/>
       <c r="K452" s="63">
         <f>G452</f>
         <v>0</v>
@@ -24701,7 +24704,7 @@
       <c r="I453" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J453" s="143"/>
+      <c r="J453" s="142"/>
       <c r="K453" s="41">
         <f>K451-K452</f>
         <v>36894.396551724138</v>
@@ -24891,57 +24894,57 @@
       <c r="Z457" s="28"/>
     </row>
     <row r="458" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="138" t="s">
+      <c r="A458" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B458" s="139"/>
-      <c r="C458" s="139"/>
-      <c r="D458" s="139"/>
-      <c r="E458" s="139"/>
-      <c r="F458" s="139"/>
-      <c r="G458" s="139"/>
-      <c r="H458" s="139"/>
-      <c r="I458" s="139"/>
-      <c r="J458" s="139"/>
-      <c r="K458" s="139"/>
-      <c r="L458" s="140"/>
+      <c r="B458" s="148"/>
+      <c r="C458" s="148"/>
+      <c r="D458" s="148"/>
+      <c r="E458" s="148"/>
+      <c r="F458" s="148"/>
+      <c r="G458" s="148"/>
+      <c r="H458" s="148"/>
+      <c r="I458" s="148"/>
+      <c r="J458" s="148"/>
+      <c r="K458" s="148"/>
+      <c r="L458" s="149"/>
       <c r="M458" s="4"/>
       <c r="N458" s="8"/>
-      <c r="O458" s="133" t="s">
+      <c r="O458" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P458" s="134"/>
-      <c r="Q458" s="134"/>
-      <c r="R458" s="135"/>
+      <c r="P458" s="136"/>
+      <c r="Q458" s="136"/>
+      <c r="R458" s="137"/>
       <c r="S458" s="9"/>
-      <c r="T458" s="133" t="s">
+      <c r="T458" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U458" s="134"/>
-      <c r="V458" s="134"/>
-      <c r="W458" s="134"/>
-      <c r="X458" s="134"/>
-      <c r="Y458" s="135"/>
+      <c r="U458" s="136"/>
+      <c r="V458" s="136"/>
+      <c r="W458" s="136"/>
+      <c r="X458" s="136"/>
+      <c r="Y458" s="137"/>
       <c r="Z458" s="10"/>
     </row>
     <row r="459" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="47"/>
       <c r="B459" s="45"/>
-      <c r="C459" s="147" t="s">
+      <c r="C459" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D459" s="147"/>
-      <c r="E459" s="147"/>
-      <c r="F459" s="147"/>
+      <c r="D459" s="140"/>
+      <c r="E459" s="140"/>
+      <c r="F459" s="140"/>
       <c r="G459" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H459" s="146">
+      <c r="H459" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I459" s="146"/>
+      <c r="I459" s="143"/>
       <c r="J459" s="45"/>
       <c r="K459" s="49"/>
       <c r="L459" s="50"/>
@@ -25088,13 +25091,13 @@
       <c r="F462" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G462" s="143"/>
+      <c r="G462" s="142"/>
       <c r="H462" s="45"/>
       <c r="I462" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J462" s="142"/>
-      <c r="K462" s="143"/>
+      <c r="J462" s="144"/>
+      <c r="K462" s="142"/>
       <c r="L462" s="59"/>
       <c r="N462" s="15"/>
       <c r="O462" s="16" t="s">
@@ -25169,10 +25172,10 @@
     </row>
     <row r="464" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="47"/>
-      <c r="B464" s="144" t="s">
+      <c r="B464" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C464" s="145"/>
+      <c r="C464" s="139"/>
       <c r="D464" s="45"/>
       <c r="E464" s="45"/>
       <c r="F464" s="62" t="s">
@@ -25297,10 +25300,10 @@
         <v>0</v>
       </c>
       <c r="H466" s="60"/>
-      <c r="I466" s="136" t="s">
+      <c r="I466" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J466" s="137"/>
+      <c r="J466" s="146"/>
       <c r="K466" s="69">
         <f>K464+K465</f>
         <v>33810.344827586203</v>
@@ -25354,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="H467" s="60"/>
-      <c r="I467" s="136" t="s">
+      <c r="I467" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J467" s="137"/>
+      <c r="J467" s="146"/>
       <c r="K467" s="63">
         <f>G467</f>
         <v>0</v>
@@ -25414,7 +25417,7 @@
       <c r="I468" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J468" s="143"/>
+      <c r="J468" s="142"/>
       <c r="K468" s="41">
         <f>K466-K467</f>
         <v>33810.344827586203</v>
@@ -25602,58 +25605,58 @@
       <c r="Z472" s="28"/>
     </row>
     <row r="473" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="138" t="s">
+      <c r="A473" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B473" s="139"/>
-      <c r="C473" s="139"/>
-      <c r="D473" s="139"/>
-      <c r="E473" s="139"/>
-      <c r="F473" s="139"/>
-      <c r="G473" s="139"/>
-      <c r="H473" s="139"/>
-      <c r="I473" s="139"/>
-      <c r="J473" s="139"/>
-      <c r="K473" s="139"/>
-      <c r="L473" s="140"/>
+      <c r="B473" s="148"/>
+      <c r="C473" s="148"/>
+      <c r="D473" s="148"/>
+      <c r="E473" s="148"/>
+      <c r="F473" s="148"/>
+      <c r="G473" s="148"/>
+      <c r="H473" s="148"/>
+      <c r="I473" s="148"/>
+      <c r="J473" s="148"/>
+      <c r="K473" s="148"/>
+      <c r="L473" s="149"/>
       <c r="M473" s="4"/>
       <c r="N473" s="8"/>
-      <c r="O473" s="133" t="s">
+      <c r="O473" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P473" s="134"/>
-      <c r="Q473" s="134"/>
-      <c r="R473" s="135"/>
+      <c r="P473" s="136"/>
+      <c r="Q473" s="136"/>
+      <c r="R473" s="137"/>
       <c r="S473" s="9"/>
-      <c r="T473" s="133" t="s">
+      <c r="T473" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U473" s="134"/>
-      <c r="V473" s="134"/>
-      <c r="W473" s="134"/>
-      <c r="X473" s="134"/>
-      <c r="Y473" s="135"/>
+      <c r="U473" s="136"/>
+      <c r="V473" s="136"/>
+      <c r="W473" s="136"/>
+      <c r="X473" s="136"/>
+      <c r="Y473" s="137"/>
       <c r="Z473" s="10"/>
       <c r="AA473" s="4"/>
     </row>
     <row r="474" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="47"/>
       <c r="B474" s="45"/>
-      <c r="C474" s="147" t="s">
+      <c r="C474" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D474" s="147"/>
-      <c r="E474" s="147"/>
-      <c r="F474" s="147"/>
+      <c r="D474" s="140"/>
+      <c r="E474" s="140"/>
+      <c r="F474" s="140"/>
       <c r="G474" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H474" s="146">
+      <c r="H474" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I474" s="146"/>
+      <c r="I474" s="143"/>
       <c r="J474" s="45"/>
       <c r="K474" s="49"/>
       <c r="L474" s="50"/>
@@ -25800,13 +25803,13 @@
       <c r="F477" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G477" s="143"/>
+      <c r="G477" s="142"/>
       <c r="H477" s="45"/>
       <c r="I477" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J477" s="142"/>
-      <c r="K477" s="143"/>
+      <c r="J477" s="144"/>
+      <c r="K477" s="142"/>
       <c r="L477" s="59"/>
       <c r="N477" s="15"/>
       <c r="O477" s="16" t="s">
@@ -25876,10 +25879,10 @@
     </row>
     <row r="479" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="47"/>
-      <c r="B479" s="144" t="s">
+      <c r="B479" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C479" s="145"/>
+      <c r="C479" s="139"/>
       <c r="D479" s="45"/>
       <c r="E479" s="45"/>
       <c r="F479" s="62" t="s">
@@ -26000,10 +26003,10 @@
         <v/>
       </c>
       <c r="H481" s="60"/>
-      <c r="I481" s="136" t="s">
+      <c r="I481" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J481" s="137"/>
+      <c r="J481" s="146"/>
       <c r="K481" s="69">
         <f>K479+K480</f>
         <v>33517.241379310348</v>
@@ -26055,10 +26058,10 @@
         <v>0</v>
       </c>
       <c r="H482" s="60"/>
-      <c r="I482" s="136" t="s">
+      <c r="I482" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J482" s="137"/>
+      <c r="J482" s="146"/>
       <c r="K482" s="63">
         <f>G482</f>
         <v>0</v>
@@ -26115,7 +26118,7 @@
       <c r="I483" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J483" s="143"/>
+      <c r="J483" s="142"/>
       <c r="K483" s="41">
         <f>K481-K482</f>
         <v>33517.241379310348</v>
@@ -26299,57 +26302,57 @@
       <c r="Z487" s="28"/>
     </row>
     <row r="488" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="138" t="s">
+      <c r="A488" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B488" s="139"/>
-      <c r="C488" s="139"/>
-      <c r="D488" s="139"/>
-      <c r="E488" s="139"/>
-      <c r="F488" s="139"/>
-      <c r="G488" s="139"/>
-      <c r="H488" s="139"/>
-      <c r="I488" s="139"/>
-      <c r="J488" s="139"/>
-      <c r="K488" s="139"/>
-      <c r="L488" s="140"/>
+      <c r="B488" s="148"/>
+      <c r="C488" s="148"/>
+      <c r="D488" s="148"/>
+      <c r="E488" s="148"/>
+      <c r="F488" s="148"/>
+      <c r="G488" s="148"/>
+      <c r="H488" s="148"/>
+      <c r="I488" s="148"/>
+      <c r="J488" s="148"/>
+      <c r="K488" s="148"/>
+      <c r="L488" s="149"/>
       <c r="M488" s="4"/>
       <c r="N488" s="8"/>
-      <c r="O488" s="133" t="s">
+      <c r="O488" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P488" s="134"/>
-      <c r="Q488" s="134"/>
-      <c r="R488" s="135"/>
+      <c r="P488" s="136"/>
+      <c r="Q488" s="136"/>
+      <c r="R488" s="137"/>
       <c r="S488" s="9"/>
-      <c r="T488" s="133" t="s">
+      <c r="T488" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U488" s="134"/>
-      <c r="V488" s="134"/>
-      <c r="W488" s="134"/>
-      <c r="X488" s="134"/>
-      <c r="Y488" s="135"/>
+      <c r="U488" s="136"/>
+      <c r="V488" s="136"/>
+      <c r="W488" s="136"/>
+      <c r="X488" s="136"/>
+      <c r="Y488" s="137"/>
       <c r="Z488" s="10"/>
     </row>
     <row r="489" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="47"/>
       <c r="B489" s="45"/>
-      <c r="C489" s="147" t="s">
+      <c r="C489" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D489" s="147"/>
-      <c r="E489" s="147"/>
-      <c r="F489" s="147"/>
+      <c r="D489" s="140"/>
+      <c r="E489" s="140"/>
+      <c r="F489" s="140"/>
       <c r="G489" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H489" s="146">
+      <c r="H489" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I489" s="146"/>
+      <c r="I489" s="143"/>
       <c r="J489" s="45"/>
       <c r="K489" s="49"/>
       <c r="L489" s="50"/>
@@ -26498,13 +26501,13 @@
       <c r="F492" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G492" s="143"/>
+      <c r="G492" s="142"/>
       <c r="H492" s="45"/>
       <c r="I492" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J492" s="142"/>
-      <c r="K492" s="143"/>
+      <c r="J492" s="144"/>
+      <c r="K492" s="142"/>
       <c r="L492" s="59"/>
       <c r="N492" s="15"/>
       <c r="O492" s="16" t="s">
@@ -26579,10 +26582,10 @@
     </row>
     <row r="494" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="47"/>
-      <c r="B494" s="144" t="s">
+      <c r="B494" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C494" s="145"/>
+      <c r="C494" s="139"/>
       <c r="D494" s="45"/>
       <c r="E494" s="45"/>
       <c r="F494" s="62" t="s">
@@ -26707,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="H496" s="60"/>
-      <c r="I496" s="136" t="s">
+      <c r="I496" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J496" s="137"/>
+      <c r="J496" s="146"/>
       <c r="K496" s="69">
         <f>K494+K495</f>
         <v>36116.379310344826</v>
@@ -26764,10 +26767,10 @@
         <v>0</v>
       </c>
       <c r="H497" s="60"/>
-      <c r="I497" s="136" t="s">
+      <c r="I497" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J497" s="137"/>
+      <c r="J497" s="146"/>
       <c r="K497" s="63">
         <f>G497</f>
         <v>0</v>
@@ -26824,7 +26827,7 @@
       <c r="I498" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J498" s="143"/>
+      <c r="J498" s="142"/>
       <c r="K498" s="41">
         <f>K496-K497</f>
         <v>36116.379310344826</v>
@@ -27007,58 +27010,58 @@
       <c r="Z502" s="28"/>
     </row>
     <row r="503" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="138" t="s">
+      <c r="A503" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B503" s="139"/>
-      <c r="C503" s="139"/>
-      <c r="D503" s="139"/>
-      <c r="E503" s="139"/>
-      <c r="F503" s="139"/>
-      <c r="G503" s="139"/>
-      <c r="H503" s="139"/>
-      <c r="I503" s="139"/>
-      <c r="J503" s="139"/>
-      <c r="K503" s="139"/>
-      <c r="L503" s="140"/>
+      <c r="B503" s="148"/>
+      <c r="C503" s="148"/>
+      <c r="D503" s="148"/>
+      <c r="E503" s="148"/>
+      <c r="F503" s="148"/>
+      <c r="G503" s="148"/>
+      <c r="H503" s="148"/>
+      <c r="I503" s="148"/>
+      <c r="J503" s="148"/>
+      <c r="K503" s="148"/>
+      <c r="L503" s="149"/>
       <c r="M503" s="4"/>
       <c r="N503" s="8"/>
-      <c r="O503" s="133" t="s">
+      <c r="O503" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P503" s="134"/>
-      <c r="Q503" s="134"/>
-      <c r="R503" s="135"/>
+      <c r="P503" s="136"/>
+      <c r="Q503" s="136"/>
+      <c r="R503" s="137"/>
       <c r="S503" s="9"/>
-      <c r="T503" s="133" t="s">
+      <c r="T503" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U503" s="134"/>
-      <c r="V503" s="134"/>
-      <c r="W503" s="134"/>
-      <c r="X503" s="134"/>
-      <c r="Y503" s="135"/>
+      <c r="U503" s="136"/>
+      <c r="V503" s="136"/>
+      <c r="W503" s="136"/>
+      <c r="X503" s="136"/>
+      <c r="Y503" s="137"/>
       <c r="Z503" s="10"/>
       <c r="AA503" s="4"/>
     </row>
     <row r="504" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="47"/>
       <c r="B504" s="45"/>
-      <c r="C504" s="147" t="s">
+      <c r="C504" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D504" s="147"/>
-      <c r="E504" s="147"/>
-      <c r="F504" s="147"/>
+      <c r="D504" s="140"/>
+      <c r="E504" s="140"/>
+      <c r="F504" s="140"/>
       <c r="G504" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H504" s="146">
+      <c r="H504" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I504" s="146"/>
+      <c r="I504" s="143"/>
       <c r="J504" s="45"/>
       <c r="K504" s="49"/>
       <c r="L504" s="50"/>
@@ -27213,13 +27216,13 @@
       <c r="F507" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G507" s="143"/>
+      <c r="G507" s="142"/>
       <c r="H507" s="45"/>
       <c r="I507" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J507" s="142"/>
-      <c r="K507" s="143"/>
+      <c r="J507" s="144"/>
+      <c r="K507" s="142"/>
       <c r="L507" s="59"/>
       <c r="N507" s="15"/>
       <c r="O507" s="16" t="s">
@@ -27288,10 +27291,10 @@
     </row>
     <row r="509" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="47"/>
-      <c r="B509" s="144" t="s">
+      <c r="B509" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C509" s="145"/>
+      <c r="C509" s="139"/>
       <c r="D509" s="45"/>
       <c r="E509" s="45"/>
       <c r="F509" s="62" t="s">
@@ -27410,10 +27413,10 @@
         <v>55000</v>
       </c>
       <c r="H511" s="60"/>
-      <c r="I511" s="136" t="s">
+      <c r="I511" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J511" s="137"/>
+      <c r="J511" s="146"/>
       <c r="K511" s="69">
         <f>K509+K510</f>
         <v>36853.448275862072</v>
@@ -27464,10 +27467,10 @@
         <v>5000</v>
       </c>
       <c r="H512" s="60"/>
-      <c r="I512" s="136" t="s">
+      <c r="I512" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J512" s="137"/>
+      <c r="J512" s="146"/>
       <c r="K512" s="63">
         <f>G512</f>
         <v>5000</v>
@@ -27521,7 +27524,7 @@
       <c r="I513" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J513" s="143"/>
+      <c r="J513" s="142"/>
       <c r="K513" s="41">
         <f>K511-K512</f>
         <v>31853.448275862072</v>
@@ -27698,58 +27701,58 @@
       <c r="Z517" s="28"/>
     </row>
     <row r="518" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="138" t="s">
+      <c r="A518" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B518" s="139"/>
-      <c r="C518" s="139"/>
-      <c r="D518" s="139"/>
-      <c r="E518" s="139"/>
-      <c r="F518" s="139"/>
-      <c r="G518" s="139"/>
-      <c r="H518" s="139"/>
-      <c r="I518" s="139"/>
-      <c r="J518" s="139"/>
-      <c r="K518" s="139"/>
-      <c r="L518" s="140"/>
+      <c r="B518" s="148"/>
+      <c r="C518" s="148"/>
+      <c r="D518" s="148"/>
+      <c r="E518" s="148"/>
+      <c r="F518" s="148"/>
+      <c r="G518" s="148"/>
+      <c r="H518" s="148"/>
+      <c r="I518" s="148"/>
+      <c r="J518" s="148"/>
+      <c r="K518" s="148"/>
+      <c r="L518" s="149"/>
       <c r="M518" s="4"/>
       <c r="N518" s="8"/>
-      <c r="O518" s="133" t="s">
+      <c r="O518" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P518" s="134"/>
-      <c r="Q518" s="134"/>
-      <c r="R518" s="135"/>
+      <c r="P518" s="136"/>
+      <c r="Q518" s="136"/>
+      <c r="R518" s="137"/>
       <c r="S518" s="9"/>
-      <c r="T518" s="133" t="s">
+      <c r="T518" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U518" s="134"/>
-      <c r="V518" s="134"/>
-      <c r="W518" s="134"/>
-      <c r="X518" s="134"/>
-      <c r="Y518" s="135"/>
+      <c r="U518" s="136"/>
+      <c r="V518" s="136"/>
+      <c r="W518" s="136"/>
+      <c r="X518" s="136"/>
+      <c r="Y518" s="137"/>
       <c r="Z518" s="10"/>
       <c r="AA518" s="4"/>
     </row>
     <row r="519" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="47"/>
       <c r="B519" s="45"/>
-      <c r="C519" s="147" t="s">
+      <c r="C519" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D519" s="147"/>
-      <c r="E519" s="147"/>
-      <c r="F519" s="147"/>
+      <c r="D519" s="140"/>
+      <c r="E519" s="140"/>
+      <c r="F519" s="140"/>
       <c r="G519" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H519" s="146">
+      <c r="H519" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I519" s="146"/>
+      <c r="I519" s="143"/>
       <c r="J519" s="45"/>
       <c r="K519" s="49"/>
       <c r="L519" s="50"/>
@@ -27900,13 +27903,13 @@
       <c r="F522" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G522" s="143"/>
+      <c r="G522" s="142"/>
       <c r="H522" s="45"/>
       <c r="I522" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J522" s="142"/>
-      <c r="K522" s="143"/>
+      <c r="J522" s="144"/>
+      <c r="K522" s="142"/>
       <c r="L522" s="59"/>
       <c r="N522" s="15"/>
       <c r="O522" s="16" t="s">
@@ -27981,10 +27984,10 @@
     </row>
     <row r="524" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="47"/>
-      <c r="B524" s="144" t="s">
+      <c r="B524" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C524" s="145"/>
+      <c r="C524" s="139"/>
       <c r="D524" s="45"/>
       <c r="E524" s="45"/>
       <c r="F524" s="62" t="s">
@@ -28107,10 +28110,10 @@
         <v>0</v>
       </c>
       <c r="H526" s="60"/>
-      <c r="I526" s="136" t="s">
+      <c r="I526" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J526" s="137"/>
+      <c r="J526" s="146"/>
       <c r="K526" s="69">
         <f>K524+K525</f>
         <v>37500</v>
@@ -28164,10 +28167,10 @@
         <v>0</v>
       </c>
       <c r="H527" s="60"/>
-      <c r="I527" s="136" t="s">
+      <c r="I527" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J527" s="137"/>
+      <c r="J527" s="146"/>
       <c r="K527" s="63">
         <f>G527</f>
         <v>0</v>
@@ -28224,7 +28227,7 @@
       <c r="I528" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J528" s="143"/>
+      <c r="J528" s="142"/>
       <c r="K528" s="41">
         <f>K526-K527</f>
         <v>37500</v>
@@ -28413,57 +28416,57 @@
       <c r="Z532" s="28"/>
     </row>
     <row r="533" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="138" t="s">
+      <c r="A533" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B533" s="139"/>
-      <c r="C533" s="139"/>
-      <c r="D533" s="139"/>
-      <c r="E533" s="139"/>
-      <c r="F533" s="139"/>
-      <c r="G533" s="139"/>
-      <c r="H533" s="139"/>
-      <c r="I533" s="139"/>
-      <c r="J533" s="139"/>
-      <c r="K533" s="139"/>
-      <c r="L533" s="140"/>
+      <c r="B533" s="148"/>
+      <c r="C533" s="148"/>
+      <c r="D533" s="148"/>
+      <c r="E533" s="148"/>
+      <c r="F533" s="148"/>
+      <c r="G533" s="148"/>
+      <c r="H533" s="148"/>
+      <c r="I533" s="148"/>
+      <c r="J533" s="148"/>
+      <c r="K533" s="148"/>
+      <c r="L533" s="149"/>
       <c r="M533" s="4"/>
       <c r="N533" s="8"/>
-      <c r="O533" s="133" t="s">
+      <c r="O533" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P533" s="134"/>
-      <c r="Q533" s="134"/>
-      <c r="R533" s="135"/>
+      <c r="P533" s="136"/>
+      <c r="Q533" s="136"/>
+      <c r="R533" s="137"/>
       <c r="S533" s="9"/>
-      <c r="T533" s="133" t="s">
+      <c r="T533" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U533" s="134"/>
-      <c r="V533" s="134"/>
-      <c r="W533" s="134"/>
-      <c r="X533" s="134"/>
-      <c r="Y533" s="135"/>
+      <c r="U533" s="136"/>
+      <c r="V533" s="136"/>
+      <c r="W533" s="136"/>
+      <c r="X533" s="136"/>
+      <c r="Y533" s="137"/>
       <c r="Z533" s="10"/>
     </row>
     <row r="534" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="47"/>
       <c r="B534" s="45"/>
-      <c r="C534" s="147" t="s">
+      <c r="C534" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D534" s="147"/>
-      <c r="E534" s="147"/>
-      <c r="F534" s="147"/>
+      <c r="D534" s="140"/>
+      <c r="E534" s="140"/>
+      <c r="F534" s="140"/>
       <c r="G534" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H534" s="146">
+      <c r="H534" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I534" s="146"/>
+      <c r="I534" s="143"/>
       <c r="J534" s="45"/>
       <c r="K534" s="49"/>
       <c r="L534" s="50"/>
@@ -28608,13 +28611,13 @@
       <c r="F537" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G537" s="143"/>
+      <c r="G537" s="142"/>
       <c r="H537" s="45"/>
       <c r="I537" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J537" s="142"/>
-      <c r="K537" s="143"/>
+      <c r="J537" s="144"/>
+      <c r="K537" s="142"/>
       <c r="L537" s="59"/>
       <c r="N537" s="15"/>
       <c r="O537" s="16" t="s">
@@ -28689,10 +28692,10 @@
     </row>
     <row r="539" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="47"/>
-      <c r="B539" s="144" t="s">
+      <c r="B539" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C539" s="145"/>
+      <c r="C539" s="139"/>
       <c r="D539" s="45"/>
       <c r="E539" s="45"/>
       <c r="F539" s="62" t="s">
@@ -28817,10 +28820,10 @@
         <v>0</v>
       </c>
       <c r="H541" s="60"/>
-      <c r="I541" s="136" t="s">
+      <c r="I541" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J541" s="137"/>
+      <c r="J541" s="146"/>
       <c r="K541" s="69">
         <f>K539+K540</f>
         <v>34713.362068965514</v>
@@ -28874,10 +28877,10 @@
         <v>0</v>
       </c>
       <c r="H542" s="60"/>
-      <c r="I542" s="136" t="s">
+      <c r="I542" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J542" s="137"/>
+      <c r="J542" s="146"/>
       <c r="K542" s="63">
         <f>G542</f>
         <v>0</v>
@@ -28934,7 +28937,7 @@
       <c r="I543" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J543" s="143"/>
+      <c r="J543" s="142"/>
       <c r="K543" s="41">
         <f>K541-K542</f>
         <v>34713.362068965514</v>
@@ -29123,58 +29126,58 @@
       <c r="Z547" s="28"/>
     </row>
     <row r="548" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="138" t="s">
+      <c r="A548" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B548" s="139"/>
-      <c r="C548" s="139"/>
-      <c r="D548" s="139"/>
-      <c r="E548" s="139"/>
-      <c r="F548" s="139"/>
-      <c r="G548" s="139"/>
-      <c r="H548" s="139"/>
-      <c r="I548" s="139"/>
-      <c r="J548" s="139"/>
-      <c r="K548" s="139"/>
-      <c r="L548" s="140"/>
+      <c r="B548" s="148"/>
+      <c r="C548" s="148"/>
+      <c r="D548" s="148"/>
+      <c r="E548" s="148"/>
+      <c r="F548" s="148"/>
+      <c r="G548" s="148"/>
+      <c r="H548" s="148"/>
+      <c r="I548" s="148"/>
+      <c r="J548" s="148"/>
+      <c r="K548" s="148"/>
+      <c r="L548" s="149"/>
       <c r="M548" s="4"/>
       <c r="N548" s="8"/>
-      <c r="O548" s="133" t="s">
+      <c r="O548" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P548" s="134"/>
-      <c r="Q548" s="134"/>
-      <c r="R548" s="135"/>
+      <c r="P548" s="136"/>
+      <c r="Q548" s="136"/>
+      <c r="R548" s="137"/>
       <c r="S548" s="9"/>
-      <c r="T548" s="133" t="s">
+      <c r="T548" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U548" s="134"/>
-      <c r="V548" s="134"/>
-      <c r="W548" s="134"/>
-      <c r="X548" s="134"/>
-      <c r="Y548" s="135"/>
+      <c r="U548" s="136"/>
+      <c r="V548" s="136"/>
+      <c r="W548" s="136"/>
+      <c r="X548" s="136"/>
+      <c r="Y548" s="137"/>
       <c r="Z548" s="10"/>
       <c r="AA548" s="4"/>
     </row>
     <row r="549" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="47"/>
       <c r="B549" s="45"/>
-      <c r="C549" s="147" t="s">
+      <c r="C549" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D549" s="147"/>
-      <c r="E549" s="147"/>
-      <c r="F549" s="147"/>
+      <c r="D549" s="140"/>
+      <c r="E549" s="140"/>
+      <c r="F549" s="140"/>
       <c r="G549" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H549" s="146">
+      <c r="H549" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I549" s="146"/>
+      <c r="I549" s="143"/>
       <c r="J549" s="45"/>
       <c r="K549" s="49"/>
       <c r="L549" s="50"/>
@@ -29329,13 +29332,13 @@
       <c r="F552" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G552" s="143"/>
+      <c r="G552" s="142"/>
       <c r="H552" s="45"/>
       <c r="I552" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J552" s="142"/>
-      <c r="K552" s="143"/>
+      <c r="J552" s="144"/>
+      <c r="K552" s="142"/>
       <c r="L552" s="59"/>
       <c r="N552" s="15"/>
       <c r="O552" s="16" t="s">
@@ -29408,10 +29411,10 @@
     </row>
     <row r="554" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="47"/>
-      <c r="B554" s="144" t="s">
+      <c r="B554" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C554" s="145"/>
+      <c r="C554" s="139"/>
       <c r="D554" s="45"/>
       <c r="E554" s="45"/>
       <c r="F554" s="62" t="s">
@@ -29536,10 +29539,10 @@
         <v>27000</v>
       </c>
       <c r="H556" s="60"/>
-      <c r="I556" s="136" t="s">
+      <c r="I556" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J556" s="137"/>
+      <c r="J556" s="146"/>
       <c r="K556" s="69">
         <f>K554+K555</f>
         <v>29849.137931034482</v>
@@ -29593,10 +29596,10 @@
         <v>2000</v>
       </c>
       <c r="H557" s="60"/>
-      <c r="I557" s="136" t="s">
+      <c r="I557" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J557" s="137"/>
+      <c r="J557" s="146"/>
       <c r="K557" s="63">
         <f>G557</f>
         <v>2000</v>
@@ -29653,7 +29656,7 @@
       <c r="I558" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J558" s="143"/>
+      <c r="J558" s="142"/>
       <c r="K558" s="41">
         <f>K556-K557</f>
         <v>27849.137931034482</v>
@@ -29842,58 +29845,58 @@
       <c r="Z562" s="28"/>
     </row>
     <row r="563" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A563" s="138" t="s">
+      <c r="A563" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B563" s="139"/>
-      <c r="C563" s="139"/>
-      <c r="D563" s="139"/>
-      <c r="E563" s="139"/>
-      <c r="F563" s="139"/>
-      <c r="G563" s="139"/>
-      <c r="H563" s="139"/>
-      <c r="I563" s="139"/>
-      <c r="J563" s="139"/>
-      <c r="K563" s="139"/>
-      <c r="L563" s="140"/>
+      <c r="B563" s="148"/>
+      <c r="C563" s="148"/>
+      <c r="D563" s="148"/>
+      <c r="E563" s="148"/>
+      <c r="F563" s="148"/>
+      <c r="G563" s="148"/>
+      <c r="H563" s="148"/>
+      <c r="I563" s="148"/>
+      <c r="J563" s="148"/>
+      <c r="K563" s="148"/>
+      <c r="L563" s="149"/>
       <c r="M563" s="4"/>
       <c r="N563" s="8"/>
-      <c r="O563" s="133" t="s">
+      <c r="O563" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P563" s="134"/>
-      <c r="Q563" s="134"/>
-      <c r="R563" s="135"/>
+      <c r="P563" s="136"/>
+      <c r="Q563" s="136"/>
+      <c r="R563" s="137"/>
       <c r="S563" s="9"/>
-      <c r="T563" s="133" t="s">
+      <c r="T563" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U563" s="134"/>
-      <c r="V563" s="134"/>
-      <c r="W563" s="134"/>
-      <c r="X563" s="134"/>
-      <c r="Y563" s="135"/>
+      <c r="U563" s="136"/>
+      <c r="V563" s="136"/>
+      <c r="W563" s="136"/>
+      <c r="X563" s="136"/>
+      <c r="Y563" s="137"/>
       <c r="Z563" s="10"/>
       <c r="AA563" s="4"/>
     </row>
     <row r="564" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="47"/>
       <c r="B564" s="45"/>
-      <c r="C564" s="147" t="s">
+      <c r="C564" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D564" s="147"/>
-      <c r="E564" s="147"/>
-      <c r="F564" s="147"/>
+      <c r="D564" s="140"/>
+      <c r="E564" s="140"/>
+      <c r="F564" s="140"/>
       <c r="G564" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H564" s="146">
+      <c r="H564" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I564" s="146"/>
+      <c r="I564" s="143"/>
       <c r="J564" s="45"/>
       <c r="K564" s="49"/>
       <c r="L564" s="50"/>
@@ -30041,13 +30044,13 @@
       <c r="F567" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G567" s="143"/>
+      <c r="G567" s="142"/>
       <c r="H567" s="45"/>
       <c r="I567" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J567" s="142"/>
-      <c r="K567" s="143"/>
+      <c r="J567" s="144"/>
+      <c r="K567" s="142"/>
       <c r="L567" s="59"/>
       <c r="N567" s="15"/>
       <c r="O567" s="16" t="s">
@@ -30115,10 +30118,10 @@
     </row>
     <row r="569" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="47"/>
-      <c r="B569" s="144" t="s">
+      <c r="B569" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C569" s="145"/>
+      <c r="C569" s="139"/>
       <c r="D569" s="45"/>
       <c r="E569" s="45"/>
       <c r="F569" s="62" t="s">
@@ -30239,10 +30242,10 @@
         <v/>
       </c>
       <c r="H571" s="60"/>
-      <c r="I571" s="136" t="s">
+      <c r="I571" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J571" s="137"/>
+      <c r="J571" s="146"/>
       <c r="K571" s="69">
         <f>K569+K570</f>
         <v>39084.051724137928</v>
@@ -30294,10 +30297,10 @@
         <v>0</v>
       </c>
       <c r="H572" s="60"/>
-      <c r="I572" s="136" t="s">
+      <c r="I572" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J572" s="137"/>
+      <c r="J572" s="146"/>
       <c r="K572" s="63">
         <f>G572</f>
         <v>0</v>
@@ -30354,7 +30357,7 @@
       <c r="I573" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J573" s="143"/>
+      <c r="J573" s="142"/>
       <c r="K573" s="41">
         <f>K571-K572</f>
         <v>39084.051724137928</v>
@@ -30543,58 +30546,58 @@
       <c r="Z577" s="28"/>
     </row>
     <row r="578" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="138" t="s">
+      <c r="A578" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B578" s="139"/>
-      <c r="C578" s="139"/>
-      <c r="D578" s="139"/>
-      <c r="E578" s="139"/>
-      <c r="F578" s="139"/>
-      <c r="G578" s="139"/>
-      <c r="H578" s="139"/>
-      <c r="I578" s="139"/>
-      <c r="J578" s="139"/>
-      <c r="K578" s="139"/>
-      <c r="L578" s="140"/>
+      <c r="B578" s="148"/>
+      <c r="C578" s="148"/>
+      <c r="D578" s="148"/>
+      <c r="E578" s="148"/>
+      <c r="F578" s="148"/>
+      <c r="G578" s="148"/>
+      <c r="H578" s="148"/>
+      <c r="I578" s="148"/>
+      <c r="J578" s="148"/>
+      <c r="K578" s="148"/>
+      <c r="L578" s="149"/>
       <c r="M578" s="4"/>
       <c r="N578" s="8"/>
-      <c r="O578" s="133" t="s">
+      <c r="O578" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P578" s="134"/>
-      <c r="Q578" s="134"/>
-      <c r="R578" s="135"/>
+      <c r="P578" s="136"/>
+      <c r="Q578" s="136"/>
+      <c r="R578" s="137"/>
       <c r="S578" s="9"/>
-      <c r="T578" s="133" t="s">
+      <c r="T578" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U578" s="134"/>
-      <c r="V578" s="134"/>
-      <c r="W578" s="134"/>
-      <c r="X578" s="134"/>
-      <c r="Y578" s="135"/>
+      <c r="U578" s="136"/>
+      <c r="V578" s="136"/>
+      <c r="W578" s="136"/>
+      <c r="X578" s="136"/>
+      <c r="Y578" s="137"/>
       <c r="Z578" s="10"/>
       <c r="AA578" s="4"/>
     </row>
     <row r="579" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="47"/>
       <c r="B579" s="45"/>
-      <c r="C579" s="147" t="s">
+      <c r="C579" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D579" s="147"/>
-      <c r="E579" s="147"/>
-      <c r="F579" s="147"/>
+      <c r="D579" s="140"/>
+      <c r="E579" s="140"/>
+      <c r="F579" s="140"/>
       <c r="G579" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H579" s="146">
+      <c r="H579" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I579" s="146"/>
+      <c r="I579" s="143"/>
       <c r="J579" s="45"/>
       <c r="K579" s="49"/>
       <c r="L579" s="50"/>
@@ -30751,13 +30754,13 @@
       <c r="F582" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G582" s="143"/>
+      <c r="G582" s="142"/>
       <c r="H582" s="45"/>
       <c r="I582" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J582" s="142"/>
-      <c r="K582" s="143"/>
+      <c r="J582" s="144"/>
+      <c r="K582" s="142"/>
       <c r="L582" s="59"/>
       <c r="N582" s="15"/>
       <c r="O582" s="16" t="s">
@@ -30828,10 +30831,10 @@
     </row>
     <row r="584" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="47"/>
-      <c r="B584" s="144" t="s">
+      <c r="B584" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C584" s="145"/>
+      <c r="C584" s="139"/>
       <c r="D584" s="45"/>
       <c r="E584" s="45"/>
       <c r="F584" s="62" t="s">
@@ -30952,10 +30955,10 @@
         <v>0</v>
       </c>
       <c r="H586" s="60"/>
-      <c r="I586" s="136" t="s">
+      <c r="I586" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J586" s="137"/>
+      <c r="J586" s="146"/>
       <c r="K586" s="69">
         <f>K584+K585</f>
         <v>51745.689655172413</v>
@@ -31007,10 +31010,10 @@
         <v>0</v>
       </c>
       <c r="H587" s="60"/>
-      <c r="I587" s="136" t="s">
+      <c r="I587" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J587" s="137"/>
+      <c r="J587" s="146"/>
       <c r="K587" s="63">
         <f>G587</f>
         <v>0</v>
@@ -31065,7 +31068,7 @@
       <c r="I588" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J588" s="143"/>
+      <c r="J588" s="142"/>
       <c r="K588" s="41">
         <f>K586-K587</f>
         <v>51745.689655172413</v>
@@ -31246,58 +31249,58 @@
       <c r="Z592" s="28"/>
     </row>
     <row r="593" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="153" t="s">
+      <c r="A593" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="B593" s="154"/>
-      <c r="C593" s="154"/>
-      <c r="D593" s="154"/>
-      <c r="E593" s="154"/>
-      <c r="F593" s="154"/>
-      <c r="G593" s="154"/>
-      <c r="H593" s="154"/>
-      <c r="I593" s="154"/>
-      <c r="J593" s="154"/>
-      <c r="K593" s="154"/>
-      <c r="L593" s="155"/>
+      <c r="B593" s="159"/>
+      <c r="C593" s="159"/>
+      <c r="D593" s="159"/>
+      <c r="E593" s="159"/>
+      <c r="F593" s="159"/>
+      <c r="G593" s="159"/>
+      <c r="H593" s="159"/>
+      <c r="I593" s="159"/>
+      <c r="J593" s="159"/>
+      <c r="K593" s="159"/>
+      <c r="L593" s="160"/>
       <c r="M593" s="4"/>
       <c r="N593" s="8"/>
-      <c r="O593" s="133" t="s">
+      <c r="O593" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P593" s="134"/>
-      <c r="Q593" s="134"/>
-      <c r="R593" s="135"/>
+      <c r="P593" s="136"/>
+      <c r="Q593" s="136"/>
+      <c r="R593" s="137"/>
       <c r="S593" s="9"/>
-      <c r="T593" s="133" t="s">
+      <c r="T593" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U593" s="134"/>
-      <c r="V593" s="134"/>
-      <c r="W593" s="134"/>
-      <c r="X593" s="134"/>
-      <c r="Y593" s="135"/>
+      <c r="U593" s="136"/>
+      <c r="V593" s="136"/>
+      <c r="W593" s="136"/>
+      <c r="X593" s="136"/>
+      <c r="Y593" s="137"/>
       <c r="Z593" s="10"/>
       <c r="AA593" s="4"/>
     </row>
     <row r="594" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="47"/>
       <c r="B594" s="45"/>
-      <c r="C594" s="147" t="s">
+      <c r="C594" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D594" s="147"/>
-      <c r="E594" s="147"/>
-      <c r="F594" s="147"/>
+      <c r="D594" s="140"/>
+      <c r="E594" s="140"/>
+      <c r="F594" s="140"/>
       <c r="G594" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H594" s="146">
+      <c r="H594" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I594" s="146"/>
+      <c r="I594" s="143"/>
       <c r="J594" s="45"/>
       <c r="K594" s="49"/>
       <c r="L594" s="50"/>
@@ -31448,16 +31451,16 @@
       <c r="C597" s="84"/>
       <c r="D597" s="45"/>
       <c r="E597" s="45"/>
-      <c r="F597" s="148" t="s">
+      <c r="F597" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="G597" s="148"/>
+      <c r="G597" s="150"/>
       <c r="H597" s="45"/>
-      <c r="I597" s="148" t="s">
+      <c r="I597" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="J597" s="148"/>
-      <c r="K597" s="148"/>
+      <c r="J597" s="150"/>
+      <c r="K597" s="150"/>
       <c r="L597" s="59"/>
       <c r="N597" s="15"/>
       <c r="O597" s="16" t="s">
@@ -31532,10 +31535,10 @@
     </row>
     <row r="599" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="47"/>
-      <c r="B599" s="144" t="s">
+      <c r="B599" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C599" s="145"/>
+      <c r="C599" s="139"/>
       <c r="D599" s="45"/>
       <c r="E599" s="45"/>
       <c r="F599" s="62" t="s">
@@ -31660,10 +31663,10 @@
         <v>4000</v>
       </c>
       <c r="H601" s="60"/>
-      <c r="I601" s="136" t="s">
+      <c r="I601" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J601" s="137"/>
+      <c r="J601" s="146"/>
       <c r="K601" s="69">
         <f>K599+K600</f>
         <v>50862.068965517239</v>
@@ -31717,10 +31720,10 @@
         <v>2000</v>
       </c>
       <c r="H602" s="60"/>
-      <c r="I602" s="136" t="s">
+      <c r="I602" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J602" s="137"/>
+      <c r="J602" s="146"/>
       <c r="K602" s="63">
         <f>G602</f>
         <v>2000</v>
@@ -31777,7 +31780,7 @@
       <c r="I603" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J603" s="143"/>
+      <c r="J603" s="142"/>
       <c r="K603" s="41">
         <f>K601-K602</f>
         <v>48862.068965517239</v>
@@ -31856,18 +31859,18 @@
     </row>
     <row r="605" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="47"/>
-      <c r="B605" s="152" t="s">
+      <c r="B605" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="C605" s="152"/>
-      <c r="D605" s="152"/>
-      <c r="E605" s="152"/>
-      <c r="F605" s="152"/>
-      <c r="G605" s="152"/>
-      <c r="H605" s="152"/>
-      <c r="I605" s="152"/>
-      <c r="J605" s="152"/>
-      <c r="K605" s="152"/>
+      <c r="C605" s="157"/>
+      <c r="D605" s="157"/>
+      <c r="E605" s="157"/>
+      <c r="F605" s="157"/>
+      <c r="G605" s="157"/>
+      <c r="H605" s="157"/>
+      <c r="I605" s="157"/>
+      <c r="J605" s="157"/>
+      <c r="K605" s="157"/>
       <c r="L605" s="59"/>
       <c r="N605" s="15"/>
       <c r="O605" s="16" t="s">
@@ -31900,16 +31903,16 @@
     </row>
     <row r="606" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="47"/>
-      <c r="B606" s="152"/>
-      <c r="C606" s="152"/>
-      <c r="D606" s="152"/>
-      <c r="E606" s="152"/>
-      <c r="F606" s="152"/>
-      <c r="G606" s="152"/>
-      <c r="H606" s="152"/>
-      <c r="I606" s="152"/>
-      <c r="J606" s="152"/>
-      <c r="K606" s="152"/>
+      <c r="B606" s="157"/>
+      <c r="C606" s="157"/>
+      <c r="D606" s="157"/>
+      <c r="E606" s="157"/>
+      <c r="F606" s="157"/>
+      <c r="G606" s="157"/>
+      <c r="H606" s="157"/>
+      <c r="I606" s="157"/>
+      <c r="J606" s="157"/>
+      <c r="K606" s="157"/>
       <c r="L606" s="59"/>
       <c r="N606" s="15"/>
       <c r="O606" s="16" t="s">
@@ -31995,58 +31998,58 @@
       <c r="Z608" s="42"/>
     </row>
     <row r="609" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A609" s="138" t="s">
+      <c r="A609" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B609" s="139"/>
-      <c r="C609" s="139"/>
-      <c r="D609" s="139"/>
-      <c r="E609" s="139"/>
-      <c r="F609" s="139"/>
-      <c r="G609" s="139"/>
-      <c r="H609" s="139"/>
-      <c r="I609" s="139"/>
-      <c r="J609" s="139"/>
-      <c r="K609" s="139"/>
-      <c r="L609" s="140"/>
+      <c r="B609" s="148"/>
+      <c r="C609" s="148"/>
+      <c r="D609" s="148"/>
+      <c r="E609" s="148"/>
+      <c r="F609" s="148"/>
+      <c r="G609" s="148"/>
+      <c r="H609" s="148"/>
+      <c r="I609" s="148"/>
+      <c r="J609" s="148"/>
+      <c r="K609" s="148"/>
+      <c r="L609" s="149"/>
       <c r="M609" s="4"/>
       <c r="N609" s="8"/>
-      <c r="O609" s="133" t="s">
+      <c r="O609" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P609" s="134"/>
-      <c r="Q609" s="134"/>
-      <c r="R609" s="135"/>
+      <c r="P609" s="136"/>
+      <c r="Q609" s="136"/>
+      <c r="R609" s="137"/>
       <c r="S609" s="9"/>
-      <c r="T609" s="133" t="s">
+      <c r="T609" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U609" s="134"/>
-      <c r="V609" s="134"/>
-      <c r="W609" s="134"/>
-      <c r="X609" s="134"/>
-      <c r="Y609" s="135"/>
+      <c r="U609" s="136"/>
+      <c r="V609" s="136"/>
+      <c r="W609" s="136"/>
+      <c r="X609" s="136"/>
+      <c r="Y609" s="137"/>
       <c r="Z609" s="10"/>
       <c r="AA609" s="4"/>
     </row>
     <row r="610" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="47"/>
       <c r="B610" s="45"/>
-      <c r="C610" s="147" t="s">
+      <c r="C610" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D610" s="147"/>
-      <c r="E610" s="147"/>
-      <c r="F610" s="147"/>
+      <c r="D610" s="140"/>
+      <c r="E610" s="140"/>
+      <c r="F610" s="140"/>
       <c r="G610" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H610" s="146">
+      <c r="H610" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I610" s="146"/>
+      <c r="I610" s="143"/>
       <c r="J610" s="45"/>
       <c r="K610" s="49"/>
       <c r="L610" s="50"/>
@@ -32192,13 +32195,13 @@
       <c r="F613" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G613" s="143"/>
+      <c r="G613" s="142"/>
       <c r="H613" s="45"/>
       <c r="I613" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J613" s="142"/>
-      <c r="K613" s="143"/>
+      <c r="J613" s="144"/>
+      <c r="K613" s="142"/>
       <c r="L613" s="59"/>
       <c r="N613" s="15"/>
       <c r="O613" s="16" t="s">
@@ -32272,10 +32275,10 @@
     </row>
     <row r="615" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="47"/>
-      <c r="B615" s="144" t="s">
+      <c r="B615" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C615" s="145"/>
+      <c r="C615" s="139"/>
       <c r="D615" s="45"/>
       <c r="E615" s="45"/>
       <c r="F615" s="62" t="s">
@@ -32402,10 +32405,10 @@
         <v>0</v>
       </c>
       <c r="H617" s="60"/>
-      <c r="I617" s="136" t="s">
+      <c r="I617" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J617" s="137"/>
+      <c r="J617" s="146"/>
       <c r="K617" s="69">
         <f>K615+K616</f>
         <v>34758.620689655174</v>
@@ -32459,10 +32462,10 @@
         <v>0</v>
       </c>
       <c r="H618" s="60"/>
-      <c r="I618" s="136" t="s">
+      <c r="I618" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J618" s="137"/>
+      <c r="J618" s="146"/>
       <c r="K618" s="63">
         <f>G618</f>
         <v>0</v>
@@ -32519,7 +32522,7 @@
       <c r="I619" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J619" s="143"/>
+      <c r="J619" s="142"/>
       <c r="K619" s="41">
         <f>K617-K618</f>
         <v>34758.620689655174</v>
@@ -32708,58 +32711,58 @@
       <c r="Z623" s="28"/>
     </row>
     <row r="624" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A624" s="138" t="s">
+      <c r="A624" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B624" s="139"/>
-      <c r="C624" s="139"/>
-      <c r="D624" s="139"/>
-      <c r="E624" s="139"/>
-      <c r="F624" s="139"/>
-      <c r="G624" s="139"/>
-      <c r="H624" s="139"/>
-      <c r="I624" s="139"/>
-      <c r="J624" s="139"/>
-      <c r="K624" s="139"/>
-      <c r="L624" s="140"/>
+      <c r="B624" s="148"/>
+      <c r="C624" s="148"/>
+      <c r="D624" s="148"/>
+      <c r="E624" s="148"/>
+      <c r="F624" s="148"/>
+      <c r="G624" s="148"/>
+      <c r="H624" s="148"/>
+      <c r="I624" s="148"/>
+      <c r="J624" s="148"/>
+      <c r="K624" s="148"/>
+      <c r="L624" s="149"/>
       <c r="M624" s="4"/>
       <c r="N624" s="8"/>
-      <c r="O624" s="133" t="s">
+      <c r="O624" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P624" s="134"/>
-      <c r="Q624" s="134"/>
-      <c r="R624" s="135"/>
+      <c r="P624" s="136"/>
+      <c r="Q624" s="136"/>
+      <c r="R624" s="137"/>
       <c r="S624" s="9"/>
-      <c r="T624" s="133" t="s">
+      <c r="T624" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U624" s="134"/>
-      <c r="V624" s="134"/>
-      <c r="W624" s="134"/>
-      <c r="X624" s="134"/>
-      <c r="Y624" s="135"/>
+      <c r="U624" s="136"/>
+      <c r="V624" s="136"/>
+      <c r="W624" s="136"/>
+      <c r="X624" s="136"/>
+      <c r="Y624" s="137"/>
       <c r="Z624" s="10"/>
       <c r="AA624" s="4"/>
     </row>
     <row r="625" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="47"/>
       <c r="B625" s="45"/>
-      <c r="C625" s="147" t="s">
+      <c r="C625" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D625" s="147"/>
-      <c r="E625" s="147"/>
-      <c r="F625" s="147"/>
+      <c r="D625" s="140"/>
+      <c r="E625" s="140"/>
+      <c r="F625" s="140"/>
       <c r="G625" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H625" s="146">
+      <c r="H625" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I625" s="146"/>
+      <c r="I625" s="143"/>
       <c r="J625" s="45"/>
       <c r="K625" s="49"/>
       <c r="L625" s="50"/>
@@ -32913,13 +32916,13 @@
       <c r="F628" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G628" s="143"/>
+      <c r="G628" s="142"/>
       <c r="H628" s="45"/>
       <c r="I628" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J628" s="142"/>
-      <c r="K628" s="143"/>
+      <c r="J628" s="144"/>
+      <c r="K628" s="142"/>
       <c r="L628" s="59"/>
       <c r="N628" s="15"/>
       <c r="O628" s="16" t="s">
@@ -32991,10 +32994,10 @@
     </row>
     <row r="630" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="47"/>
-      <c r="B630" s="144" t="s">
+      <c r="B630" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C630" s="145"/>
+      <c r="C630" s="139"/>
       <c r="D630" s="45"/>
       <c r="E630" s="45"/>
       <c r="F630" s="62" t="s">
@@ -33119,10 +33122,10 @@
         <v>500</v>
       </c>
       <c r="H632" s="60"/>
-      <c r="I632" s="136" t="s">
+      <c r="I632" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J632" s="137"/>
+      <c r="J632" s="146"/>
       <c r="K632" s="69">
         <f>K630+K631</f>
         <v>39051.724137931044</v>
@@ -33176,10 +33179,10 @@
         <v>500</v>
       </c>
       <c r="H633" s="60"/>
-      <c r="I633" s="136" t="s">
+      <c r="I633" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J633" s="137"/>
+      <c r="J633" s="146"/>
       <c r="K633" s="63">
         <f>G633</f>
         <v>500</v>
@@ -33236,7 +33239,7 @@
       <c r="I634" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J634" s="143"/>
+      <c r="J634" s="142"/>
       <c r="K634" s="41">
         <f>K632-K633</f>
         <v>38551.724137931044</v>
@@ -33424,57 +33427,57 @@
       <c r="Z638" s="28"/>
     </row>
     <row r="639" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A639" s="153" t="s">
+      <c r="A639" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="B639" s="154"/>
-      <c r="C639" s="154"/>
-      <c r="D639" s="154"/>
-      <c r="E639" s="154"/>
-      <c r="F639" s="154"/>
-      <c r="G639" s="154"/>
-      <c r="H639" s="154"/>
-      <c r="I639" s="154"/>
-      <c r="J639" s="154"/>
-      <c r="K639" s="154"/>
-      <c r="L639" s="155"/>
+      <c r="B639" s="159"/>
+      <c r="C639" s="159"/>
+      <c r="D639" s="159"/>
+      <c r="E639" s="159"/>
+      <c r="F639" s="159"/>
+      <c r="G639" s="159"/>
+      <c r="H639" s="159"/>
+      <c r="I639" s="159"/>
+      <c r="J639" s="159"/>
+      <c r="K639" s="159"/>
+      <c r="L639" s="160"/>
       <c r="M639" s="4"/>
       <c r="N639" s="8"/>
-      <c r="O639" s="133" t="s">
+      <c r="O639" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P639" s="134"/>
-      <c r="Q639" s="134"/>
-      <c r="R639" s="135"/>
+      <c r="P639" s="136"/>
+      <c r="Q639" s="136"/>
+      <c r="R639" s="137"/>
       <c r="S639" s="9"/>
-      <c r="T639" s="133" t="s">
+      <c r="T639" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U639" s="134"/>
-      <c r="V639" s="134"/>
-      <c r="W639" s="134"/>
-      <c r="X639" s="134"/>
-      <c r="Y639" s="135"/>
+      <c r="U639" s="136"/>
+      <c r="V639" s="136"/>
+      <c r="W639" s="136"/>
+      <c r="X639" s="136"/>
+      <c r="Y639" s="137"/>
       <c r="Z639" s="7"/>
     </row>
     <row r="640" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="47"/>
       <c r="B640" s="45"/>
-      <c r="C640" s="147" t="s">
+      <c r="C640" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D640" s="147"/>
-      <c r="E640" s="147"/>
-      <c r="F640" s="147"/>
+      <c r="D640" s="140"/>
+      <c r="E640" s="140"/>
+      <c r="F640" s="140"/>
       <c r="G640" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H640" s="146">
+      <c r="H640" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I640" s="146"/>
+      <c r="I640" s="143"/>
       <c r="J640" s="45"/>
       <c r="K640" s="49"/>
       <c r="L640" s="50"/>
@@ -33622,16 +33625,16 @@
       </c>
       <c r="D643" s="45"/>
       <c r="E643" s="45"/>
-      <c r="F643" s="148" t="s">
+      <c r="F643" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="G643" s="148"/>
+      <c r="G643" s="150"/>
       <c r="H643" s="45"/>
-      <c r="I643" s="148" t="s">
+      <c r="I643" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="J643" s="148"/>
-      <c r="K643" s="148"/>
+      <c r="J643" s="150"/>
+      <c r="K643" s="150"/>
       <c r="L643" s="59"/>
       <c r="N643" s="15"/>
       <c r="O643" s="16" t="s">
@@ -33706,10 +33709,10 @@
     </row>
     <row r="645" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="47"/>
-      <c r="B645" s="144" t="s">
+      <c r="B645" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C645" s="145"/>
+      <c r="C645" s="139"/>
       <c r="D645" s="45"/>
       <c r="E645" s="45"/>
       <c r="F645" s="62" t="s">
@@ -33834,10 +33837,10 @@
         <v>0</v>
       </c>
       <c r="H647" s="60"/>
-      <c r="I647" s="136" t="s">
+      <c r="I647" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J647" s="137"/>
+      <c r="J647" s="146"/>
       <c r="K647" s="69">
         <f>K645+K646</f>
         <v>54698.275862068964</v>
@@ -33891,10 +33894,10 @@
         <v>0</v>
       </c>
       <c r="H648" s="60"/>
-      <c r="I648" s="136" t="s">
+      <c r="I648" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J648" s="137"/>
+      <c r="J648" s="146"/>
       <c r="K648" s="63">
         <f>G648</f>
         <v>0</v>
@@ -33951,7 +33954,7 @@
       <c r="I649" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J649" s="143"/>
+      <c r="J649" s="142"/>
       <c r="K649" s="41">
         <f>K647-K648</f>
         <v>54698.275862068964</v>
@@ -34026,16 +34029,16 @@
     </row>
     <row r="651" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="47"/>
-      <c r="B651" s="152"/>
-      <c r="C651" s="152"/>
-      <c r="D651" s="152"/>
-      <c r="E651" s="152"/>
-      <c r="F651" s="152"/>
-      <c r="G651" s="152"/>
-      <c r="H651" s="152"/>
-      <c r="I651" s="152"/>
-      <c r="J651" s="152"/>
-      <c r="K651" s="152"/>
+      <c r="B651" s="157"/>
+      <c r="C651" s="157"/>
+      <c r="D651" s="157"/>
+      <c r="E651" s="157"/>
+      <c r="F651" s="157"/>
+      <c r="G651" s="157"/>
+      <c r="H651" s="157"/>
+      <c r="I651" s="157"/>
+      <c r="J651" s="157"/>
+      <c r="K651" s="157"/>
       <c r="L651" s="59"/>
       <c r="N651" s="15"/>
       <c r="O651" s="16" t="s">
@@ -34059,16 +34062,16 @@
     </row>
     <row r="652" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="47"/>
-      <c r="B652" s="152"/>
-      <c r="C652" s="152"/>
-      <c r="D652" s="152"/>
-      <c r="E652" s="152"/>
-      <c r="F652" s="152"/>
-      <c r="G652" s="152"/>
-      <c r="H652" s="152"/>
-      <c r="I652" s="152"/>
-      <c r="J652" s="152"/>
-      <c r="K652" s="152"/>
+      <c r="B652" s="157"/>
+      <c r="C652" s="157"/>
+      <c r="D652" s="157"/>
+      <c r="E652" s="157"/>
+      <c r="F652" s="157"/>
+      <c r="G652" s="157"/>
+      <c r="H652" s="157"/>
+      <c r="I652" s="157"/>
+      <c r="J652" s="157"/>
+      <c r="K652" s="157"/>
       <c r="L652" s="59"/>
       <c r="N652" s="15"/>
       <c r="O652" s="16" t="s">
@@ -34145,57 +34148,57 @@
       <c r="Z654" s="7"/>
     </row>
     <row r="655" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A655" s="153" t="s">
+      <c r="A655" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="B655" s="154"/>
-      <c r="C655" s="154"/>
-      <c r="D655" s="154"/>
-      <c r="E655" s="154"/>
-      <c r="F655" s="154"/>
-      <c r="G655" s="154"/>
-      <c r="H655" s="154"/>
-      <c r="I655" s="154"/>
-      <c r="J655" s="154"/>
-      <c r="K655" s="154"/>
-      <c r="L655" s="155"/>
+      <c r="B655" s="159"/>
+      <c r="C655" s="159"/>
+      <c r="D655" s="159"/>
+      <c r="E655" s="159"/>
+      <c r="F655" s="159"/>
+      <c r="G655" s="159"/>
+      <c r="H655" s="159"/>
+      <c r="I655" s="159"/>
+      <c r="J655" s="159"/>
+      <c r="K655" s="159"/>
+      <c r="L655" s="160"/>
       <c r="M655" s="4"/>
       <c r="N655" s="8"/>
-      <c r="O655" s="133" t="s">
+      <c r="O655" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P655" s="134"/>
-      <c r="Q655" s="134"/>
-      <c r="R655" s="135"/>
+      <c r="P655" s="136"/>
+      <c r="Q655" s="136"/>
+      <c r="R655" s="137"/>
       <c r="S655" s="9"/>
-      <c r="T655" s="133" t="s">
+      <c r="T655" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U655" s="134"/>
-      <c r="V655" s="134"/>
-      <c r="W655" s="134"/>
-      <c r="X655" s="134"/>
-      <c r="Y655" s="135"/>
+      <c r="U655" s="136"/>
+      <c r="V655" s="136"/>
+      <c r="W655" s="136"/>
+      <c r="X655" s="136"/>
+      <c r="Y655" s="137"/>
       <c r="Z655" s="10"/>
     </row>
     <row r="656" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="47"/>
       <c r="B656" s="45"/>
-      <c r="C656" s="147" t="s">
+      <c r="C656" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D656" s="147"/>
-      <c r="E656" s="147"/>
-      <c r="F656" s="147"/>
+      <c r="D656" s="140"/>
+      <c r="E656" s="140"/>
+      <c r="F656" s="140"/>
       <c r="G656" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H656" s="146">
+      <c r="H656" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I656" s="146"/>
+      <c r="I656" s="143"/>
       <c r="J656" s="45"/>
       <c r="K656" s="49"/>
       <c r="L656" s="50"/>
@@ -34348,16 +34351,16 @@
       <c r="C659" s="78"/>
       <c r="D659" s="45"/>
       <c r="E659" s="45"/>
-      <c r="F659" s="148" t="s">
+      <c r="F659" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="G659" s="148"/>
+      <c r="G659" s="150"/>
       <c r="H659" s="45"/>
-      <c r="I659" s="148" t="s">
+      <c r="I659" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="J659" s="148"/>
-      <c r="K659" s="148"/>
+      <c r="J659" s="150"/>
+      <c r="K659" s="150"/>
       <c r="L659" s="59"/>
       <c r="N659" s="15"/>
       <c r="O659" s="16" t="s">
@@ -34425,10 +34428,10 @@
     </row>
     <row r="661" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="47"/>
-      <c r="B661" s="144" t="s">
+      <c r="B661" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C661" s="145"/>
+      <c r="C661" s="139"/>
       <c r="D661" s="45"/>
       <c r="E661" s="45"/>
       <c r="F661" s="62" t="s">
@@ -34549,10 +34552,10 @@
         <v>16500</v>
       </c>
       <c r="H663" s="60"/>
-      <c r="I663" s="136" t="s">
+      <c r="I663" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J663" s="137"/>
+      <c r="J663" s="146"/>
       <c r="K663" s="69">
         <f>K661+K662</f>
         <v>60129.31034482758</v>
@@ -34607,10 +34610,10 @@
         <v>10000</v>
       </c>
       <c r="H664" s="60"/>
-      <c r="I664" s="136" t="s">
+      <c r="I664" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J664" s="137"/>
+      <c r="J664" s="146"/>
       <c r="K664" s="63">
         <f>G664</f>
         <v>10000</v>
@@ -34667,7 +34670,7 @@
       <c r="I665" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J665" s="143"/>
+      <c r="J665" s="142"/>
       <c r="K665" s="41">
         <f>K663-K664</f>
         <v>50129.31034482758</v>
@@ -34747,16 +34750,16 @@
     </row>
     <row r="667" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="47"/>
-      <c r="B667" s="152"/>
-      <c r="C667" s="152"/>
-      <c r="D667" s="152"/>
-      <c r="E667" s="152"/>
-      <c r="F667" s="152"/>
-      <c r="G667" s="152"/>
-      <c r="H667" s="152"/>
-      <c r="I667" s="152"/>
-      <c r="J667" s="152"/>
-      <c r="K667" s="152"/>
+      <c r="B667" s="157"/>
+      <c r="C667" s="157"/>
+      <c r="D667" s="157"/>
+      <c r="E667" s="157"/>
+      <c r="F667" s="157"/>
+      <c r="G667" s="157"/>
+      <c r="H667" s="157"/>
+      <c r="I667" s="157"/>
+      <c r="J667" s="157"/>
+      <c r="K667" s="157"/>
       <c r="L667" s="59"/>
       <c r="N667" s="15"/>
       <c r="O667" s="16" t="s">
@@ -34789,16 +34792,16 @@
     </row>
     <row r="668" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="47"/>
-      <c r="B668" s="152"/>
-      <c r="C668" s="152"/>
-      <c r="D668" s="152"/>
-      <c r="E668" s="152"/>
-      <c r="F668" s="152"/>
-      <c r="G668" s="152"/>
-      <c r="H668" s="152"/>
-      <c r="I668" s="152"/>
-      <c r="J668" s="152"/>
-      <c r="K668" s="152"/>
+      <c r="B668" s="157"/>
+      <c r="C668" s="157"/>
+      <c r="D668" s="157"/>
+      <c r="E668" s="157"/>
+      <c r="F668" s="157"/>
+      <c r="G668" s="157"/>
+      <c r="H668" s="157"/>
+      <c r="I668" s="157"/>
+      <c r="J668" s="157"/>
+      <c r="K668" s="157"/>
       <c r="L668" s="59"/>
       <c r="N668" s="15"/>
       <c r="O668" s="16" t="s">
@@ -34885,57 +34888,57 @@
       <c r="Z670" s="42"/>
     </row>
     <row r="671" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A671" s="153" t="s">
+      <c r="A671" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="B671" s="154"/>
-      <c r="C671" s="154"/>
-      <c r="D671" s="154"/>
-      <c r="E671" s="154"/>
-      <c r="F671" s="154"/>
-      <c r="G671" s="154"/>
-      <c r="H671" s="154"/>
-      <c r="I671" s="154"/>
-      <c r="J671" s="154"/>
-      <c r="K671" s="154"/>
-      <c r="L671" s="155"/>
+      <c r="B671" s="159"/>
+      <c r="C671" s="159"/>
+      <c r="D671" s="159"/>
+      <c r="E671" s="159"/>
+      <c r="F671" s="159"/>
+      <c r="G671" s="159"/>
+      <c r="H671" s="159"/>
+      <c r="I671" s="159"/>
+      <c r="J671" s="159"/>
+      <c r="K671" s="159"/>
+      <c r="L671" s="160"/>
       <c r="M671" s="4"/>
       <c r="N671" s="8"/>
-      <c r="O671" s="133" t="s">
+      <c r="O671" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P671" s="134"/>
-      <c r="Q671" s="134"/>
-      <c r="R671" s="135"/>
+      <c r="P671" s="136"/>
+      <c r="Q671" s="136"/>
+      <c r="R671" s="137"/>
       <c r="S671" s="9"/>
-      <c r="T671" s="133" t="s">
+      <c r="T671" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U671" s="134"/>
-      <c r="V671" s="134"/>
-      <c r="W671" s="134"/>
-      <c r="X671" s="134"/>
-      <c r="Y671" s="135"/>
+      <c r="U671" s="136"/>
+      <c r="V671" s="136"/>
+      <c r="W671" s="136"/>
+      <c r="X671" s="136"/>
+      <c r="Y671" s="137"/>
       <c r="Z671" s="10"/>
     </row>
     <row r="672" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="47"/>
       <c r="B672" s="45"/>
-      <c r="C672" s="147" t="s">
+      <c r="C672" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D672" s="147"/>
-      <c r="E672" s="147"/>
-      <c r="F672" s="147"/>
+      <c r="D672" s="140"/>
+      <c r="E672" s="140"/>
+      <c r="F672" s="140"/>
       <c r="G672" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H672" s="146">
+      <c r="H672" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I672" s="146"/>
+      <c r="I672" s="143"/>
       <c r="J672" s="45"/>
       <c r="K672" s="49"/>
       <c r="L672" s="50"/>
@@ -35061,16 +35064,16 @@
       <c r="C675" s="44"/>
       <c r="D675" s="45"/>
       <c r="E675" s="45"/>
-      <c r="F675" s="148" t="s">
+      <c r="F675" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="G675" s="148"/>
+      <c r="G675" s="150"/>
       <c r="H675" s="45"/>
-      <c r="I675" s="148" t="s">
+      <c r="I675" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="J675" s="148"/>
-      <c r="K675" s="148"/>
+      <c r="J675" s="150"/>
+      <c r="K675" s="150"/>
       <c r="L675" s="59"/>
       <c r="N675" s="15"/>
       <c r="O675" s="16" t="s">
@@ -35125,10 +35128,10 @@
     </row>
     <row r="677" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="47"/>
-      <c r="B677" s="144" t="s">
+      <c r="B677" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C677" s="145"/>
+      <c r="C677" s="139"/>
       <c r="D677" s="45"/>
       <c r="E677" s="45"/>
       <c r="F677" s="62" t="s">
@@ -35235,10 +35238,10 @@
         <v>0</v>
       </c>
       <c r="H679" s="60"/>
-      <c r="I679" s="136" t="s">
+      <c r="I679" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J679" s="137"/>
+      <c r="J679" s="146"/>
       <c r="K679" s="69">
         <f>K677+K678</f>
         <v>28163.793103448275</v>
@@ -35283,10 +35286,10 @@
         <v>0</v>
       </c>
       <c r="H680" s="60"/>
-      <c r="I680" s="136" t="s">
+      <c r="I680" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J680" s="137"/>
+      <c r="J680" s="146"/>
       <c r="K680" s="63">
         <f>G680</f>
         <v>0</v>
@@ -35334,7 +35337,7 @@
       <c r="I681" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J681" s="143"/>
+      <c r="J681" s="142"/>
       <c r="K681" s="41">
         <f>K679-K680</f>
         <v>28163.793103448275</v>
@@ -35395,18 +35398,18 @@
     </row>
     <row r="683" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="47"/>
-      <c r="B683" s="152" t="s">
+      <c r="B683" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="C683" s="152"/>
-      <c r="D683" s="152"/>
-      <c r="E683" s="152"/>
-      <c r="F683" s="152"/>
-      <c r="G683" s="152"/>
-      <c r="H683" s="152"/>
-      <c r="I683" s="152"/>
-      <c r="J683" s="152"/>
-      <c r="K683" s="152"/>
+      <c r="C683" s="157"/>
+      <c r="D683" s="157"/>
+      <c r="E683" s="157"/>
+      <c r="F683" s="157"/>
+      <c r="G683" s="157"/>
+      <c r="H683" s="157"/>
+      <c r="I683" s="157"/>
+      <c r="J683" s="157"/>
+      <c r="K683" s="157"/>
       <c r="L683" s="59"/>
       <c r="N683" s="15"/>
       <c r="O683" s="16" t="s">
@@ -35439,16 +35442,16 @@
     </row>
     <row r="684" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="47"/>
-      <c r="B684" s="152"/>
-      <c r="C684" s="152"/>
-      <c r="D684" s="152"/>
-      <c r="E684" s="152"/>
-      <c r="F684" s="152"/>
-      <c r="G684" s="152"/>
-      <c r="H684" s="152"/>
-      <c r="I684" s="152"/>
-      <c r="J684" s="152"/>
-      <c r="K684" s="152"/>
+      <c r="B684" s="157"/>
+      <c r="C684" s="157"/>
+      <c r="D684" s="157"/>
+      <c r="E684" s="157"/>
+      <c r="F684" s="157"/>
+      <c r="G684" s="157"/>
+      <c r="H684" s="157"/>
+      <c r="I684" s="157"/>
+      <c r="J684" s="157"/>
+      <c r="K684" s="157"/>
       <c r="L684" s="59"/>
       <c r="N684" s="15"/>
       <c r="O684" s="16" t="s">
@@ -35534,58 +35537,58 @@
       <c r="Z686" s="42"/>
     </row>
     <row r="687" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A687" s="138" t="s">
+      <c r="A687" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B687" s="139"/>
-      <c r="C687" s="139"/>
-      <c r="D687" s="139"/>
-      <c r="E687" s="139"/>
-      <c r="F687" s="139"/>
-      <c r="G687" s="139"/>
-      <c r="H687" s="139"/>
-      <c r="I687" s="139"/>
-      <c r="J687" s="139"/>
-      <c r="K687" s="139"/>
-      <c r="L687" s="140"/>
+      <c r="B687" s="148"/>
+      <c r="C687" s="148"/>
+      <c r="D687" s="148"/>
+      <c r="E687" s="148"/>
+      <c r="F687" s="148"/>
+      <c r="G687" s="148"/>
+      <c r="H687" s="148"/>
+      <c r="I687" s="148"/>
+      <c r="J687" s="148"/>
+      <c r="K687" s="148"/>
+      <c r="L687" s="149"/>
       <c r="M687" s="4"/>
       <c r="N687" s="8"/>
-      <c r="O687" s="133" t="s">
+      <c r="O687" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P687" s="134"/>
-      <c r="Q687" s="134"/>
-      <c r="R687" s="135"/>
+      <c r="P687" s="136"/>
+      <c r="Q687" s="136"/>
+      <c r="R687" s="137"/>
       <c r="S687" s="9"/>
-      <c r="T687" s="133" t="s">
+      <c r="T687" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U687" s="134"/>
-      <c r="V687" s="134"/>
-      <c r="W687" s="134"/>
-      <c r="X687" s="134"/>
-      <c r="Y687" s="135"/>
+      <c r="U687" s="136"/>
+      <c r="V687" s="136"/>
+      <c r="W687" s="136"/>
+      <c r="X687" s="136"/>
+      <c r="Y687" s="137"/>
       <c r="Z687" s="10"/>
       <c r="AA687" s="4"/>
     </row>
     <row r="688" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="47"/>
       <c r="B688" s="45"/>
-      <c r="C688" s="147" t="s">
+      <c r="C688" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D688" s="147"/>
-      <c r="E688" s="147"/>
-      <c r="F688" s="147"/>
+      <c r="D688" s="140"/>
+      <c r="E688" s="140"/>
+      <c r="F688" s="140"/>
       <c r="G688" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H688" s="146">
+      <c r="H688" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I688" s="146"/>
+      <c r="I688" s="143"/>
       <c r="J688" s="45"/>
       <c r="K688" s="49"/>
       <c r="L688" s="50"/>
@@ -35730,21 +35733,21 @@
       <c r="B691" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C691" s="159">
+      <c r="C691" s="154">
         <v>45208</v>
       </c>
-      <c r="D691" s="159"/>
-      <c r="E691" s="160"/>
+      <c r="D691" s="154"/>
+      <c r="E691" s="155"/>
       <c r="F691" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G691" s="143"/>
+      <c r="G691" s="142"/>
       <c r="H691" s="45"/>
       <c r="I691" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J691" s="142"/>
-      <c r="K691" s="143"/>
+      <c r="J691" s="144"/>
+      <c r="K691" s="142"/>
       <c r="L691" s="59"/>
       <c r="N691" s="15"/>
       <c r="O691" s="16" t="s">
@@ -35821,10 +35824,10 @@
     </row>
     <row r="693" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="47"/>
-      <c r="B693" s="144" t="s">
+      <c r="B693" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C693" s="145"/>
+      <c r="C693" s="139"/>
       <c r="D693" s="45"/>
       <c r="E693" s="45"/>
       <c r="F693" s="62" t="s">
@@ -35949,10 +35952,10 @@
         <v>0</v>
       </c>
       <c r="H695" s="60"/>
-      <c r="I695" s="136" t="s">
+      <c r="I695" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J695" s="137"/>
+      <c r="J695" s="146"/>
       <c r="K695" s="69">
         <f>K693+K694</f>
         <v>170000</v>
@@ -36006,10 +36009,10 @@
         <v>0</v>
       </c>
       <c r="H696" s="60"/>
-      <c r="I696" s="136" t="s">
+      <c r="I696" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J696" s="137"/>
+      <c r="J696" s="146"/>
       <c r="K696" s="63">
         <f>G696</f>
         <v>0</v>
@@ -36066,7 +36069,7 @@
       <c r="I697" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J697" s="143"/>
+      <c r="J697" s="142"/>
       <c r="K697" s="41">
         <f>K695-K696</f>
         <v>170000</v>
@@ -36249,57 +36252,57 @@
       <c r="Z701" s="7"/>
     </row>
     <row r="702" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A702" s="138" t="s">
+      <c r="A702" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B702" s="139"/>
-      <c r="C702" s="139"/>
-      <c r="D702" s="139"/>
-      <c r="E702" s="139"/>
-      <c r="F702" s="139"/>
-      <c r="G702" s="139"/>
-      <c r="H702" s="139"/>
-      <c r="I702" s="139"/>
-      <c r="J702" s="139"/>
-      <c r="K702" s="139"/>
-      <c r="L702" s="140"/>
+      <c r="B702" s="148"/>
+      <c r="C702" s="148"/>
+      <c r="D702" s="148"/>
+      <c r="E702" s="148"/>
+      <c r="F702" s="148"/>
+      <c r="G702" s="148"/>
+      <c r="H702" s="148"/>
+      <c r="I702" s="148"/>
+      <c r="J702" s="148"/>
+      <c r="K702" s="148"/>
+      <c r="L702" s="149"/>
       <c r="M702" s="4"/>
       <c r="N702" s="8"/>
-      <c r="O702" s="133" t="s">
+      <c r="O702" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P702" s="134"/>
-      <c r="Q702" s="134"/>
-      <c r="R702" s="135"/>
+      <c r="P702" s="136"/>
+      <c r="Q702" s="136"/>
+      <c r="R702" s="137"/>
       <c r="S702" s="9"/>
-      <c r="T702" s="133" t="s">
+      <c r="T702" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U702" s="134"/>
-      <c r="V702" s="134"/>
-      <c r="W702" s="134"/>
-      <c r="X702" s="134"/>
-      <c r="Y702" s="135"/>
+      <c r="U702" s="136"/>
+      <c r="V702" s="136"/>
+      <c r="W702" s="136"/>
+      <c r="X702" s="136"/>
+      <c r="Y702" s="137"/>
       <c r="Z702" s="7"/>
     </row>
     <row r="703" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="47"/>
       <c r="B703" s="45"/>
-      <c r="C703" s="147" t="s">
+      <c r="C703" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D703" s="147"/>
-      <c r="E703" s="147"/>
-      <c r="F703" s="147"/>
+      <c r="D703" s="140"/>
+      <c r="E703" s="140"/>
+      <c r="F703" s="140"/>
       <c r="G703" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H703" s="146">
+      <c r="H703" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I703" s="146"/>
+      <c r="I703" s="143"/>
       <c r="J703" s="45"/>
       <c r="K703" s="49"/>
       <c r="L703" s="50"/>
@@ -36445,13 +36448,13 @@
       <c r="F706" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G706" s="143"/>
+      <c r="G706" s="142"/>
       <c r="H706" s="45"/>
       <c r="I706" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J706" s="142"/>
-      <c r="K706" s="143"/>
+      <c r="J706" s="144"/>
+      <c r="K706" s="142"/>
       <c r="L706" s="59"/>
       <c r="N706" s="15"/>
       <c r="O706" s="16" t="s">
@@ -36527,10 +36530,10 @@
     </row>
     <row r="708" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="47"/>
-      <c r="B708" s="144" t="s">
+      <c r="B708" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C708" s="145"/>
+      <c r="C708" s="139"/>
       <c r="D708" s="45"/>
       <c r="E708" s="45"/>
       <c r="F708" s="62" t="s">
@@ -36655,10 +36658,10 @@
         <v>0</v>
       </c>
       <c r="H710" s="60"/>
-      <c r="I710" s="136" t="s">
+      <c r="I710" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J710" s="137"/>
+      <c r="J710" s="146"/>
       <c r="K710" s="69">
         <f>K708+K709</f>
         <v>57931.034482758623</v>
@@ -36713,10 +36716,10 @@
         <v>0</v>
       </c>
       <c r="H711" s="60"/>
-      <c r="I711" s="136" t="s">
+      <c r="I711" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J711" s="137"/>
+      <c r="J711" s="146"/>
       <c r="K711" s="63">
         <f>G711</f>
         <v>0</v>
@@ -36773,7 +36776,7 @@
       <c r="I712" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J712" s="143"/>
+      <c r="J712" s="142"/>
       <c r="K712" s="41">
         <f>K710-K711</f>
         <v>57931.034482758623</v>
@@ -36855,13 +36858,13 @@
       <c r="C714" s="43"/>
       <c r="D714" s="43"/>
       <c r="E714" s="43"/>
-      <c r="F714" s="161" t="s">
+      <c r="F714" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="G714" s="161"/>
-      <c r="H714" s="161"/>
-      <c r="I714" s="161"/>
-      <c r="J714" s="161"/>
+      <c r="G714" s="156"/>
+      <c r="H714" s="156"/>
+      <c r="I714" s="156"/>
+      <c r="J714" s="156"/>
       <c r="K714" s="43"/>
       <c r="L714" s="59"/>
       <c r="N714" s="15"/>
@@ -36963,58 +36966,58 @@
       <c r="Z716" s="7"/>
     </row>
     <row r="717" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A717" s="156" t="s">
+      <c r="A717" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="B717" s="157"/>
-      <c r="C717" s="157"/>
-      <c r="D717" s="157"/>
-      <c r="E717" s="157"/>
-      <c r="F717" s="157"/>
-      <c r="G717" s="157"/>
-      <c r="H717" s="157"/>
-      <c r="I717" s="157"/>
-      <c r="J717" s="157"/>
-      <c r="K717" s="157"/>
-      <c r="L717" s="158"/>
+      <c r="B717" s="162"/>
+      <c r="C717" s="162"/>
+      <c r="D717" s="162"/>
+      <c r="E717" s="162"/>
+      <c r="F717" s="162"/>
+      <c r="G717" s="162"/>
+      <c r="H717" s="162"/>
+      <c r="I717" s="162"/>
+      <c r="J717" s="162"/>
+      <c r="K717" s="162"/>
+      <c r="L717" s="163"/>
       <c r="M717" s="4"/>
       <c r="N717" s="8"/>
-      <c r="O717" s="133" t="s">
+      <c r="O717" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P717" s="134"/>
-      <c r="Q717" s="134"/>
-      <c r="R717" s="135"/>
+      <c r="P717" s="136"/>
+      <c r="Q717" s="136"/>
+      <c r="R717" s="137"/>
       <c r="S717" s="9"/>
-      <c r="T717" s="133" t="s">
+      <c r="T717" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U717" s="134"/>
-      <c r="V717" s="134"/>
-      <c r="W717" s="134"/>
-      <c r="X717" s="134"/>
-      <c r="Y717" s="135"/>
+      <c r="U717" s="136"/>
+      <c r="V717" s="136"/>
+      <c r="W717" s="136"/>
+      <c r="X717" s="136"/>
+      <c r="Y717" s="137"/>
       <c r="Z717" s="10"/>
       <c r="AA717" s="4"/>
     </row>
     <row r="718" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="47"/>
       <c r="B718" s="45"/>
-      <c r="C718" s="147" t="s">
+      <c r="C718" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D718" s="147"/>
-      <c r="E718" s="147"/>
-      <c r="F718" s="147"/>
+      <c r="D718" s="140"/>
+      <c r="E718" s="140"/>
+      <c r="F718" s="140"/>
       <c r="G718" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H718" s="146">
+      <c r="H718" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I718" s="146"/>
+      <c r="I718" s="143"/>
       <c r="J718" s="45"/>
       <c r="K718" s="49"/>
       <c r="L718" s="50"/>
@@ -37160,16 +37163,16 @@
       <c r="C721" s="58"/>
       <c r="D721" s="45"/>
       <c r="E721" s="45"/>
-      <c r="F721" s="148" t="s">
+      <c r="F721" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="G721" s="148"/>
+      <c r="G721" s="150"/>
       <c r="H721" s="45"/>
-      <c r="I721" s="148" t="s">
+      <c r="I721" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="J721" s="148"/>
-      <c r="K721" s="148"/>
+      <c r="J721" s="150"/>
+      <c r="K721" s="150"/>
       <c r="L721" s="59"/>
       <c r="N721" s="15"/>
       <c r="O721" s="16" t="s">
@@ -37242,10 +37245,10 @@
     </row>
     <row r="723" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="47"/>
-      <c r="B723" s="144" t="s">
+      <c r="B723" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C723" s="145"/>
+      <c r="C723" s="139"/>
       <c r="D723" s="45"/>
       <c r="E723" s="45"/>
       <c r="F723" s="62" t="s">
@@ -37369,10 +37372,10 @@
         <v>75000</v>
       </c>
       <c r="H725" s="60"/>
-      <c r="I725" s="136" t="s">
+      <c r="I725" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J725" s="137"/>
+      <c r="J725" s="146"/>
       <c r="K725" s="69">
         <f>K723+K724</f>
         <v>70000</v>
@@ -37426,10 +37429,10 @@
         <v>0</v>
       </c>
       <c r="H726" s="60"/>
-      <c r="I726" s="136" t="s">
+      <c r="I726" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J726" s="137"/>
+      <c r="J726" s="146"/>
       <c r="K726" s="63">
         <f>G726</f>
         <v>0</v>
@@ -37486,7 +37489,7 @@
       <c r="I727" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J727" s="143"/>
+      <c r="J727" s="142"/>
       <c r="K727" s="41">
         <f>K725-K726</f>
         <v>70000</v>
@@ -37566,18 +37569,18 @@
     </row>
     <row r="729" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="47"/>
-      <c r="B729" s="152" t="s">
+      <c r="B729" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="C729" s="152"/>
-      <c r="D729" s="152"/>
-      <c r="E729" s="152"/>
-      <c r="F729" s="152"/>
-      <c r="G729" s="152"/>
-      <c r="H729" s="152"/>
-      <c r="I729" s="152"/>
-      <c r="J729" s="152"/>
-      <c r="K729" s="152"/>
+      <c r="C729" s="157"/>
+      <c r="D729" s="157"/>
+      <c r="E729" s="157"/>
+      <c r="F729" s="157"/>
+      <c r="G729" s="157"/>
+      <c r="H729" s="157"/>
+      <c r="I729" s="157"/>
+      <c r="J729" s="157"/>
+      <c r="K729" s="157"/>
       <c r="L729" s="59"/>
       <c r="N729" s="15"/>
       <c r="O729" s="16" t="s">
@@ -37610,16 +37613,16 @@
     </row>
     <row r="730" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="47"/>
-      <c r="B730" s="152"/>
-      <c r="C730" s="152"/>
-      <c r="D730" s="152"/>
-      <c r="E730" s="152"/>
-      <c r="F730" s="152"/>
-      <c r="G730" s="152"/>
-      <c r="H730" s="152"/>
-      <c r="I730" s="152"/>
-      <c r="J730" s="152"/>
-      <c r="K730" s="152"/>
+      <c r="B730" s="157"/>
+      <c r="C730" s="157"/>
+      <c r="D730" s="157"/>
+      <c r="E730" s="157"/>
+      <c r="F730" s="157"/>
+      <c r="G730" s="157"/>
+      <c r="H730" s="157"/>
+      <c r="I730" s="157"/>
+      <c r="J730" s="157"/>
+      <c r="K730" s="157"/>
       <c r="L730" s="59"/>
       <c r="N730" s="15"/>
       <c r="O730" s="16" t="s">
@@ -37705,58 +37708,58 @@
       <c r="Z732" s="7"/>
     </row>
     <row r="733" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A733" s="153" t="s">
+      <c r="A733" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="B733" s="154"/>
-      <c r="C733" s="154"/>
-      <c r="D733" s="154"/>
-      <c r="E733" s="154"/>
-      <c r="F733" s="154"/>
-      <c r="G733" s="154"/>
-      <c r="H733" s="154"/>
-      <c r="I733" s="154"/>
-      <c r="J733" s="154"/>
-      <c r="K733" s="154"/>
-      <c r="L733" s="155"/>
+      <c r="B733" s="159"/>
+      <c r="C733" s="159"/>
+      <c r="D733" s="159"/>
+      <c r="E733" s="159"/>
+      <c r="F733" s="159"/>
+      <c r="G733" s="159"/>
+      <c r="H733" s="159"/>
+      <c r="I733" s="159"/>
+      <c r="J733" s="159"/>
+      <c r="K733" s="159"/>
+      <c r="L733" s="160"/>
       <c r="M733" s="4"/>
       <c r="N733" s="8"/>
-      <c r="O733" s="133" t="s">
+      <c r="O733" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P733" s="134"/>
-      <c r="Q733" s="134"/>
-      <c r="R733" s="135"/>
+      <c r="P733" s="136"/>
+      <c r="Q733" s="136"/>
+      <c r="R733" s="137"/>
       <c r="S733" s="9"/>
-      <c r="T733" s="133" t="s">
+      <c r="T733" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U733" s="134"/>
-      <c r="V733" s="134"/>
-      <c r="W733" s="134"/>
-      <c r="X733" s="134"/>
-      <c r="Y733" s="135"/>
+      <c r="U733" s="136"/>
+      <c r="V733" s="136"/>
+      <c r="W733" s="136"/>
+      <c r="X733" s="136"/>
+      <c r="Y733" s="137"/>
       <c r="Z733" s="10"/>
       <c r="AA733" s="4"/>
     </row>
     <row r="734" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="47"/>
       <c r="B734" s="45"/>
-      <c r="C734" s="147" t="s">
+      <c r="C734" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D734" s="147"/>
-      <c r="E734" s="147"/>
-      <c r="F734" s="147"/>
+      <c r="D734" s="140"/>
+      <c r="E734" s="140"/>
+      <c r="F734" s="140"/>
       <c r="G734" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H734" s="146">
+      <c r="H734" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I734" s="146"/>
+      <c r="I734" s="143"/>
       <c r="J734" s="45"/>
       <c r="K734" s="49"/>
       <c r="L734" s="50"/>
@@ -37897,16 +37900,16 @@
       <c r="C737" s="58"/>
       <c r="D737" s="45"/>
       <c r="E737" s="45"/>
-      <c r="F737" s="148" t="s">
+      <c r="F737" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="G737" s="148"/>
+      <c r="G737" s="150"/>
       <c r="H737" s="45"/>
-      <c r="I737" s="148" t="s">
+      <c r="I737" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="J737" s="148"/>
-      <c r="K737" s="148"/>
+      <c r="J737" s="150"/>
+      <c r="K737" s="150"/>
       <c r="L737" s="59"/>
       <c r="N737" s="15"/>
       <c r="O737" s="16" t="s">
@@ -37983,10 +37986,10 @@
     </row>
     <row r="739" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="47"/>
-      <c r="B739" s="144" t="s">
+      <c r="B739" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C739" s="145"/>
+      <c r="C739" s="139"/>
       <c r="D739" s="45"/>
       <c r="E739" s="45"/>
       <c r="F739" s="62" t="s">
@@ -38113,10 +38116,10 @@
         <v>0</v>
       </c>
       <c r="H741" s="60"/>
-      <c r="I741" s="136" t="s">
+      <c r="I741" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J741" s="137"/>
+      <c r="J741" s="146"/>
       <c r="K741" s="69">
         <f>K739+K740</f>
         <v>66400.862068965507</v>
@@ -38171,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="H742" s="60"/>
-      <c r="I742" s="136" t="s">
+      <c r="I742" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J742" s="137"/>
+      <c r="J742" s="146"/>
       <c r="K742" s="63">
         <f>G742</f>
         <v>0</v>
@@ -38232,7 +38235,7 @@
       <c r="I743" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J743" s="143"/>
+      <c r="J743" s="142"/>
       <c r="K743" s="41">
         <f>K741-K742</f>
         <v>66400.862068965507</v>
@@ -38313,18 +38316,18 @@
     </row>
     <row r="745" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="47"/>
-      <c r="B745" s="152" t="s">
+      <c r="B745" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="C745" s="152"/>
-      <c r="D745" s="152"/>
-      <c r="E745" s="152"/>
-      <c r="F745" s="152"/>
-      <c r="G745" s="152"/>
-      <c r="H745" s="152"/>
-      <c r="I745" s="152"/>
-      <c r="J745" s="152"/>
-      <c r="K745" s="152"/>
+      <c r="C745" s="157"/>
+      <c r="D745" s="157"/>
+      <c r="E745" s="157"/>
+      <c r="F745" s="157"/>
+      <c r="G745" s="157"/>
+      <c r="H745" s="157"/>
+      <c r="I745" s="157"/>
+      <c r="J745" s="157"/>
+      <c r="K745" s="157"/>
       <c r="L745" s="59"/>
       <c r="N745" s="15"/>
       <c r="O745" s="16" t="s">
@@ -38358,16 +38361,16 @@
     </row>
     <row r="746" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="47"/>
-      <c r="B746" s="152"/>
-      <c r="C746" s="152"/>
-      <c r="D746" s="152"/>
-      <c r="E746" s="152"/>
-      <c r="F746" s="152"/>
-      <c r="G746" s="152"/>
-      <c r="H746" s="152"/>
-      <c r="I746" s="152"/>
-      <c r="J746" s="152"/>
-      <c r="K746" s="152"/>
+      <c r="B746" s="157"/>
+      <c r="C746" s="157"/>
+      <c r="D746" s="157"/>
+      <c r="E746" s="157"/>
+      <c r="F746" s="157"/>
+      <c r="G746" s="157"/>
+      <c r="H746" s="157"/>
+      <c r="I746" s="157"/>
+      <c r="J746" s="157"/>
+      <c r="K746" s="157"/>
       <c r="L746" s="59"/>
       <c r="N746" s="15"/>
       <c r="O746" s="16" t="s">
@@ -38454,58 +38457,58 @@
       <c r="Z748" s="7"/>
     </row>
     <row r="749" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A749" s="138" t="s">
+      <c r="A749" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B749" s="139"/>
-      <c r="C749" s="139"/>
-      <c r="D749" s="139"/>
-      <c r="E749" s="139"/>
-      <c r="F749" s="139"/>
-      <c r="G749" s="139"/>
-      <c r="H749" s="139"/>
-      <c r="I749" s="139"/>
-      <c r="J749" s="139"/>
-      <c r="K749" s="139"/>
-      <c r="L749" s="140"/>
+      <c r="B749" s="148"/>
+      <c r="C749" s="148"/>
+      <c r="D749" s="148"/>
+      <c r="E749" s="148"/>
+      <c r="F749" s="148"/>
+      <c r="G749" s="148"/>
+      <c r="H749" s="148"/>
+      <c r="I749" s="148"/>
+      <c r="J749" s="148"/>
+      <c r="K749" s="148"/>
+      <c r="L749" s="149"/>
       <c r="M749" s="4"/>
       <c r="N749" s="8"/>
-      <c r="O749" s="133" t="s">
+      <c r="O749" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P749" s="134"/>
-      <c r="Q749" s="134"/>
-      <c r="R749" s="135"/>
+      <c r="P749" s="136"/>
+      <c r="Q749" s="136"/>
+      <c r="R749" s="137"/>
       <c r="S749" s="9"/>
-      <c r="T749" s="133" t="s">
+      <c r="T749" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U749" s="134"/>
-      <c r="V749" s="134"/>
-      <c r="W749" s="134"/>
-      <c r="X749" s="134"/>
-      <c r="Y749" s="135"/>
+      <c r="U749" s="136"/>
+      <c r="V749" s="136"/>
+      <c r="W749" s="136"/>
+      <c r="X749" s="136"/>
+      <c r="Y749" s="137"/>
       <c r="Z749" s="10"/>
       <c r="AA749" s="4"/>
     </row>
     <row r="750" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="47"/>
       <c r="B750" s="45"/>
-      <c r="C750" s="147" t="s">
+      <c r="C750" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D750" s="147"/>
-      <c r="E750" s="147"/>
-      <c r="F750" s="147"/>
+      <c r="D750" s="140"/>
+      <c r="E750" s="140"/>
+      <c r="F750" s="140"/>
       <c r="G750" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H750" s="146">
+      <c r="H750" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I750" s="146"/>
+      <c r="I750" s="143"/>
       <c r="J750" s="45"/>
       <c r="K750" s="49"/>
       <c r="L750" s="50"/>
@@ -38657,13 +38660,13 @@
       <c r="F753" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G753" s="143"/>
+      <c r="G753" s="142"/>
       <c r="H753" s="45"/>
       <c r="I753" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J753" s="142"/>
-      <c r="K753" s="143"/>
+      <c r="J753" s="144"/>
+      <c r="K753" s="142"/>
       <c r="L753" s="59"/>
       <c r="N753" s="15"/>
       <c r="O753" s="16" t="s">
@@ -38728,10 +38731,10 @@
     </row>
     <row r="755" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="47"/>
-      <c r="B755" s="144" t="s">
+      <c r="B755" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C755" s="145"/>
+      <c r="C755" s="139"/>
       <c r="D755" s="45"/>
       <c r="E755" s="45"/>
       <c r="F755" s="62" t="s">
@@ -38846,10 +38849,10 @@
         <v>11500</v>
       </c>
       <c r="H757" s="60"/>
-      <c r="I757" s="136" t="s">
+      <c r="I757" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J757" s="137"/>
+      <c r="J757" s="146"/>
       <c r="K757" s="69">
         <f>K755+K756</f>
         <v>45800</v>
@@ -38901,10 +38904,10 @@
         <v>11500</v>
       </c>
       <c r="H758" s="60"/>
-      <c r="I758" s="136" t="s">
+      <c r="I758" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J758" s="137"/>
+      <c r="J758" s="146"/>
       <c r="K758" s="63">
         <f>G758</f>
         <v>11500</v>
@@ -38958,7 +38961,7 @@
       <c r="I759" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J759" s="143"/>
+      <c r="J759" s="142"/>
       <c r="K759" s="41">
         <f>K757-K758</f>
         <v>34300</v>
@@ -39143,58 +39146,58 @@
       <c r="Z763" s="28"/>
     </row>
     <row r="764" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A764" s="162" t="s">
+      <c r="A764" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="B764" s="163"/>
-      <c r="C764" s="163"/>
-      <c r="D764" s="163"/>
-      <c r="E764" s="163"/>
-      <c r="F764" s="163"/>
-      <c r="G764" s="163"/>
-      <c r="H764" s="163"/>
-      <c r="I764" s="163"/>
-      <c r="J764" s="163"/>
-      <c r="K764" s="163"/>
-      <c r="L764" s="164"/>
+      <c r="B764" s="168"/>
+      <c r="C764" s="168"/>
+      <c r="D764" s="168"/>
+      <c r="E764" s="168"/>
+      <c r="F764" s="168"/>
+      <c r="G764" s="168"/>
+      <c r="H764" s="168"/>
+      <c r="I764" s="168"/>
+      <c r="J764" s="168"/>
+      <c r="K764" s="168"/>
+      <c r="L764" s="169"/>
       <c r="M764" s="4"/>
       <c r="N764" s="8"/>
-      <c r="O764" s="133" t="s">
+      <c r="O764" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P764" s="134"/>
-      <c r="Q764" s="134"/>
-      <c r="R764" s="135"/>
+      <c r="P764" s="136"/>
+      <c r="Q764" s="136"/>
+      <c r="R764" s="137"/>
       <c r="S764" s="9"/>
-      <c r="T764" s="133" t="s">
+      <c r="T764" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U764" s="134"/>
-      <c r="V764" s="134"/>
-      <c r="W764" s="134"/>
-      <c r="X764" s="134"/>
-      <c r="Y764" s="135"/>
+      <c r="U764" s="136"/>
+      <c r="V764" s="136"/>
+      <c r="W764" s="136"/>
+      <c r="X764" s="136"/>
+      <c r="Y764" s="137"/>
       <c r="Z764" s="10"/>
       <c r="AA764" s="4"/>
     </row>
     <row r="765" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="47"/>
       <c r="B765" s="45"/>
-      <c r="C765" s="147" t="s">
+      <c r="C765" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D765" s="147"/>
-      <c r="E765" s="147"/>
-      <c r="F765" s="147"/>
+      <c r="D765" s="140"/>
+      <c r="E765" s="140"/>
+      <c r="F765" s="140"/>
       <c r="G765" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H765" s="146">
+      <c r="H765" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I765" s="146"/>
+      <c r="I765" s="143"/>
       <c r="J765" s="45"/>
       <c r="K765" s="49"/>
       <c r="L765" s="50"/>
@@ -39338,16 +39341,16 @@
       <c r="C768" s="58"/>
       <c r="D768" s="45"/>
       <c r="E768" s="45"/>
-      <c r="F768" s="148" t="s">
+      <c r="F768" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="G768" s="148"/>
+      <c r="G768" s="150"/>
       <c r="H768" s="45"/>
-      <c r="I768" s="148" t="s">
+      <c r="I768" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="J768" s="148"/>
-      <c r="K768" s="148"/>
+      <c r="J768" s="150"/>
+      <c r="K768" s="150"/>
       <c r="L768" s="59"/>
       <c r="N768" s="15"/>
       <c r="O768" s="16" t="s">
@@ -39418,10 +39421,10 @@
     </row>
     <row r="770" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="47"/>
-      <c r="B770" s="144" t="s">
+      <c r="B770" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C770" s="145"/>
+      <c r="C770" s="139"/>
       <c r="D770" s="45"/>
       <c r="E770" s="45"/>
       <c r="F770" s="62" t="s">
@@ -39542,10 +39545,10 @@
         <v/>
       </c>
       <c r="H772" s="60"/>
-      <c r="I772" s="136" t="s">
+      <c r="I772" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J772" s="137"/>
+      <c r="J772" s="146"/>
       <c r="K772" s="69">
         <f>K770+K771</f>
         <v>41655.172413793109</v>
@@ -39597,10 +39600,10 @@
         <v>0</v>
       </c>
       <c r="H773" s="60"/>
-      <c r="I773" s="136" t="s">
+      <c r="I773" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J773" s="137"/>
+      <c r="J773" s="146"/>
       <c r="K773" s="63">
         <f>G773</f>
         <v>0</v>
@@ -39655,7 +39658,7 @@
       <c r="I774" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J774" s="143"/>
+      <c r="J774" s="142"/>
       <c r="K774" s="41">
         <f>K772-K773</f>
         <v>41655.172413793109</v>
@@ -39730,18 +39733,18 @@
     </row>
     <row r="776" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="47"/>
-      <c r="B776" s="152" t="s">
+      <c r="B776" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="C776" s="152"/>
-      <c r="D776" s="152"/>
-      <c r="E776" s="152"/>
-      <c r="F776" s="152"/>
-      <c r="G776" s="152"/>
-      <c r="H776" s="152"/>
-      <c r="I776" s="152"/>
-      <c r="J776" s="152"/>
-      <c r="K776" s="152"/>
+      <c r="C776" s="157"/>
+      <c r="D776" s="157"/>
+      <c r="E776" s="157"/>
+      <c r="F776" s="157"/>
+      <c r="G776" s="157"/>
+      <c r="H776" s="157"/>
+      <c r="I776" s="157"/>
+      <c r="J776" s="157"/>
+      <c r="K776" s="157"/>
       <c r="L776" s="59"/>
       <c r="N776" s="15"/>
       <c r="O776" s="16" t="s">
@@ -39772,16 +39775,16 @@
     </row>
     <row r="777" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="47"/>
-      <c r="B777" s="152"/>
-      <c r="C777" s="152"/>
-      <c r="D777" s="152"/>
-      <c r="E777" s="152"/>
-      <c r="F777" s="152"/>
-      <c r="G777" s="152"/>
-      <c r="H777" s="152"/>
-      <c r="I777" s="152"/>
-      <c r="J777" s="152"/>
-      <c r="K777" s="152"/>
+      <c r="B777" s="157"/>
+      <c r="C777" s="157"/>
+      <c r="D777" s="157"/>
+      <c r="E777" s="157"/>
+      <c r="F777" s="157"/>
+      <c r="G777" s="157"/>
+      <c r="H777" s="157"/>
+      <c r="I777" s="157"/>
+      <c r="J777" s="157"/>
+      <c r="K777" s="157"/>
       <c r="L777" s="59"/>
       <c r="N777" s="15"/>
       <c r="O777" s="16" t="s">
@@ -39838,58 +39841,58 @@
       <c r="Z778" s="23"/>
     </row>
     <row r="779" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A779" s="138" t="s">
+      <c r="A779" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B779" s="139"/>
-      <c r="C779" s="139"/>
-      <c r="D779" s="139"/>
-      <c r="E779" s="139"/>
-      <c r="F779" s="139"/>
-      <c r="G779" s="139"/>
-      <c r="H779" s="139"/>
-      <c r="I779" s="139"/>
-      <c r="J779" s="139"/>
-      <c r="K779" s="139"/>
-      <c r="L779" s="140"/>
+      <c r="B779" s="148"/>
+      <c r="C779" s="148"/>
+      <c r="D779" s="148"/>
+      <c r="E779" s="148"/>
+      <c r="F779" s="148"/>
+      <c r="G779" s="148"/>
+      <c r="H779" s="148"/>
+      <c r="I779" s="148"/>
+      <c r="J779" s="148"/>
+      <c r="K779" s="148"/>
+      <c r="L779" s="149"/>
       <c r="M779" s="4"/>
       <c r="N779" s="8"/>
-      <c r="O779" s="133" t="s">
+      <c r="O779" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P779" s="134"/>
-      <c r="Q779" s="134"/>
-      <c r="R779" s="135"/>
+      <c r="P779" s="136"/>
+      <c r="Q779" s="136"/>
+      <c r="R779" s="137"/>
       <c r="S779" s="9"/>
-      <c r="T779" s="133" t="s">
+      <c r="T779" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U779" s="134"/>
-      <c r="V779" s="134"/>
-      <c r="W779" s="134"/>
-      <c r="X779" s="134"/>
-      <c r="Y779" s="135"/>
+      <c r="U779" s="136"/>
+      <c r="V779" s="136"/>
+      <c r="W779" s="136"/>
+      <c r="X779" s="136"/>
+      <c r="Y779" s="137"/>
       <c r="Z779" s="10"/>
       <c r="AA779" s="4"/>
     </row>
     <row r="780" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="47"/>
       <c r="B780" s="45"/>
-      <c r="C780" s="147" t="s">
+      <c r="C780" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D780" s="147"/>
-      <c r="E780" s="147"/>
-      <c r="F780" s="147"/>
+      <c r="D780" s="140"/>
+      <c r="E780" s="140"/>
+      <c r="F780" s="140"/>
       <c r="G780" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H780" s="146">
+      <c r="H780" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I780" s="146"/>
+      <c r="I780" s="143"/>
       <c r="J780" s="45"/>
       <c r="K780" s="49"/>
       <c r="L780" s="50"/>
@@ -40046,13 +40049,13 @@
       <c r="F783" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G783" s="143"/>
+      <c r="G783" s="142"/>
       <c r="H783" s="45"/>
       <c r="I783" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J783" s="142"/>
-      <c r="K783" s="143"/>
+      <c r="J783" s="144"/>
+      <c r="K783" s="142"/>
       <c r="L783" s="59"/>
       <c r="N783" s="15"/>
       <c r="O783" s="16" t="s">
@@ -40124,10 +40127,10 @@
     </row>
     <row r="785" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="47"/>
-      <c r="B785" s="144" t="s">
+      <c r="B785" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C785" s="145"/>
+      <c r="C785" s="139"/>
       <c r="D785" s="45"/>
       <c r="E785" s="45"/>
       <c r="F785" s="62" t="s">
@@ -40250,10 +40253,10 @@
         <v>0</v>
       </c>
       <c r="H787" s="60"/>
-      <c r="I787" s="136" t="s">
+      <c r="I787" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J787" s="137"/>
+      <c r="J787" s="146"/>
       <c r="K787" s="69">
         <f>K785+K786</f>
         <v>60000.000000000007</v>
@@ -40307,10 +40310,10 @@
         <v>0</v>
       </c>
       <c r="H788" s="60"/>
-      <c r="I788" s="136" t="s">
+      <c r="I788" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J788" s="137"/>
+      <c r="J788" s="146"/>
       <c r="K788" s="63">
         <f>G788</f>
         <v>0</v>
@@ -40368,7 +40371,7 @@
       <c r="I789" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J789" s="143"/>
+      <c r="J789" s="142"/>
       <c r="K789" s="41">
         <f>K787-K788</f>
         <v>60000.000000000007</v>
@@ -40614,58 +40617,58 @@
       <c r="Z795" s="7"/>
     </row>
     <row r="796" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A796" s="168" t="s">
+      <c r="A796" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="B796" s="169"/>
-      <c r="C796" s="169"/>
-      <c r="D796" s="169"/>
-      <c r="E796" s="169"/>
-      <c r="F796" s="169"/>
-      <c r="G796" s="169"/>
-      <c r="H796" s="169"/>
-      <c r="I796" s="169"/>
-      <c r="J796" s="169"/>
-      <c r="K796" s="169"/>
-      <c r="L796" s="170"/>
+      <c r="B796" s="171"/>
+      <c r="C796" s="171"/>
+      <c r="D796" s="171"/>
+      <c r="E796" s="171"/>
+      <c r="F796" s="171"/>
+      <c r="G796" s="171"/>
+      <c r="H796" s="171"/>
+      <c r="I796" s="171"/>
+      <c r="J796" s="171"/>
+      <c r="K796" s="171"/>
+      <c r="L796" s="172"/>
       <c r="M796" s="4"/>
       <c r="N796" s="8"/>
-      <c r="O796" s="133" t="s">
+      <c r="O796" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P796" s="134"/>
-      <c r="Q796" s="134"/>
-      <c r="R796" s="135"/>
+      <c r="P796" s="136"/>
+      <c r="Q796" s="136"/>
+      <c r="R796" s="137"/>
       <c r="S796" s="9"/>
-      <c r="T796" s="133" t="s">
+      <c r="T796" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U796" s="134"/>
-      <c r="V796" s="134"/>
-      <c r="W796" s="134"/>
-      <c r="X796" s="134"/>
-      <c r="Y796" s="135"/>
+      <c r="U796" s="136"/>
+      <c r="V796" s="136"/>
+      <c r="W796" s="136"/>
+      <c r="X796" s="136"/>
+      <c r="Y796" s="137"/>
       <c r="Z796" s="10"/>
       <c r="AA796" s="4"/>
     </row>
     <row r="797" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="47"/>
       <c r="B797" s="45"/>
-      <c r="C797" s="147" t="s">
+      <c r="C797" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D797" s="147"/>
-      <c r="E797" s="147"/>
-      <c r="F797" s="147"/>
+      <c r="D797" s="140"/>
+      <c r="E797" s="140"/>
+      <c r="F797" s="140"/>
       <c r="G797" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H797" s="146">
+      <c r="H797" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I797" s="146"/>
+      <c r="I797" s="143"/>
       <c r="J797" s="45"/>
       <c r="K797" s="49"/>
       <c r="L797" s="50"/>
@@ -40809,16 +40812,16 @@
       <c r="C800" s="58"/>
       <c r="D800" s="45"/>
       <c r="E800" s="45"/>
-      <c r="F800" s="148" t="s">
+      <c r="F800" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="G800" s="148"/>
+      <c r="G800" s="150"/>
       <c r="H800" s="45"/>
-      <c r="I800" s="148" t="s">
+      <c r="I800" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="J800" s="148"/>
-      <c r="K800" s="148"/>
+      <c r="J800" s="150"/>
+      <c r="K800" s="150"/>
       <c r="L800" s="59"/>
       <c r="N800" s="15"/>
       <c r="O800" s="16" t="s">
@@ -40895,10 +40898,10 @@
     </row>
     <row r="802" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="47"/>
-      <c r="B802" s="144" t="s">
+      <c r="B802" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C802" s="145"/>
+      <c r="C802" s="139"/>
       <c r="D802" s="45"/>
       <c r="E802" s="45"/>
       <c r="F802" s="62" t="s">
@@ -41023,10 +41026,10 @@
         <v>0</v>
       </c>
       <c r="H804" s="60"/>
-      <c r="I804" s="136" t="s">
+      <c r="I804" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J804" s="137"/>
+      <c r="J804" s="146"/>
       <c r="K804" s="69">
         <f>K802+K803</f>
         <v>64137.931034482768</v>
@@ -41081,10 +41084,10 @@
         <v>0</v>
       </c>
       <c r="H805" s="60"/>
-      <c r="I805" s="136" t="s">
+      <c r="I805" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J805" s="137"/>
+      <c r="J805" s="146"/>
       <c r="K805" s="63">
         <f>G805</f>
         <v>0</v>
@@ -41142,7 +41145,7 @@
       <c r="I806" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J806" s="143"/>
+      <c r="J806" s="142"/>
       <c r="K806" s="41">
         <f>K804-K805</f>
         <v>64137.931034482768</v>
@@ -41223,18 +41226,18 @@
     </row>
     <row r="808" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="47"/>
-      <c r="B808" s="152" t="s">
+      <c r="B808" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="C808" s="152"/>
-      <c r="D808" s="152"/>
-      <c r="E808" s="152"/>
-      <c r="F808" s="152"/>
-      <c r="G808" s="152"/>
-      <c r="H808" s="152"/>
-      <c r="I808" s="152"/>
-      <c r="J808" s="152"/>
-      <c r="K808" s="152"/>
+      <c r="C808" s="157"/>
+      <c r="D808" s="157"/>
+      <c r="E808" s="157"/>
+      <c r="F808" s="157"/>
+      <c r="G808" s="157"/>
+      <c r="H808" s="157"/>
+      <c r="I808" s="157"/>
+      <c r="J808" s="157"/>
+      <c r="K808" s="157"/>
       <c r="L808" s="59"/>
       <c r="N808" s="15"/>
       <c r="O808" s="16" t="s">
@@ -41268,16 +41271,16 @@
     </row>
     <row r="809" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="47"/>
-      <c r="B809" s="152"/>
-      <c r="C809" s="152"/>
-      <c r="D809" s="152"/>
-      <c r="E809" s="152"/>
-      <c r="F809" s="152"/>
-      <c r="G809" s="152"/>
-      <c r="H809" s="152"/>
-      <c r="I809" s="152"/>
-      <c r="J809" s="152"/>
-      <c r="K809" s="152"/>
+      <c r="B809" s="157"/>
+      <c r="C809" s="157"/>
+      <c r="D809" s="157"/>
+      <c r="E809" s="157"/>
+      <c r="F809" s="157"/>
+      <c r="G809" s="157"/>
+      <c r="H809" s="157"/>
+      <c r="I809" s="157"/>
+      <c r="J809" s="157"/>
+      <c r="K809" s="157"/>
       <c r="L809" s="59"/>
       <c r="N809" s="15"/>
       <c r="O809" s="16" t="s">
@@ -41364,58 +41367,58 @@
       <c r="Z811" s="7"/>
     </row>
     <row r="812" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A812" s="156" t="s">
+      <c r="A812" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="B812" s="157"/>
-      <c r="C812" s="157"/>
-      <c r="D812" s="157"/>
-      <c r="E812" s="157"/>
-      <c r="F812" s="157"/>
-      <c r="G812" s="157"/>
-      <c r="H812" s="157"/>
-      <c r="I812" s="157"/>
-      <c r="J812" s="157"/>
-      <c r="K812" s="157"/>
-      <c r="L812" s="158"/>
+      <c r="B812" s="162"/>
+      <c r="C812" s="162"/>
+      <c r="D812" s="162"/>
+      <c r="E812" s="162"/>
+      <c r="F812" s="162"/>
+      <c r="G812" s="162"/>
+      <c r="H812" s="162"/>
+      <c r="I812" s="162"/>
+      <c r="J812" s="162"/>
+      <c r="K812" s="162"/>
+      <c r="L812" s="163"/>
       <c r="M812" s="4"/>
       <c r="N812" s="8"/>
-      <c r="O812" s="133" t="s">
+      <c r="O812" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P812" s="134"/>
-      <c r="Q812" s="134"/>
-      <c r="R812" s="135"/>
+      <c r="P812" s="136"/>
+      <c r="Q812" s="136"/>
+      <c r="R812" s="137"/>
       <c r="S812" s="9"/>
-      <c r="T812" s="133" t="s">
+      <c r="T812" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U812" s="134"/>
-      <c r="V812" s="134"/>
-      <c r="W812" s="134"/>
-      <c r="X812" s="134"/>
-      <c r="Y812" s="135"/>
+      <c r="U812" s="136"/>
+      <c r="V812" s="136"/>
+      <c r="W812" s="136"/>
+      <c r="X812" s="136"/>
+      <c r="Y812" s="137"/>
       <c r="Z812" s="10"/>
       <c r="AA812" s="4"/>
     </row>
     <row r="813" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="47"/>
       <c r="B813" s="45"/>
-      <c r="C813" s="147" t="s">
+      <c r="C813" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D813" s="147"/>
-      <c r="E813" s="147"/>
-      <c r="F813" s="147"/>
+      <c r="D813" s="140"/>
+      <c r="E813" s="140"/>
+      <c r="F813" s="140"/>
       <c r="G813" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H813" s="146">
+      <c r="H813" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I813" s="146"/>
+      <c r="I813" s="143"/>
       <c r="J813" s="45"/>
       <c r="K813" s="49"/>
       <c r="L813" s="50"/>
@@ -41562,16 +41565,16 @@
       <c r="C816" s="58"/>
       <c r="D816" s="45"/>
       <c r="E816" s="45"/>
-      <c r="F816" s="148" t="s">
+      <c r="F816" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="G816" s="148"/>
+      <c r="G816" s="150"/>
       <c r="H816" s="45"/>
-      <c r="I816" s="148" t="s">
+      <c r="I816" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="J816" s="148"/>
-      <c r="K816" s="148"/>
+      <c r="J816" s="150"/>
+      <c r="K816" s="150"/>
       <c r="L816" s="59"/>
       <c r="N816" s="15"/>
       <c r="O816" s="16" t="s">
@@ -41655,10 +41658,10 @@
     </row>
     <row r="818" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="47"/>
-      <c r="B818" s="144" t="s">
+      <c r="B818" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C818" s="145"/>
+      <c r="C818" s="139"/>
       <c r="D818" s="45"/>
       <c r="E818" s="45"/>
       <c r="F818" s="62" t="s">
@@ -41789,10 +41792,10 @@
         <v>0</v>
       </c>
       <c r="H820" s="60"/>
-      <c r="I820" s="136" t="s">
+      <c r="I820" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J820" s="137"/>
+      <c r="J820" s="146"/>
       <c r="K820" s="69">
         <f>K818+K819</f>
         <v>0</v>
@@ -41846,10 +41849,10 @@
         <v>0</v>
       </c>
       <c r="H821" s="60"/>
-      <c r="I821" s="136" t="s">
+      <c r="I821" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J821" s="137"/>
+      <c r="J821" s="146"/>
       <c r="K821" s="63">
         <f>G821</f>
         <v>0</v>
@@ -41906,7 +41909,7 @@
       <c r="I822" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J822" s="143"/>
+      <c r="J822" s="142"/>
       <c r="K822" s="41"/>
       <c r="L822" s="72"/>
       <c r="N822" s="15"/>
@@ -41982,18 +41985,18 @@
     </row>
     <row r="824" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="47"/>
-      <c r="B824" s="152" t="s">
+      <c r="B824" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="C824" s="152"/>
-      <c r="D824" s="152"/>
-      <c r="E824" s="152"/>
-      <c r="F824" s="152"/>
-      <c r="G824" s="152"/>
-      <c r="H824" s="152"/>
-      <c r="I824" s="152"/>
-      <c r="J824" s="152"/>
-      <c r="K824" s="152"/>
+      <c r="C824" s="157"/>
+      <c r="D824" s="157"/>
+      <c r="E824" s="157"/>
+      <c r="F824" s="157"/>
+      <c r="G824" s="157"/>
+      <c r="H824" s="157"/>
+      <c r="I824" s="157"/>
+      <c r="J824" s="157"/>
+      <c r="K824" s="157"/>
       <c r="L824" s="59"/>
       <c r="N824" s="15"/>
       <c r="O824" s="16" t="s">
@@ -42026,16 +42029,16 @@
     </row>
     <row r="825" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="47"/>
-      <c r="B825" s="152"/>
-      <c r="C825" s="152"/>
-      <c r="D825" s="152"/>
-      <c r="E825" s="152"/>
-      <c r="F825" s="152"/>
-      <c r="G825" s="152"/>
-      <c r="H825" s="152"/>
-      <c r="I825" s="152"/>
-      <c r="J825" s="152"/>
-      <c r="K825" s="152"/>
+      <c r="B825" s="157"/>
+      <c r="C825" s="157"/>
+      <c r="D825" s="157"/>
+      <c r="E825" s="157"/>
+      <c r="F825" s="157"/>
+      <c r="G825" s="157"/>
+      <c r="H825" s="157"/>
+      <c r="I825" s="157"/>
+      <c r="J825" s="157"/>
+      <c r="K825" s="157"/>
       <c r="L825" s="59"/>
       <c r="N825" s="15"/>
       <c r="O825" s="16" t="s">
@@ -42121,58 +42124,58 @@
       <c r="Z827" s="7"/>
     </row>
     <row r="828" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A828" s="165" t="s">
+      <c r="A828" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="B828" s="166"/>
-      <c r="C828" s="166"/>
-      <c r="D828" s="166"/>
-      <c r="E828" s="166"/>
-      <c r="F828" s="166"/>
-      <c r="G828" s="166"/>
-      <c r="H828" s="166"/>
-      <c r="I828" s="166"/>
-      <c r="J828" s="166"/>
-      <c r="K828" s="166"/>
-      <c r="L828" s="167"/>
+      <c r="B828" s="165"/>
+      <c r="C828" s="165"/>
+      <c r="D828" s="165"/>
+      <c r="E828" s="165"/>
+      <c r="F828" s="165"/>
+      <c r="G828" s="165"/>
+      <c r="H828" s="165"/>
+      <c r="I828" s="165"/>
+      <c r="J828" s="165"/>
+      <c r="K828" s="165"/>
+      <c r="L828" s="166"/>
       <c r="M828" s="4"/>
       <c r="N828" s="8"/>
-      <c r="O828" s="133" t="s">
+      <c r="O828" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="P828" s="134"/>
-      <c r="Q828" s="134"/>
-      <c r="R828" s="135"/>
+      <c r="P828" s="136"/>
+      <c r="Q828" s="136"/>
+      <c r="R828" s="137"/>
       <c r="S828" s="9"/>
-      <c r="T828" s="133" t="s">
+      <c r="T828" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U828" s="134"/>
-      <c r="V828" s="134"/>
-      <c r="W828" s="134"/>
-      <c r="X828" s="134"/>
-      <c r="Y828" s="135"/>
+      <c r="U828" s="136"/>
+      <c r="V828" s="136"/>
+      <c r="W828" s="136"/>
+      <c r="X828" s="136"/>
+      <c r="Y828" s="137"/>
       <c r="Z828" s="10"/>
       <c r="AA828" s="4"/>
     </row>
     <row r="829" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="47"/>
       <c r="B829" s="45"/>
-      <c r="C829" s="147" t="s">
+      <c r="C829" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="D829" s="147"/>
-      <c r="E829" s="147"/>
-      <c r="F829" s="147"/>
+      <c r="D829" s="140"/>
+      <c r="E829" s="140"/>
+      <c r="F829" s="140"/>
       <c r="G829" s="48" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H829" s="146">
+      <c r="H829" s="143">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I829" s="146"/>
+      <c r="I829" s="143"/>
       <c r="J829" s="45"/>
       <c r="K829" s="49"/>
       <c r="L829" s="50"/>
@@ -42311,16 +42314,16 @@
       <c r="C832" s="83"/>
       <c r="D832" s="45"/>
       <c r="E832" s="45"/>
-      <c r="F832" s="148" t="s">
+      <c r="F832" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="G832" s="148"/>
+      <c r="G832" s="150"/>
       <c r="H832" s="45"/>
-      <c r="I832" s="148" t="s">
+      <c r="I832" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="J832" s="148"/>
-      <c r="K832" s="148"/>
+      <c r="J832" s="150"/>
+      <c r="K832" s="150"/>
       <c r="L832" s="59"/>
       <c r="N832" s="15"/>
       <c r="O832" s="16" t="s">
@@ -42397,10 +42400,10 @@
     </row>
     <row r="834" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="47"/>
-      <c r="B834" s="144" t="s">
+      <c r="B834" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C834" s="145"/>
+      <c r="C834" s="139"/>
       <c r="D834" s="45"/>
       <c r="E834" s="45"/>
       <c r="F834" s="62" t="s">
@@ -42519,10 +42522,10 @@
         <v>0</v>
       </c>
       <c r="H836" s="60"/>
-      <c r="I836" s="136" t="s">
+      <c r="I836" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="J836" s="137"/>
+      <c r="J836" s="146"/>
       <c r="K836" s="69">
         <f>K834+K835</f>
         <v>0</v>
@@ -42577,10 +42580,10 @@
         <v>0</v>
       </c>
       <c r="H837" s="60"/>
-      <c r="I837" s="136" t="s">
+      <c r="I837" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J837" s="137"/>
+      <c r="J837" s="146"/>
       <c r="K837" s="63">
         <f>G837</f>
         <v>0</v>
@@ -42638,7 +42641,7 @@
       <c r="I838" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J838" s="143"/>
+      <c r="J838" s="142"/>
       <c r="K838" s="41">
         <f>K836-K837</f>
         <v>0</v>
@@ -42719,18 +42722,18 @@
     </row>
     <row r="840" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="47"/>
-      <c r="B840" s="152" t="s">
+      <c r="B840" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="C840" s="152"/>
-      <c r="D840" s="152"/>
-      <c r="E840" s="152"/>
-      <c r="F840" s="152"/>
-      <c r="G840" s="152"/>
-      <c r="H840" s="152"/>
-      <c r="I840" s="152"/>
-      <c r="J840" s="152"/>
-      <c r="K840" s="152"/>
+      <c r="C840" s="157"/>
+      <c r="D840" s="157"/>
+      <c r="E840" s="157"/>
+      <c r="F840" s="157"/>
+      <c r="G840" s="157"/>
+      <c r="H840" s="157"/>
+      <c r="I840" s="157"/>
+      <c r="J840" s="157"/>
+      <c r="K840" s="157"/>
       <c r="L840" s="59"/>
       <c r="N840" s="15"/>
       <c r="O840" s="16" t="s">
@@ -42764,16 +42767,16 @@
     </row>
     <row r="841" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="47"/>
-      <c r="B841" s="152"/>
-      <c r="C841" s="152"/>
-      <c r="D841" s="152"/>
-      <c r="E841" s="152"/>
-      <c r="F841" s="152"/>
-      <c r="G841" s="152"/>
-      <c r="H841" s="152"/>
-      <c r="I841" s="152"/>
-      <c r="J841" s="152"/>
-      <c r="K841" s="152"/>
+      <c r="B841" s="157"/>
+      <c r="C841" s="157"/>
+      <c r="D841" s="157"/>
+      <c r="E841" s="157"/>
+      <c r="F841" s="157"/>
+      <c r="G841" s="157"/>
+      <c r="H841" s="157"/>
+      <c r="I841" s="157"/>
+      <c r="J841" s="157"/>
+      <c r="K841" s="157"/>
       <c r="L841" s="59"/>
       <c r="N841" s="15"/>
       <c r="O841" s="16" t="s">
@@ -43023,6 +43026,13 @@
     <mergeCell ref="I680:J680"/>
     <mergeCell ref="I663:J663"/>
     <mergeCell ref="C703:F703"/>
+    <mergeCell ref="F643:G643"/>
+    <mergeCell ref="I619:J619"/>
+    <mergeCell ref="I617:J617"/>
+    <mergeCell ref="I528:J528"/>
+    <mergeCell ref="B539:C539"/>
+    <mergeCell ref="I541:J541"/>
+    <mergeCell ref="B605:K606"/>
     <mergeCell ref="B840:K841"/>
     <mergeCell ref="I552:K552"/>
     <mergeCell ref="F462:G462"/>
@@ -43047,7 +43057,18 @@
     <mergeCell ref="A503:L503"/>
     <mergeCell ref="I772:J772"/>
     <mergeCell ref="I743:J743"/>
-    <mergeCell ref="T187:Y187"/>
+    <mergeCell ref="T337:Y337"/>
+    <mergeCell ref="T518:Y518"/>
+    <mergeCell ref="T232:Y232"/>
+    <mergeCell ref="O458:R458"/>
+    <mergeCell ref="T382:Y382"/>
+    <mergeCell ref="T397:Y397"/>
+    <mergeCell ref="O397:R397"/>
+    <mergeCell ref="O518:R518"/>
+    <mergeCell ref="T247:Y247"/>
+    <mergeCell ref="T292:Y292"/>
+    <mergeCell ref="T367:Y367"/>
+    <mergeCell ref="O352:R352"/>
     <mergeCell ref="T473:Y473"/>
     <mergeCell ref="T428:Y428"/>
     <mergeCell ref="O473:R473"/>
@@ -43057,20 +43078,6 @@
     <mergeCell ref="O428:R428"/>
     <mergeCell ref="T488:Y488"/>
     <mergeCell ref="T458:Y458"/>
-    <mergeCell ref="T202:Y202"/>
-    <mergeCell ref="T337:Y337"/>
-    <mergeCell ref="T518:Y518"/>
-    <mergeCell ref="T232:Y232"/>
-    <mergeCell ref="O458:R458"/>
-    <mergeCell ref="T382:Y382"/>
-    <mergeCell ref="T397:Y397"/>
-    <mergeCell ref="O397:R397"/>
-    <mergeCell ref="O518:R518"/>
-    <mergeCell ref="T247:Y247"/>
-    <mergeCell ref="T217:Y217"/>
-    <mergeCell ref="T292:Y292"/>
-    <mergeCell ref="T367:Y367"/>
-    <mergeCell ref="O352:R352"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="I679:J679"/>
     <mergeCell ref="B163:C163"/>
@@ -43119,16 +43126,29 @@
     <mergeCell ref="I437:J437"/>
     <mergeCell ref="I537:K537"/>
     <mergeCell ref="I513:J513"/>
+    <mergeCell ref="T127:Y127"/>
+    <mergeCell ref="T157:Y157"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="A112:L112"/>
+    <mergeCell ref="C128:F128"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="C83:F83"/>
     <mergeCell ref="I326:K326"/>
-    <mergeCell ref="I331:J331"/>
-    <mergeCell ref="I332:J332"/>
     <mergeCell ref="I272:J272"/>
     <mergeCell ref="C278:F278"/>
     <mergeCell ref="I107:J107"/>
     <mergeCell ref="C98:F98"/>
     <mergeCell ref="C158:F158"/>
-    <mergeCell ref="C368:F368"/>
-    <mergeCell ref="T142:Y142"/>
+    <mergeCell ref="I165:J165"/>
+    <mergeCell ref="C143:F143"/>
+    <mergeCell ref="A217:L217"/>
+    <mergeCell ref="H218:I218"/>
+    <mergeCell ref="F221:G221"/>
+    <mergeCell ref="I221:K221"/>
+    <mergeCell ref="T187:Y187"/>
+    <mergeCell ref="T202:Y202"/>
+    <mergeCell ref="T217:Y217"/>
     <mergeCell ref="O82:R82"/>
     <mergeCell ref="I90:J90"/>
     <mergeCell ref="I91:J91"/>
@@ -43144,15 +43164,6 @@
     <mergeCell ref="A97:L97"/>
     <mergeCell ref="B133:C133"/>
     <mergeCell ref="O112:R112"/>
-    <mergeCell ref="T127:Y127"/>
-    <mergeCell ref="T157:Y157"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="A112:L112"/>
-    <mergeCell ref="C128:F128"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="O142:R142"/>
     <mergeCell ref="T97:Y97"/>
     <mergeCell ref="O97:R97"/>
     <mergeCell ref="T112:Y112"/>
@@ -43176,9 +43187,7 @@
     <mergeCell ref="I601:J601"/>
     <mergeCell ref="I602:J602"/>
     <mergeCell ref="I632:J632"/>
-    <mergeCell ref="I165:J165"/>
-    <mergeCell ref="C143:F143"/>
-    <mergeCell ref="A217:L217"/>
+    <mergeCell ref="T142:Y142"/>
     <mergeCell ref="A67:L67"/>
     <mergeCell ref="B193:C193"/>
     <mergeCell ref="I211:J211"/>
@@ -43200,6 +43209,8 @@
     <mergeCell ref="I92:J92"/>
     <mergeCell ref="F176:G176"/>
     <mergeCell ref="I71:K71"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="A172:L172"/>
     <mergeCell ref="O7:R7"/>
     <mergeCell ref="A7:L7"/>
     <mergeCell ref="O247:R247"/>
@@ -43248,17 +43259,6 @@
     <mergeCell ref="I837:J837"/>
     <mergeCell ref="I806:J806"/>
     <mergeCell ref="I451:J451"/>
-    <mergeCell ref="H368:I368"/>
-    <mergeCell ref="H218:I218"/>
-    <mergeCell ref="F221:G221"/>
-    <mergeCell ref="I221:K221"/>
-    <mergeCell ref="F643:G643"/>
-    <mergeCell ref="I619:J619"/>
-    <mergeCell ref="I617:J617"/>
-    <mergeCell ref="I528:J528"/>
-    <mergeCell ref="B539:C539"/>
-    <mergeCell ref="I541:J541"/>
-    <mergeCell ref="B605:K606"/>
     <mergeCell ref="B599:C599"/>
     <mergeCell ref="H625:I625"/>
     <mergeCell ref="H564:I564"/>
@@ -43274,6 +43274,15 @@
     <mergeCell ref="I341:K341"/>
     <mergeCell ref="I557:J557"/>
     <mergeCell ref="C579:F579"/>
+    <mergeCell ref="B388:C388"/>
+    <mergeCell ref="I375:J375"/>
+    <mergeCell ref="C383:F383"/>
+    <mergeCell ref="A413:L413"/>
+    <mergeCell ref="I236:K236"/>
+    <mergeCell ref="C233:F233"/>
+    <mergeCell ref="F266:G266"/>
+    <mergeCell ref="I331:J331"/>
+    <mergeCell ref="I332:J332"/>
     <mergeCell ref="I648:J648"/>
     <mergeCell ref="B683:K684"/>
     <mergeCell ref="H549:I549"/>
@@ -43358,11 +43367,8 @@
     <mergeCell ref="I633:J633"/>
     <mergeCell ref="B630:C630"/>
     <mergeCell ref="I628:K628"/>
-    <mergeCell ref="B388:C388"/>
-    <mergeCell ref="I375:J375"/>
-    <mergeCell ref="C383:F383"/>
-    <mergeCell ref="A413:L413"/>
-    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="O413:R413"/>
+    <mergeCell ref="I386:K386"/>
     <mergeCell ref="O217:R217"/>
     <mergeCell ref="A202:L202"/>
     <mergeCell ref="H203:I203"/>
@@ -43382,9 +43388,9 @@
     <mergeCell ref="I241:J241"/>
     <mergeCell ref="F356:G356"/>
     <mergeCell ref="A367:L367"/>
-    <mergeCell ref="O127:R127"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="A232:L232"/>
+    <mergeCell ref="I242:J242"/>
+    <mergeCell ref="F236:G236"/>
     <mergeCell ref="C414:F414"/>
     <mergeCell ref="B373:C373"/>
     <mergeCell ref="H173:I173"/>
@@ -43401,19 +43407,29 @@
     <mergeCell ref="I317:J317"/>
     <mergeCell ref="H398:I398"/>
     <mergeCell ref="H308:I308"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="H233:I233"/>
+    <mergeCell ref="C368:F368"/>
+    <mergeCell ref="H368:I368"/>
+    <mergeCell ref="A337:L337"/>
+    <mergeCell ref="A322:L322"/>
+    <mergeCell ref="B313:C313"/>
+    <mergeCell ref="I316:J316"/>
+    <mergeCell ref="I256:J256"/>
+    <mergeCell ref="I257:J257"/>
+    <mergeCell ref="O127:R127"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="I121:J121"/>
     <mergeCell ref="O202:R202"/>
     <mergeCell ref="O187:R187"/>
     <mergeCell ref="O157:R157"/>
-    <mergeCell ref="O413:R413"/>
-    <mergeCell ref="I386:K386"/>
-    <mergeCell ref="A232:L232"/>
-    <mergeCell ref="I242:J242"/>
-    <mergeCell ref="F236:G236"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="H233:I233"/>
-    <mergeCell ref="I236:K236"/>
-    <mergeCell ref="C233:F233"/>
-    <mergeCell ref="A172:L172"/>
+    <mergeCell ref="O142:R142"/>
+    <mergeCell ref="I447:K447"/>
+    <mergeCell ref="I497:J497"/>
+    <mergeCell ref="H534:I534"/>
+    <mergeCell ref="I558:J558"/>
+    <mergeCell ref="B554:C554"/>
+    <mergeCell ref="I542:J542"/>
     <mergeCell ref="O232:R232"/>
     <mergeCell ref="O172:R172"/>
     <mergeCell ref="I180:J180"/>
@@ -43423,28 +43439,15 @@
     <mergeCell ref="B223:C223"/>
     <mergeCell ref="O488:R488"/>
     <mergeCell ref="O533:R533"/>
-    <mergeCell ref="O624:R624"/>
-    <mergeCell ref="F522:G522"/>
-    <mergeCell ref="I522:K522"/>
-    <mergeCell ref="I498:J498"/>
-    <mergeCell ref="I466:J466"/>
-    <mergeCell ref="H444:I444"/>
-    <mergeCell ref="I597:K597"/>
-    <mergeCell ref="C534:F534"/>
-    <mergeCell ref="F597:G597"/>
-    <mergeCell ref="I586:J586"/>
-    <mergeCell ref="I582:K582"/>
-    <mergeCell ref="H489:I489"/>
-    <mergeCell ref="F492:G492"/>
-    <mergeCell ref="I492:K492"/>
-    <mergeCell ref="O609:R609"/>
-    <mergeCell ref="I618:J618"/>
-    <mergeCell ref="I447:K447"/>
-    <mergeCell ref="I497:J497"/>
-    <mergeCell ref="H534:I534"/>
-    <mergeCell ref="I558:J558"/>
-    <mergeCell ref="B554:C554"/>
-    <mergeCell ref="I542:J542"/>
+    <mergeCell ref="O307:R307"/>
+    <mergeCell ref="I301:J301"/>
+    <mergeCell ref="O277:R277"/>
+    <mergeCell ref="I240:J240"/>
+    <mergeCell ref="A262:L262"/>
+    <mergeCell ref="I266:K266"/>
+    <mergeCell ref="I346:J346"/>
+    <mergeCell ref="I345:J345"/>
+    <mergeCell ref="I311:K311"/>
     <mergeCell ref="T7:Y7"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
@@ -43529,8 +43532,6 @@
     <mergeCell ref="H188:I188"/>
     <mergeCell ref="C188:F188"/>
     <mergeCell ref="I255:J255"/>
-    <mergeCell ref="T828:Y828"/>
-    <mergeCell ref="T812:Y812"/>
     <mergeCell ref="I206:K206"/>
     <mergeCell ref="B208:C208"/>
     <mergeCell ref="I210:J210"/>
@@ -43544,7 +43545,6 @@
     <mergeCell ref="O593:R593"/>
     <mergeCell ref="I573:J573"/>
     <mergeCell ref="I603:J603"/>
-    <mergeCell ref="I800:K800"/>
     <mergeCell ref="C594:F594"/>
     <mergeCell ref="B739:C739"/>
     <mergeCell ref="I774:J774"/>
@@ -43553,22 +43553,9 @@
     <mergeCell ref="O548:R548"/>
     <mergeCell ref="O443:R443"/>
     <mergeCell ref="C549:F549"/>
-    <mergeCell ref="O307:R307"/>
-    <mergeCell ref="I301:J301"/>
-    <mergeCell ref="O277:R277"/>
-    <mergeCell ref="I240:J240"/>
-    <mergeCell ref="A262:L262"/>
-    <mergeCell ref="I266:K266"/>
-    <mergeCell ref="I346:J346"/>
-    <mergeCell ref="I345:J345"/>
-    <mergeCell ref="I311:K311"/>
-    <mergeCell ref="A337:L337"/>
-    <mergeCell ref="A322:L322"/>
-    <mergeCell ref="B313:C313"/>
-    <mergeCell ref="I316:J316"/>
-    <mergeCell ref="I256:J256"/>
-    <mergeCell ref="I257:J257"/>
-    <mergeCell ref="F266:G266"/>
+    <mergeCell ref="O624:R624"/>
+    <mergeCell ref="F522:G522"/>
+    <mergeCell ref="I522:K522"/>
     <mergeCell ref="O262:R262"/>
     <mergeCell ref="B298:C298"/>
     <mergeCell ref="C293:F293"/>
@@ -43577,6 +43564,22 @@
     <mergeCell ref="C323:F323"/>
     <mergeCell ref="H323:I323"/>
     <mergeCell ref="I296:K296"/>
+    <mergeCell ref="T828:Y828"/>
+    <mergeCell ref="T812:Y812"/>
+    <mergeCell ref="I800:K800"/>
+    <mergeCell ref="I498:J498"/>
+    <mergeCell ref="I466:J466"/>
+    <mergeCell ref="H444:I444"/>
+    <mergeCell ref="I597:K597"/>
+    <mergeCell ref="C534:F534"/>
+    <mergeCell ref="F597:G597"/>
+    <mergeCell ref="I586:J586"/>
+    <mergeCell ref="I582:K582"/>
+    <mergeCell ref="H489:I489"/>
+    <mergeCell ref="F492:G492"/>
+    <mergeCell ref="I492:K492"/>
+    <mergeCell ref="O609:R609"/>
+    <mergeCell ref="I618:J618"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
